--- a/CIS-Windows-Server-2022.xlsx
+++ b/CIS-Windows-Server-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itumfoundation.sharepoint.com/sites/IT/Shared Documents/documentation/Horne/In progress/IS17 Baseline Policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{49A89D1A-DAFA-4E12-8468-EE064A824B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5290BDF2-10BF-4DFE-B227-AAE574F4E806}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{49A89D1A-DAFA-4E12-8468-EE064A824B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E47B547-A5B3-4DF0-94E4-E6F879B3625A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
   </bookViews>
   <sheets>
     <sheet name="CIS Windows Server 2022 v1.0.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="764">
   <si>
     <t>1.1.1</t>
   </si>
@@ -2322,6 +2322,12 @@
   </si>
   <si>
     <t>Direct Link</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Network access: Sharing and security model for local accounts' is set to 'Classic - local users authenticate as themselves'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Network security: Minimum session security for NTLM SSP based (including secure RPC) servers' is set to 'Require NTLMv2 session security, Require 128-bit encryption'</t>
   </si>
 </sst>
 </file>
@@ -2374,11 +2380,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2389,6 +2392,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2706,4228 +2721,4232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DB50BF-856E-4B09-82A9-B1D3B9A7E638}">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="145.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B53" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B57" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B59" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B60" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B62" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B63" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B64" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B66" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B67" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B68" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B69" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B70" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B71" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B72" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B73" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B74" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B75" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B76" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B77" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B78" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B79" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B80" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B81" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B82" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B83" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B84" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B85" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B86" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B87" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B88" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B89" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B90" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B91" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B92" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B93" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B94" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B95" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B96" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B97" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B98" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B99" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B100" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B101" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B102" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B103" t="s">
         <v>199</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B104" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B105" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B106" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B107" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B108" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B109" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B110" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B111" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B112">
-        <v>0</v>
+      <c r="B112" t="s">
+        <v>762</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B113" t="s">
         <v>218</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B114" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B115" t="s">
         <v>222</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B116" t="s">
         <v>224</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B117" t="s">
         <v>226</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B118" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B119" t="s">
         <v>230</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B120" t="s">
         <v>232</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B121" t="s">
         <v>234</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B122">
-        <v>0</v>
+      <c r="B122" t="s">
+        <v>763</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B123" t="s">
         <v>237</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B124" t="s">
         <v>239</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B125" t="s">
         <v>241</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B126" t="s">
         <v>243</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B127" t="s">
         <v>245</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B128" t="s">
         <v>247</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B129" t="s">
         <v>249</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B130" t="s">
         <v>251</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B131" t="s">
         <v>253</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B132" t="s">
         <v>255</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B133" t="s">
         <v>257</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="B134" t="s">
         <v>258</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <v>5.2</v>
       </c>
       <c r="B135" t="s">
         <v>259</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B136" t="s">
         <v>261</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B137" t="s">
         <v>263</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="7" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B138" t="s">
         <v>265</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B139" t="s">
         <v>267</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B140" t="s">
         <v>269</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="7" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B141" t="s">
         <v>271</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B142" t="s">
         <v>273</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="7" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B143" t="s">
         <v>275</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B144" t="s">
         <v>277</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B145" t="s">
         <v>279</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B146" t="s">
         <v>281</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B147" t="s">
         <v>283</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B148" t="s">
         <v>285</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B149" t="s">
         <v>287</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B150" t="s">
         <v>289</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B151" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B152" t="s">
         <v>293</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B153" t="s">
         <v>295</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="7" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B154" t="s">
         <v>297</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B155" t="s">
         <v>299</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B156" t="s">
         <v>301</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B157" t="s">
         <v>303</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B158" t="s">
         <v>305</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B159" t="s">
         <v>307</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B160" t="s">
         <v>309</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B161" t="s">
         <v>311</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="7" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B162" t="s">
         <v>313</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B163" t="s">
         <v>315</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B164" t="s">
         <v>317</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B165" t="s">
         <v>319</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="7" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B166" t="s">
         <v>321</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="7" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B167" t="s">
         <v>323</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B168" t="s">
         <v>325</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B169" t="s">
         <v>327</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B170" t="s">
         <v>329</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B171" t="s">
         <v>331</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B172" t="s">
         <v>333</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B173" t="s">
         <v>335</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="7" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B174" t="s">
         <v>337</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>338</v>
       </c>
       <c r="B175" t="s">
         <v>339</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B176" t="s">
         <v>341</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B177" t="s">
         <v>343</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B178" t="s">
         <v>345</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="7" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B179" t="s">
         <v>347</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B180" t="s">
         <v>349</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>350</v>
       </c>
       <c r="B181" t="s">
         <v>351</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="7" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B182" t="s">
         <v>353</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="7" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B183" t="s">
         <v>355</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="7" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B184" t="s">
         <v>357</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B185" t="s">
         <v>359</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B186" t="s">
         <v>361</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="7" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B187" t="s">
         <v>363</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="7" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B188" t="s">
         <v>365</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B189" t="s">
         <v>367</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A190" s="3" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B190" t="s">
         <v>369</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="3" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B191" t="s">
         <v>371</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B192" t="s">
         <v>373</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B193" t="s">
         <v>375</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B194" t="s">
         <v>377</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B195" t="s">
         <v>379</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B196" t="s">
         <v>381</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B197" t="s">
         <v>383</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B198" t="s">
         <v>385</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B199" t="s">
         <v>387</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="7" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B200" t="s">
         <v>389</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="7" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B201" t="s">
         <v>391</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B202" t="s">
         <v>393</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B203" t="s">
         <v>395</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B204" t="s">
         <v>397</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="7" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B205" t="s">
         <v>399</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="7" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B206" t="s">
         <v>401</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>402</v>
       </c>
       <c r="B207" t="s">
         <v>403</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B208" t="s">
         <v>405</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>406</v>
       </c>
       <c r="B209" t="s">
         <v>407</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="7" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B210" t="s">
         <v>409</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B211" t="s">
         <v>411</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B212" t="s">
         <v>413</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B213" t="s">
         <v>415</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="7" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B214" t="s">
         <v>417</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B215" t="s">
         <v>419</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="7" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B216" t="s">
         <v>421</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B217" t="s">
         <v>423</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B218" t="s">
         <v>425</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="7" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B219" t="s">
         <v>427</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B220" t="s">
         <v>429</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B221" t="s">
         <v>431</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B222" t="s">
         <v>433</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B223" t="s">
         <v>435</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="7" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B224" t="s">
         <v>437</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="7" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B225" t="s">
         <v>439</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B226" t="s">
         <v>441</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B227" t="s">
         <v>443</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="7" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B228" t="s">
         <v>445</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B229" t="s">
         <v>447</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B230" t="s">
         <v>449</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B231" t="s">
         <v>451</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="7" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B232" t="s">
         <v>453</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>454</v>
       </c>
       <c r="B233" t="s">
         <v>455</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="7" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B234" t="s">
         <v>457</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="7" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>458</v>
       </c>
       <c r="B235" t="s">
         <v>459</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B236" t="s">
         <v>461</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B237" t="s">
         <v>463</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="7" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B238" t="s">
         <v>465</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="7" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B239" t="s">
         <v>467</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>468</v>
       </c>
       <c r="B240" t="s">
         <v>469</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>470</v>
       </c>
       <c r="B241" t="s">
         <v>471</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B242" t="s">
         <v>473</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B243" t="s">
         <v>475</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B244" t="s">
         <v>477</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>478</v>
       </c>
       <c r="B245" t="s">
         <v>479</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="7" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>480</v>
       </c>
       <c r="B246" t="s">
         <v>481</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>482</v>
       </c>
       <c r="B247" t="s">
         <v>483</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="7" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>484</v>
       </c>
       <c r="B248" t="s">
         <v>485</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="2" t="s">
         <v>486</v>
       </c>
       <c r="B249" t="s">
         <v>487</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="2" t="s">
         <v>488</v>
       </c>
       <c r="B250" t="s">
         <v>489</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="7" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="2" t="s">
         <v>490</v>
       </c>
       <c r="B251" t="s">
         <v>491</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="2" t="s">
         <v>492</v>
       </c>
       <c r="B252" t="s">
         <v>493</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="2" t="s">
         <v>494</v>
       </c>
       <c r="B253" t="s">
         <v>495</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="7" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B254" t="s">
         <v>497</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="7" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>498</v>
       </c>
       <c r="B255" t="s">
         <v>499</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="2" t="s">
         <v>500</v>
       </c>
       <c r="B256" t="s">
         <v>501</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="2" t="s">
         <v>502</v>
       </c>
       <c r="B257" t="s">
         <v>503</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="2" t="s">
         <v>504</v>
       </c>
       <c r="B258" t="s">
         <v>505</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="2" t="s">
         <v>506</v>
       </c>
       <c r="B259" t="s">
         <v>507</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="7" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="2" t="s">
         <v>508</v>
       </c>
       <c r="B260" t="s">
         <v>509</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B261" t="s">
         <v>511</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
         <v>512</v>
       </c>
       <c r="B262" t="s">
         <v>513</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="7" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>514</v>
       </c>
       <c r="B263" t="s">
         <v>515</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="2" t="s">
         <v>516</v>
       </c>
       <c r="B264" t="s">
         <v>517</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2" t="s">
         <v>518</v>
       </c>
       <c r="B265" t="s">
         <v>519</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B266" t="s">
         <v>521</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="7" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B267" t="s">
         <v>523</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="2" t="s">
         <v>524</v>
       </c>
       <c r="B268" t="s">
         <v>525</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="2" t="s">
         <v>526</v>
       </c>
       <c r="B269" t="s">
         <v>527</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="7" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="2" t="s">
         <v>528</v>
       </c>
       <c r="B270" t="s">
         <v>529</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="2" t="s">
         <v>530</v>
       </c>
       <c r="B271" t="s">
         <v>531</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="2" t="s">
         <v>532</v>
       </c>
       <c r="B272" t="s">
         <v>533</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="7" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="2" t="s">
         <v>534</v>
       </c>
       <c r="B273" t="s">
         <v>535</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="2" t="s">
         <v>536</v>
       </c>
       <c r="B274" t="s">
         <v>537</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="7" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="2" t="s">
         <v>538</v>
       </c>
       <c r="B275" t="s">
         <v>539</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="2" t="s">
         <v>540</v>
       </c>
       <c r="B276" t="s">
         <v>541</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="7" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="2" t="s">
         <v>542</v>
       </c>
       <c r="B277" t="s">
         <v>543</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="2" t="s">
         <v>544</v>
       </c>
       <c r="B278" t="s">
         <v>545</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="7" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="2" t="s">
         <v>546</v>
       </c>
       <c r="B279" t="s">
         <v>547</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="2" t="s">
         <v>548</v>
       </c>
       <c r="B280" t="s">
         <v>549</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="7" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="2" t="s">
         <v>550</v>
       </c>
       <c r="B281" t="s">
         <v>551</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="7" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="2" t="s">
         <v>552</v>
       </c>
       <c r="B282" t="s">
         <v>553</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="7" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="2" t="s">
         <v>554</v>
       </c>
       <c r="B283" t="s">
         <v>555</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="7" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="2" t="s">
         <v>556</v>
       </c>
       <c r="B284" t="s">
         <v>557</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="7" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="2" t="s">
         <v>558</v>
       </c>
       <c r="B285" t="s">
         <v>559</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C285" s="7" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="2" t="s">
         <v>560</v>
       </c>
       <c r="B286" t="s">
         <v>561</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C286" s="7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B287" t="s">
         <v>563</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="2" t="s">
         <v>564</v>
       </c>
       <c r="B288" t="s">
         <v>565</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C288" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="2" t="s">
         <v>566</v>
       </c>
       <c r="B289" t="s">
         <v>567</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="7" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="2" t="s">
         <v>568</v>
       </c>
       <c r="B290" t="s">
         <v>569</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" s="7" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="2" t="s">
         <v>570</v>
       </c>
       <c r="B291" t="s">
         <v>571</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C291" s="7" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="2" t="s">
         <v>572</v>
       </c>
       <c r="B292" t="s">
         <v>573</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="C292" s="7" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="2" t="s">
         <v>574</v>
       </c>
       <c r="B293" t="s">
         <v>575</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="C293" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="2" t="s">
         <v>576</v>
       </c>
       <c r="B294" t="s">
         <v>577</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="C294" s="7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="2" t="s">
         <v>578</v>
       </c>
       <c r="B295" t="s">
         <v>579</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C295" s="7" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="2" t="s">
         <v>580</v>
       </c>
       <c r="B296" t="s">
         <v>581</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C296" s="7" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="2" t="s">
         <v>582</v>
       </c>
       <c r="B297" t="s">
         <v>583</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="2" t="s">
         <v>584</v>
       </c>
       <c r="B298" t="s">
         <v>585</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" s="7" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="2" t="s">
         <v>586</v>
       </c>
       <c r="B299" t="s">
         <v>587</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="2" t="s">
         <v>588</v>
       </c>
       <c r="B300" t="s">
         <v>589</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" s="7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="2" t="s">
         <v>590</v>
       </c>
       <c r="B301" t="s">
         <v>591</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C301" s="7" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="2" t="s">
         <v>592</v>
       </c>
       <c r="B302" t="s">
         <v>593</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="7" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="2" t="s">
         <v>594</v>
       </c>
       <c r="B303" t="s">
         <v>595</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="7" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="2" t="s">
         <v>596</v>
       </c>
       <c r="B304" t="s">
         <v>597</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C304" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="2" t="s">
         <v>598</v>
       </c>
       <c r="B305" t="s">
         <v>599</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B306" t="s">
         <v>601</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="C306" s="7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="2" t="s">
         <v>602</v>
       </c>
       <c r="B307" t="s">
         <v>603</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="C307" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="2" t="s">
         <v>604</v>
       </c>
       <c r="B308" t="s">
         <v>605</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C308" s="7" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="2" t="s">
         <v>606</v>
       </c>
       <c r="B309" t="s">
         <v>607</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C309" s="7" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="2" t="s">
         <v>608</v>
       </c>
       <c r="B310" t="s">
         <v>609</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C310" s="7" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="2" t="s">
         <v>610</v>
       </c>
       <c r="B311" t="s">
         <v>611</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C311" s="7" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="2" t="s">
         <v>612</v>
       </c>
       <c r="B312" t="s">
         <v>613</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="C312" s="7" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="2" t="s">
         <v>614</v>
       </c>
       <c r="B313" t="s">
         <v>615</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="C313" s="7" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="2" t="s">
         <v>616</v>
       </c>
       <c r="B314" t="s">
         <v>617</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="C314" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="2" t="s">
         <v>618</v>
       </c>
       <c r="B315" t="s">
         <v>619</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C315" s="7" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="2" t="s">
         <v>620</v>
       </c>
       <c r="B316" t="s">
         <v>621</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C316" s="7" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="2" t="s">
         <v>622</v>
       </c>
       <c r="B317" t="s">
         <v>623</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="C317" s="7" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="2" t="s">
         <v>624</v>
       </c>
       <c r="B318" t="s">
         <v>625</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="C318" s="7" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="2" t="s">
         <v>626</v>
       </c>
       <c r="B319" t="s">
         <v>627</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C319" s="7" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="2" t="s">
         <v>628</v>
       </c>
       <c r="B320" t="s">
         <v>629</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C320" s="7" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="2" t="s">
         <v>630</v>
       </c>
       <c r="B321" t="s">
         <v>631</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="C321" s="7" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="2" t="s">
         <v>632</v>
       </c>
       <c r="B322" t="s">
         <v>633</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="C322" s="7" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="2" t="s">
         <v>634</v>
       </c>
       <c r="B323" t="s">
         <v>635</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="C323" s="7" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="2" t="s">
         <v>636</v>
       </c>
       <c r="B324" t="s">
         <v>637</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="C324" s="7" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="2" t="s">
         <v>638</v>
       </c>
       <c r="B325" t="s">
         <v>639</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C325" s="7" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="2" t="s">
         <v>640</v>
       </c>
       <c r="B326" t="s">
         <v>641</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="C326" s="7" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="2" t="s">
         <v>642</v>
       </c>
       <c r="B327" t="s">
         <v>643</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="C327" s="7" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="2" t="s">
         <v>644</v>
       </c>
       <c r="B328" t="s">
         <v>645</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="C328" s="7" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="2" t="s">
         <v>646</v>
       </c>
       <c r="B329" t="s">
         <v>647</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="C329" s="7" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="2" t="s">
         <v>648</v>
       </c>
       <c r="B330" t="s">
         <v>649</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="C330" s="7" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="2" t="s">
         <v>650</v>
       </c>
       <c r="B331" t="s">
         <v>651</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="C331" s="7" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="2" t="s">
         <v>652</v>
       </c>
       <c r="B332" t="s">
         <v>653</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="C332" s="7" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="2" t="s">
         <v>654</v>
       </c>
       <c r="B333" t="s">
         <v>655</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="C333" s="7" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="2" t="s">
         <v>656</v>
       </c>
       <c r="B334" t="s">
         <v>657</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="C334" s="7" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="2" t="s">
         <v>658</v>
       </c>
       <c r="B335" t="s">
         <v>659</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C335" s="7" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="2" t="s">
         <v>660</v>
       </c>
       <c r="B336" t="s">
         <v>661</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="C336" s="7" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="2" t="s">
         <v>662</v>
       </c>
       <c r="B337" t="s">
         <v>663</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="C337" s="7" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="2" t="s">
         <v>664</v>
       </c>
       <c r="B338" t="s">
         <v>665</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="C338" s="7" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="2" t="s">
         <v>666</v>
       </c>
       <c r="B339" t="s">
         <v>667</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C339" s="7" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="2" t="s">
         <v>668</v>
       </c>
       <c r="B340" t="s">
         <v>669</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C340" s="7" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="2" t="s">
         <v>670</v>
       </c>
       <c r="B341" t="s">
         <v>671</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="C341" s="7" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="2" t="s">
         <v>672</v>
       </c>
       <c r="B342" t="s">
         <v>673</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C342" s="7" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="2" t="s">
         <v>674</v>
       </c>
       <c r="B343" t="s">
         <v>675</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="C343" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="2" t="s">
         <v>676</v>
       </c>
       <c r="B344" t="s">
         <v>677</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="C344" s="7" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="2" t="s">
         <v>678</v>
       </c>
       <c r="B345" t="s">
         <v>679</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="C345" s="7" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="2" t="s">
         <v>680</v>
       </c>
       <c r="B346" t="s">
         <v>681</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C346" s="7" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="2" t="s">
         <v>682</v>
       </c>
       <c r="B347" t="s">
         <v>683</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="C347" s="7" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="2" t="s">
         <v>684</v>
       </c>
       <c r="B348" t="s">
         <v>685</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="C348" s="7" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="2" t="s">
         <v>686</v>
       </c>
       <c r="B349" t="s">
         <v>687</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="C349" s="7" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="2" t="s">
         <v>688</v>
       </c>
       <c r="B350" t="s">
         <v>689</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C350" s="7" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="2" t="s">
         <v>690</v>
       </c>
       <c r="B351" t="s">
         <v>691</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="C351" s="7" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="2" t="s">
         <v>692</v>
       </c>
       <c r="B352" t="s">
         <v>693</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C352" s="7" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="2" t="s">
         <v>694</v>
       </c>
       <c r="B353" t="s">
         <v>695</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="C353" s="7" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" s="3" t="s">
+      <c r="A354" s="2" t="s">
         <v>696</v>
       </c>
       <c r="B354" t="s">
         <v>697</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="C354" s="7" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="2" t="s">
         <v>698</v>
       </c>
       <c r="B355" t="s">
         <v>699</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C355" s="7" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="2" t="s">
         <v>700</v>
       </c>
       <c r="B356" t="s">
         <v>701</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C356" s="7" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="2" t="s">
         <v>702</v>
       </c>
       <c r="B357" t="s">
         <v>703</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="C357" s="7" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="2" t="s">
         <v>704</v>
       </c>
       <c r="B358" t="s">
         <v>705</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="C358" s="7" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="2" t="s">
         <v>706</v>
       </c>
       <c r="B359" t="s">
         <v>701</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="C359" s="7" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="2" t="s">
         <v>707</v>
       </c>
       <c r="B360" t="s">
         <v>708</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="C360" s="7" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="2" t="s">
         <v>709</v>
       </c>
       <c r="B361" t="s">
         <v>703</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="C361" s="7" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="2" t="s">
         <v>710</v>
       </c>
       <c r="B362" t="s">
         <v>711</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="C362" s="7" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="2" t="s">
         <v>712</v>
       </c>
       <c r="B363" t="s">
         <v>713</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="C363" s="7" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="2" t="s">
         <v>714</v>
       </c>
       <c r="B364" t="s">
         <v>715</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="C364" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="2" t="s">
         <v>716</v>
       </c>
       <c r="B365" t="s">
         <v>717</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="C365" s="7" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" s="3" t="s">
+      <c r="A366" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B366" t="s">
         <v>719</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="C366" s="7" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="2" t="s">
         <v>720</v>
       </c>
       <c r="B367" t="s">
         <v>721</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="C367" s="7" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="2" t="s">
         <v>722</v>
       </c>
       <c r="B368" t="s">
         <v>723</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="C368" s="7" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="2" t="s">
         <v>724</v>
       </c>
       <c r="B369" t="s">
         <v>725</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="C369" s="7" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="2" t="s">
         <v>726</v>
       </c>
       <c r="B370" t="s">
         <v>727</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="C370" s="7" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="2" t="s">
         <v>728</v>
       </c>
       <c r="B371" t="s">
         <v>729</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="C371" s="7" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" s="3" t="s">
+      <c r="A372" s="2" t="s">
         <v>730</v>
       </c>
       <c r="B372" t="s">
         <v>731</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="C372" s="7" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="2" t="s">
         <v>732</v>
       </c>
       <c r="B373" t="s">
         <v>733</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="C373" s="7" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A374" s="3" t="s">
+      <c r="A374" s="2" t="s">
         <v>734</v>
       </c>
       <c r="B374" t="s">
         <v>735</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="C374" s="7" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="2" t="s">
         <v>736</v>
       </c>
       <c r="B375" t="s">
         <v>737</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="C375" s="7" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="2" t="s">
         <v>738</v>
       </c>
       <c r="B376" t="s">
         <v>739</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="C376" s="7" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="2" t="s">
         <v>740</v>
       </c>
       <c r="B377" t="s">
         <v>741</v>
       </c>
-      <c r="C377" s="1" t="s">
+      <c r="C377" s="7" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A378" s="3" t="s">
+      <c r="A378" s="2" t="s">
         <v>742</v>
       </c>
       <c r="B378" t="s">
         <v>743</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="C378" s="7" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="2" t="s">
         <v>744</v>
       </c>
       <c r="B379" t="s">
         <v>745</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="C379" s="7" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A380" s="3" t="s">
+      <c r="A380" s="2" t="s">
         <v>746</v>
       </c>
       <c r="B380" t="s">
         <v>747</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="C380" s="7" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A381" s="3" t="s">
+      <c r="A381" s="2" t="s">
         <v>748</v>
       </c>
       <c r="B381" t="s">
         <v>749</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="C381" s="7" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="2" t="s">
         <v>750</v>
       </c>
       <c r="B382" t="s">
         <v>751</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C382" s="7" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="2" t="s">
         <v>752</v>
       </c>
       <c r="B383" t="s">
         <v>753</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="C383" s="7" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="2" t="s">
         <v>754</v>
       </c>
       <c r="B384" t="s">
         <v>691</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="C384" s="7" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="2" t="s">
         <v>755</v>
       </c>
       <c r="B385" t="s">
         <v>756</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="C385" s="7" t="s">
         <v>756</v>
       </c>
     </row>
@@ -7314,13 +7333,24 @@
     <hyperlink ref="C383" r:id="rId378" display="https://workbench.cisecurity.org/sections/1117105/recommendations/1825591" xr:uid="{80CCB478-F932-46FE-9F8E-2E397F2B795A}"/>
     <hyperlink ref="C384" r:id="rId379" display="https://workbench.cisecurity.org/sections/1117120/recommendations/1825596" xr:uid="{89932BA5-1830-4B5A-A9ED-31D436F9F76C}"/>
     <hyperlink ref="C385" r:id="rId380" display="https://workbench.cisecurity.org/sections/1117126/recommendations/1825600" xr:uid="{216363B1-B5EB-4218-A16C-052563EBDC65}"/>
+    <hyperlink ref="C112" r:id="rId381" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825644" xr:uid="{A6662E2A-3508-468C-A704-4810896FD441}"/>
+    <hyperlink ref="C122" r:id="rId382" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825662" xr:uid="{1243301D-5178-4904-8B3E-D78529CCACFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId381"/>
+  <pageSetup orientation="portrait" r:id="rId383"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D1E9D9E8C516145ACFBCB6BAA5EA879" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d4fa9c8c5c5a66aa181cf143a0895ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c23bcc05-bb70-448c-b869-ca05feb44454" xmlns:ns3="636f7450-4f64-45f7-aa6c-f98af71a66c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3480ff6356aeaa2bb89f18c4a6ac38" ns2:_="" ns3:_="">
     <xsd:import namespace="c23bcc05-bb70-448c-b869-ca05feb44454"/>
@@ -7563,15 +7593,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7584,13 +7605,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{563C9C07-A392-4FB2-ABD0-36AFFD924442}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{563C9C07-A392-4FB2-ABD0-36AFFD924442}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c23bcc05-bb70-448c-b869-ca05feb44454"/>
+    <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c23bcc05-bb70-448c-b869-ca05feb44454"/>
+    <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CIS-Windows-Server-2022.xlsx
+++ b/CIS-Windows-Server-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itumfoundation.sharepoint.com/sites/IT/Shared Documents/documentation/Horne/In progress/IS17 Baseline Policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{49A89D1A-DAFA-4E12-8468-EE064A824B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E47B547-A5B3-4DF0-94E4-E6F879B3625A}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="8_{49A89D1A-DAFA-4E12-8468-EE064A824B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E581C64-CDA7-4AC2-A54F-CAC3D505CBD5}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
+    <workbookView xWindow="6495" yWindow="750" windowWidth="28800" windowHeight="17115" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
   </bookViews>
   <sheets>
     <sheet name="CIS Windows Server 2022 v1.0.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="819">
   <si>
     <t>1.1.1</t>
   </si>
@@ -1940,24 +1940,6 @@
     <t>(L2) Ensure 'Turn off Push To Install service' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.9.65.1</t>
-  </si>
-  <si>
-    <t>RD Licensing (formerly TS Licensing)</t>
-  </si>
-  <si>
-    <t>18.9.65.2</t>
-  </si>
-  <si>
-    <t>Remote Desktop Connection Client</t>
-  </si>
-  <si>
-    <t>18.9.65.3</t>
-  </si>
-  <si>
-    <t>Remote Desktop Session Host (formerly Terminal Server)</t>
-  </si>
-  <si>
     <t>18.9.65.2.2</t>
   </si>
   <si>
@@ -2328,13 +2310,196 @@
   </si>
   <si>
     <t>(L1) Ensure 'Network security: Minimum session security for NTLM SSP based (including secure RPC) servers' is set to 'Require NTLMv2 session security, Require 128-bit encryption'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Private: Firewall state' is set to 'On (recommended)'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Private: Inbound connections' is set to 'Block (default)'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Private: Outbound connections' is set to 'Allow (default)'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Private: Settings: Display a notification' is set to 'No'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Private: Logging: Size limit (KB)' is set to '16,384 KB or greater'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Private: Logging: Log dropped packets' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Private: Logging: Log successful connections' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Private: Logging: Name' is set to '%SystemRoot%\System32\logfiles\firewall\privatefw.log'</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>9.2.3</t>
+  </si>
+  <si>
+    <t>9.2.4</t>
+  </si>
+  <si>
+    <t>9.2.5</t>
+  </si>
+  <si>
+    <t>9.2.6</t>
+  </si>
+  <si>
+    <t>9.2.7</t>
+  </si>
+  <si>
+    <t>9.2.8</t>
+  </si>
+  <si>
+    <t>9.3.1</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Firewall state' is set to 'On (recommended)'</t>
+  </si>
+  <si>
+    <t>9.3.2</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Inbound connections' is set to 'Block (default)'</t>
+  </si>
+  <si>
+    <t>9.3.3</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Outbound connections' is set to 'Allow (default)'</t>
+  </si>
+  <si>
+    <t>9.3.4</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Settings: Display a notification' is set to 'No'</t>
+  </si>
+  <si>
+    <t>9.3.5</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Settings: Apply local firewall rules' is set to 'No'</t>
+  </si>
+  <si>
+    <t>9.3.6</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Settings: Apply local connection security rules' is set to 'No'</t>
+  </si>
+  <si>
+    <t>9.3.7</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Logging: Name' is set to '%SystemRoot%\System32\logfiles\firewall\publicfw.log'</t>
+  </si>
+  <si>
+    <t>9.3.8</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Logging: Size limit (KB)' is set to '16,384 KB or greater'</t>
+  </si>
+  <si>
+    <t>9.3.9</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Logging: Log dropped packets' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>9.3.10</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Windows Firewall: Public: Logging: Log successful connections' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>18.2.1</t>
+  </si>
+  <si>
+    <t>(L1) Ensure LAPS AdmPwd GPO Extension / CSE is installed (MS only)</t>
+  </si>
+  <si>
+    <t>18.2.2</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Do not allow password expiration time longer than required by policy' is set to 'Enabled' (MS only)</t>
+  </si>
+  <si>
+    <t>18.2.3</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Enable Local Admin Password Management' is set to 'Enabled' (MS only)</t>
+  </si>
+  <si>
+    <t>18.2.4</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Password Settings: Password Complexity' is set to 'Enabled: Large letters + small letters + numbers + special characters' (MS only)</t>
+  </si>
+  <si>
+    <t>18.2.5</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Password Settings: Password Length' is set to 'Enabled: 15 or more' (MS only)</t>
+  </si>
+  <si>
+    <t>18.2.6</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Password Settings: Password Age (Days)' is set to 'Enabled: 30 or fewer' (MS only)</t>
+  </si>
+  <si>
+    <t>18.8.4.1</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Encryption Oracle Remediation' is set to 'Enabled: Force Updated Clients'</t>
+  </si>
+  <si>
+    <t>18.8.4.2</t>
+  </si>
+  <si>
+    <t>(L1) Ensure 'Remote host allows delegation of non-exportable credentials' is set to 'Enabled'</t>
+  </si>
+  <si>
+    <t>Red Text</t>
+  </si>
+  <si>
+    <t>Red BG</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Domain Controller Only (not applied)</t>
+  </si>
+  <si>
+    <t>User Configuration that isn't automated using registry (not applied)</t>
+  </si>
+  <si>
+    <t>Black Text</t>
+  </si>
+  <si>
+    <t>Fully Automated (applied by script)</t>
+  </si>
+  <si>
+    <t>Green Text</t>
+  </si>
+  <si>
+    <t>Implementation requires additional setup by admin (not applied)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2358,13 +2523,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2380,16 +2594,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2403,6 +2614,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2719,4638 +2977,4939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DB50BF-856E-4B09-82A9-B1D3B9A7E638}">
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="145.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="191.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>760</v>
-      </c>
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
+      <c r="A5" t="s">
+        <v>815</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="23" t="s">
+        <v>810</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
+      <c r="A7" s="28" t="s">
+        <v>817</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
+      <c r="A8" s="24" t="s">
+        <v>811</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
+      <c r="A9" s="23"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>37</v>
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>43</v>
+      <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>49</v>
+      <c r="A28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
+      <c r="A37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>73</v>
+      <c r="A40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>83</v>
+      <c r="A45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>87</v>
+      <c r="A47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>95</v>
+      <c r="A51" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>105</v>
+      <c r="A56" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>107</v>
+      <c r="A57" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>127</v>
+      <c r="A67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>151</v>
+      <c r="A79" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B80" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>153</v>
+      <c r="A80" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>155</v>
+      <c r="A81" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>157</v>
+      <c r="A82" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>159</v>
+      <c r="A83" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B112" t="s">
-        <v>762</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
+      <c r="B119" t="s">
+        <v>756</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B120" t="s">
         <v>218</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B121" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B122" t="s">
         <v>222</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B123" t="s">
         <v>224</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B124" t="s">
         <v>226</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B125" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B126" t="s">
         <v>230</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B127" t="s">
         <v>232</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B128" t="s">
         <v>234</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C128" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="8" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B122" t="s">
-        <v>763</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B123" t="s">
-        <v>237</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B124" t="s">
-        <v>239</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B125" t="s">
-        <v>241</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B126" t="s">
-        <v>243</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B127" t="s">
-        <v>245</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B128" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="B129" t="s">
-        <v>249</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>249</v>
+        <v>757</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B130" t="s">
-        <v>251</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B131" t="s">
-        <v>253</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="2">
-        <v>5.0999999999999996</v>
+      <c r="A134" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="2">
-        <v>5.2</v>
+      <c r="A135" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B137" t="s">
-        <v>263</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B140" t="s">
-        <v>269</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B141" t="s">
-        <v>271</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>271</v>
+      <c r="A141" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
-        <v>272</v>
+      <c r="A142" s="2">
+        <v>5.2</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B147" t="s">
-        <v>283</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>290</v>
+        <v>766</v>
       </c>
       <c r="B151" t="s">
-        <v>291</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>291</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="C151" s="6"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>292</v>
+        <v>767</v>
       </c>
       <c r="B152" t="s">
-        <v>293</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>293</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>294</v>
+        <v>768</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>295</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>296</v>
+        <v>769</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>297</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>298</v>
+        <v>770</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>299</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="C155" s="6"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>300</v>
+        <v>771</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>301</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="C156" s="6"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>302</v>
+        <v>772</v>
       </c>
       <c r="B157" t="s">
-        <v>303</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>303</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="C157" s="6"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>304</v>
+        <v>773</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>305</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="C158" s="6"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B159" t="s">
-        <v>307</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>307</v>
+      <c r="A159" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B160" t="s">
-        <v>309</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>309</v>
+      <c r="A160" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B161" t="s">
-        <v>311</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>311</v>
+      <c r="A161" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B162" t="s">
-        <v>313</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>313</v>
+      <c r="A162" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B163" t="s">
-        <v>315</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>315</v>
+      <c r="A163" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B164" t="s">
-        <v>317</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>317</v>
+      <c r="A164" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B165" t="s">
-        <v>319</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>319</v>
+      <c r="A165" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B166" t="s">
-        <v>321</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>321</v>
+      <c r="A166" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B167" t="s">
-        <v>323</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>323</v>
+      <c r="A167" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B168" t="s">
-        <v>325</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>325</v>
+      <c r="A168" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="B169" t="s">
-        <v>327</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>327</v>
+        <v>277</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B170" t="s">
-        <v>329</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>329</v>
+      <c r="A170" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B171" t="s">
-        <v>331</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>331</v>
+      <c r="A171" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="B172" t="s">
-        <v>333</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>333</v>
+        <v>283</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B173" t="s">
-        <v>335</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>335</v>
+      <c r="A173" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B174" t="s">
-        <v>337</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>337</v>
+      <c r="A174" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B175" t="s">
-        <v>339</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>339</v>
+      <c r="A175" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="B176" t="s">
-        <v>341</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>341</v>
+        <v>291</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="B177" t="s">
-        <v>343</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>343</v>
+        <v>293</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="B178" t="s">
-        <v>345</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>345</v>
+        <v>295</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="B179" t="s">
-        <v>347</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B180" t="s">
-        <v>349</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>349</v>
+      <c r="A180" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B181" t="s">
-        <v>351</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>351</v>
+      <c r="A181" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="B182" t="s">
-        <v>353</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="B183" t="s">
-        <v>355</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>355</v>
+        <v>305</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="B184" t="s">
-        <v>357</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>357</v>
+        <v>307</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="B185" t="s">
-        <v>359</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>359</v>
+        <v>309</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="B186" t="s">
-        <v>361</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>361</v>
+        <v>311</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="B187" t="s">
-        <v>363</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>363</v>
+        <v>313</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="B188" t="s">
-        <v>365</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>365</v>
+        <v>315</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="B189" t="s">
-        <v>367</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>367</v>
+        <v>317</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B190" t="s">
-        <v>369</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>369</v>
+        <v>319</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B191" t="s">
-        <v>371</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>371</v>
+        <v>321</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B192" t="s">
-        <v>373</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>373</v>
+        <v>323</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="B193" t="s">
-        <v>375</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>375</v>
+        <v>325</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="B194" t="s">
-        <v>377</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="B195" t="s">
-        <v>379</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>379</v>
+        <v>329</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>381</v>
+        <v>331</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="B197" t="s">
-        <v>383</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>383</v>
+        <v>333</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="B198" t="s">
-        <v>385</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>385</v>
+        <v>335</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B199" t="s">
-        <v>387</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>387</v>
+        <v>337</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="B200" t="s">
-        <v>389</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>389</v>
+        <v>339</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="B201" t="s">
-        <v>391</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>391</v>
+        <v>341</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="B202" t="s">
-        <v>393</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>393</v>
+        <v>343</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="B203" t="s">
-        <v>395</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>395</v>
+        <v>347</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="B204" t="s">
-        <v>397</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>397</v>
+        <v>349</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="2" t="s">
-        <v>398</v>
+      <c r="A205" t="s">
+        <v>350</v>
       </c>
       <c r="B205" t="s">
-        <v>399</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>399</v>
+        <v>351</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="B206" t="s">
-        <v>401</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>401</v>
+        <v>345</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B207" t="s">
-        <v>403</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>403</v>
+      <c r="A207" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B208" t="s">
-        <v>405</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>405</v>
+      <c r="A208" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B209" t="s">
-        <v>407</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>407</v>
+      <c r="A209" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B210" t="s">
-        <v>409</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>409</v>
+      <c r="A210" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B211" t="s">
-        <v>411</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>411</v>
+      <c r="A211" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B212" t="s">
-        <v>413</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>413</v>
+      <c r="A212" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="B213" t="s">
-        <v>415</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>415</v>
+        <v>353</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="B214" t="s">
-        <v>417</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>417</v>
+        <v>355</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="B215" t="s">
-        <v>419</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>419</v>
+        <v>357</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="B216" t="s">
-        <v>421</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>421</v>
+        <v>359</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="B217" t="s">
-        <v>423</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>423</v>
+        <v>361</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="B218" t="s">
-        <v>425</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>425</v>
+        <v>363</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="B219" t="s">
-        <v>427</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>427</v>
+        <v>365</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="B220" t="s">
-        <v>429</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>429</v>
+        <v>367</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="B221" t="s">
-        <v>431</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>431</v>
+        <v>369</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="B222" t="s">
-        <v>433</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>433</v>
+        <v>371</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="B223" t="s">
-        <v>435</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>435</v>
+        <v>373</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="B224" t="s">
-        <v>437</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>437</v>
+        <v>375</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="B225" t="s">
-        <v>439</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>439</v>
+        <v>377</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="B226" t="s">
-        <v>441</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>441</v>
+        <v>379</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="B227" t="s">
-        <v>443</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>443</v>
+        <v>381</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="B228" t="s">
-        <v>445</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>445</v>
+        <v>383</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="B229" t="s">
-        <v>447</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>447</v>
+        <v>385</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="B230" t="s">
-        <v>449</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>449</v>
+        <v>387</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="B231" t="s">
-        <v>451</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>451</v>
+        <v>389</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="B232" t="s">
-        <v>453</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>453</v>
+        <v>391</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="B233" t="s">
-        <v>455</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>455</v>
+        <v>393</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="B234" t="s">
-        <v>457</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>457</v>
+        <v>395</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="B235" t="s">
-        <v>459</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>459</v>
+        <v>397</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="B236" t="s">
-        <v>461</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>461</v>
+        <v>399</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="B237" t="s">
-        <v>463</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>463</v>
+        <v>401</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="B238" t="s">
-        <v>465</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>465</v>
+        <v>403</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="B239" t="s">
-        <v>467</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>467</v>
+        <v>405</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="B240" t="s">
-        <v>469</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>469</v>
+        <v>407</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="B241" t="s">
-        <v>471</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>471</v>
+        <v>409</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="B242" t="s">
-        <v>473</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>473</v>
+        <v>411</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="B243" t="s">
-        <v>475</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>475</v>
+        <v>413</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="B244" t="s">
-        <v>477</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>477</v>
+        <v>415</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>478</v>
+        <v>416</v>
       </c>
       <c r="B245" t="s">
-        <v>479</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>479</v>
+        <v>417</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="B246" t="s">
-        <v>481</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>481</v>
+        <v>419</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="B247" t="s">
-        <v>483</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>483</v>
+        <v>421</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="B248" t="s">
-        <v>485</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>485</v>
+        <v>423</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="B249" t="s">
-        <v>487</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>487</v>
+        <v>425</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="B250" t="s">
-        <v>489</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>489</v>
+        <v>427</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="B251" t="s">
-        <v>491</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>491</v>
+        <v>429</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="B252" t="s">
-        <v>493</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>493</v>
+        <v>431</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B253" t="s">
-        <v>495</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>495</v>
+      <c r="A253" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B254" t="s">
-        <v>497</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>497</v>
+      <c r="A254" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B255" t="s">
-        <v>499</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>499</v>
+      <c r="A255" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B256" t="s">
-        <v>501</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>501</v>
+      <c r="A256" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B256" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B257" t="s">
-        <v>503</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>503</v>
+      <c r="A257" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B258" t="s">
-        <v>505</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>505</v>
+      <c r="A258" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B259" t="s">
-        <v>507</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>507</v>
+      <c r="A259" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B259" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B260" t="s">
-        <v>509</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>509</v>
+      <c r="A260" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B261" t="s">
-        <v>511</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>511</v>
+      <c r="A261" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B261" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="B262" t="s">
-        <v>513</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>513</v>
+        <v>447</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="B263" t="s">
-        <v>515</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>515</v>
+        <v>449</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="B264" t="s">
-        <v>517</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>517</v>
+        <v>451</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="B265" t="s">
-        <v>519</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>519</v>
+        <v>453</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="B266" t="s">
-        <v>521</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>521</v>
+        <v>455</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="B267" t="s">
-        <v>523</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>523</v>
+        <v>457</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="B268" t="s">
-        <v>525</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>525</v>
+        <v>459</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="B269" t="s">
-        <v>527</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>527</v>
+        <v>461</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="B270" t="s">
-        <v>529</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>529</v>
+        <v>463</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="B271" t="s">
-        <v>531</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>531</v>
+        <v>465</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="B272" t="s">
-        <v>533</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>533</v>
+        <v>467</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="B273" t="s">
-        <v>535</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>535</v>
+        <v>469</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="B274" t="s">
-        <v>537</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>537</v>
+        <v>471</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="B275" t="s">
-        <v>539</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>539</v>
+        <v>473</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="B276" t="s">
-        <v>541</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>541</v>
+        <v>475</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="B277" t="s">
-        <v>543</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>543</v>
+        <v>477</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="B278" t="s">
-        <v>545</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>545</v>
+        <v>479</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="B279" t="s">
-        <v>547</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>547</v>
+        <v>481</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="B280" t="s">
-        <v>549</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>549</v>
+        <v>483</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="B281" t="s">
-        <v>551</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>551</v>
+        <v>485</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B282" t="s">
-        <v>553</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>553</v>
+        <v>487</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
       <c r="B283" t="s">
-        <v>555</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>555</v>
+        <v>489</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>556</v>
+        <v>490</v>
       </c>
       <c r="B284" t="s">
-        <v>557</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>557</v>
+        <v>491</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>558</v>
+        <v>492</v>
       </c>
       <c r="B285" t="s">
-        <v>559</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>559</v>
+        <v>493</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>560</v>
+        <v>494</v>
       </c>
       <c r="B286" t="s">
-        <v>561</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>561</v>
+        <v>495</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
       <c r="B287" t="s">
-        <v>563</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>563</v>
+        <v>497</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
       <c r="B288" t="s">
-        <v>565</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>565</v>
+        <v>499</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="B289" t="s">
-        <v>567</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>567</v>
+        <v>501</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
       <c r="B290" t="s">
-        <v>569</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>569</v>
+        <v>503</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>570</v>
+        <v>504</v>
       </c>
       <c r="B291" t="s">
-        <v>571</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>571</v>
+        <v>505</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>572</v>
+        <v>506</v>
       </c>
       <c r="B292" t="s">
-        <v>573</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>573</v>
+        <v>507</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>574</v>
+        <v>508</v>
       </c>
       <c r="B293" t="s">
-        <v>575</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>575</v>
+        <v>509</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>576</v>
+        <v>510</v>
       </c>
       <c r="B294" t="s">
-        <v>577</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>577</v>
+        <v>511</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="B295" t="s">
-        <v>579</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>579</v>
+        <v>513</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
-        <v>580</v>
+        <v>514</v>
       </c>
       <c r="B296" t="s">
-        <v>581</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>581</v>
+        <v>515</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="B297" t="s">
-        <v>583</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>583</v>
+        <v>517</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
       <c r="B298" t="s">
-        <v>585</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>585</v>
+        <v>519</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B299" t="s">
-        <v>587</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>587</v>
+      <c r="A299" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B300" t="s">
-        <v>589</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>589</v>
+      <c r="A300" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B301" t="s">
-        <v>591</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>591</v>
+      <c r="A301" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
       <c r="B302" t="s">
-        <v>593</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>593</v>
+        <v>527</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
-        <v>594</v>
+        <v>528</v>
       </c>
       <c r="B303" t="s">
-        <v>595</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>595</v>
+        <v>529</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="B304" t="s">
-        <v>597</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>597</v>
+        <v>531</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
-        <v>598</v>
+        <v>532</v>
       </c>
       <c r="B305" t="s">
-        <v>599</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>599</v>
+        <v>533</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>600</v>
+        <v>534</v>
       </c>
       <c r="B306" t="s">
-        <v>601</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>601</v>
+        <v>535</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="B307" t="s">
-        <v>603</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>603</v>
+        <v>537</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="B308" t="s">
-        <v>605</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>605</v>
+        <v>539</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>606</v>
+        <v>540</v>
       </c>
       <c r="B309" t="s">
-        <v>607</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>607</v>
+        <v>541</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="B310" t="s">
-        <v>609</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>609</v>
+        <v>543</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="B311" t="s">
-        <v>611</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>611</v>
+        <v>545</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
       <c r="B312" t="s">
-        <v>613</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>613</v>
+        <v>547</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="B313" t="s">
-        <v>615</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>615</v>
+        <v>549</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="B314" t="s">
-        <v>617</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>617</v>
+        <v>551</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>618</v>
+        <v>552</v>
       </c>
       <c r="B315" t="s">
-        <v>619</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>619</v>
+        <v>553</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="B316" t="s">
-        <v>621</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>621</v>
+        <v>555</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="B317" t="s">
-        <v>623</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>623</v>
+        <v>557</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
-        <v>624</v>
+        <v>558</v>
       </c>
       <c r="B318" t="s">
-        <v>625</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>625</v>
+        <v>559</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
-        <v>626</v>
+        <v>560</v>
       </c>
       <c r="B319" t="s">
-        <v>627</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>627</v>
+        <v>561</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="B320" t="s">
-        <v>629</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>629</v>
+        <v>563</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
-        <v>630</v>
+        <v>564</v>
       </c>
       <c r="B321" t="s">
-        <v>631</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>631</v>
+        <v>565</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
-        <v>632</v>
+        <v>566</v>
       </c>
       <c r="B322" t="s">
-        <v>633</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>633</v>
+        <v>567</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="B323" t="s">
-        <v>635</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>635</v>
+        <v>569</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
-        <v>636</v>
+        <v>570</v>
       </c>
       <c r="B324" t="s">
-        <v>637</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>637</v>
+        <v>571</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
-        <v>638</v>
+        <v>572</v>
       </c>
       <c r="B325" t="s">
-        <v>639</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>639</v>
+        <v>573</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
-        <v>640</v>
+        <v>574</v>
       </c>
       <c r="B326" t="s">
-        <v>641</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>641</v>
+        <v>575</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="B327" t="s">
-        <v>643</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>643</v>
+        <v>577</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="B328" t="s">
-        <v>645</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>645</v>
+        <v>579</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
-        <v>646</v>
+        <v>580</v>
       </c>
       <c r="B329" t="s">
-        <v>647</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>647</v>
+        <v>581</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
-        <v>648</v>
+        <v>582</v>
       </c>
       <c r="B330" t="s">
-        <v>649</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>649</v>
+        <v>583</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
       <c r="B331" t="s">
-        <v>651</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>651</v>
+        <v>585</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
       <c r="B332" t="s">
-        <v>653</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>653</v>
+        <v>587</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
-        <v>654</v>
+        <v>588</v>
       </c>
       <c r="B333" t="s">
-        <v>655</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>655</v>
+        <v>589</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B334" t="s">
+        <v>591</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B337" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B339" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B340" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="B344" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B345" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B346" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="B347" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B349" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B352" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B353" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="B354" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="B355" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="B356" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="B357" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="B358" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B359" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B362" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B363" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B364" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B365" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="B366" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B367" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="C367" s="6" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" s="2" t="s">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B368" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="C368" s="6" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" s="2" t="s">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B369" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="C369" s="6" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" s="2" t="s">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" s="14" t="s">
         <v>662</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B370" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="C370" s="6" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" s="2" t="s">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B371" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C338" s="7" t="s">
+      <c r="C371" s="6" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" s="2" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B372" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="C372" s="6" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" s="2" t="s">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B373" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="C373" s="6" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" s="2" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B374" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="C374" s="6" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" s="2" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B375" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="C375" s="6" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" s="2" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B376" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="C376" s="6" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" s="2" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B377" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="C377" s="6" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" s="2" t="s">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B378" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="C378" s="6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" s="2" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B379" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="C379" s="6" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" s="2" t="s">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B380" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="C380" s="6" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" s="2" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" s="14" t="s">
         <v>684</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B381" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C381" s="6" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" s="2" t="s">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B382" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C382" s="6" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" s="2" t="s">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B383" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C383" s="6" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" s="2" t="s">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B384" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="C384" s="6" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" s="2" t="s">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B385" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C385" s="6" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" s="2" t="s">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B386" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="C386" s="6" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" s="2" t="s">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B387" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C387" s="6" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" s="2" t="s">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B388" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="C388" s="6" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" s="2" t="s">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B389" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="C356" s="7" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" s="2" t="s">
+      <c r="B390" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C390" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="C357" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" s="2" t="s">
+      <c r="B391" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B392" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C392" s="6" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" s="2" t="s">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="B359" t="s">
-        <v>701</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" s="2" t="s">
+      <c r="B393" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C393" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="C360" s="7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" s="2" t="s">
+      <c r="B394" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="B361" t="s">
-        <v>703</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" s="2" t="s">
+      <c r="C394" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B395" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="C362" s="7" t="s">
+      <c r="C395" s="6" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" s="2" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B396" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="C363" s="7" t="s">
+      <c r="C396" s="6" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" s="2" t="s">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B397" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="C364" s="7" t="s">
+      <c r="C397" s="6" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" s="2" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B398" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C398" s="6" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" s="2" t="s">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B399" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C366" s="7" t="s">
+      <c r="C399" s="6" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" s="2" t="s">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B400" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="C367" s="7" t="s">
+      <c r="C400" s="6" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" s="2" t="s">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A401" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B401" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="C368" s="7" t="s">
+      <c r="C401" s="6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" s="2" t="s">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A402" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B402" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="C369" s="7" t="s">
+      <c r="C402" s="6" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A370" s="2" t="s">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A403" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B403" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="C370" s="7" t="s">
+      <c r="C403" s="6" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" s="2" t="s">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A404" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B404" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="C371" s="7" t="s">
+      <c r="C404" s="6" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" s="2" t="s">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A405" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B405" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="C372" s="7" t="s">
+      <c r="C405" s="6" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A373" s="2" t="s">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A406" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B406" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="C373" s="7" t="s">
+      <c r="C406" s="6" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A374" s="2" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A407" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B407" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="C407" s="6" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A375" s="2" t="s">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A408" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B408" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C408" s="6" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A376" s="2" t="s">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A409" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B409" s="22" t="s">
         <v>739</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C409" s="6" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A377" s="2" t="s">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A410" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B410" s="22" t="s">
         <v>741</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C410" s="6" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A378" s="2" t="s">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A411" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B411" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C411" s="6" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A379" s="2" t="s">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A412" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B412" s="22" t="s">
         <v>745</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C412" s="6" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A380" s="2" t="s">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A413" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B413" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="C380" s="7" t="s">
+      <c r="C413" s="6" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A381" s="2" t="s">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A414" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B414" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A415" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="C381" s="7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" s="2" t="s">
+      <c r="B415" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="B382" t="s">
-        <v>751</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B383" t="s">
-        <v>753</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B384" t="s">
-        <v>691</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="B385" t="s">
-        <v>756</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>756</v>
+      <c r="C415" s="6" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825411" xr:uid="{7D0C5552-EB9F-473E-B0DD-CBC3025A93B5}"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825412" xr:uid="{FA266BC7-FB54-4049-A2AC-8E24A2E945D1}"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825413" xr:uid="{BBAF59D7-CB6D-4803-8425-EDCD53D9F5B8}"/>
-    <hyperlink ref="C7" r:id="rId4" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825414" xr:uid="{9641237E-55DD-4597-9E28-07BC1CAB9CA1}"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825415" xr:uid="{2C3D48D3-564F-40E7-B4DD-909AB1004F16}"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825416" xr:uid="{EDA20C45-E578-4F2A-8E53-2195231AA03C}"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825419" xr:uid="{62A2039D-2DA7-47AF-A002-924284CEF467}"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825421" xr:uid="{B8BDE911-A0FD-4A84-81AC-6D2575F42733}"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825423" xr:uid="{C805C0C9-A1F7-414E-880B-CFC59D4CB354}"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825426" xr:uid="{FE15F125-B64A-4302-A3C6-7B3958E96F76}"/>
-    <hyperlink ref="C14" r:id="rId11" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825417" xr:uid="{9D12553C-285D-4A48-A326-F67FBA3CA4E2}"/>
-    <hyperlink ref="C15" r:id="rId12" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825418" xr:uid="{38B935A6-F550-455B-86E8-F6C2AF6C9B41}"/>
-    <hyperlink ref="C16" r:id="rId13" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825420" xr:uid="{EE93B5F8-0149-4F35-A234-585B434586FF}"/>
-    <hyperlink ref="C17" r:id="rId14" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825422" xr:uid="{D3A02C9C-1D5A-4F85-95AB-5691BFB25AE4}"/>
-    <hyperlink ref="C18" r:id="rId15" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825424" xr:uid="{A73621EC-60AE-4DB9-B5BF-1B4CA33B4186}"/>
-    <hyperlink ref="C19" r:id="rId16" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825425" xr:uid="{242229C3-7EE8-4E33-9A47-459085B497B7}"/>
-    <hyperlink ref="C20" r:id="rId17" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825427" xr:uid="{4137E96F-77FD-4D56-B8ED-FEF29E29E53A}"/>
-    <hyperlink ref="C21" r:id="rId18" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825428" xr:uid="{9A2B8387-8D1C-410A-A0F9-7CB7D6E5719E}"/>
-    <hyperlink ref="C22" r:id="rId19" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825430" xr:uid="{CA5F5F63-E50E-4657-AD92-94CFC54EA4C0}"/>
-    <hyperlink ref="C23" r:id="rId20" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825431" xr:uid="{ACE04638-A683-429D-8FCE-A20DC3C9D247}"/>
-    <hyperlink ref="C24" r:id="rId21" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825433" xr:uid="{FBA902C4-E518-4122-83A6-59396C6C4606}"/>
-    <hyperlink ref="C25" r:id="rId22" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825434" xr:uid="{27203167-0E96-4B42-A562-CF0D07923A31}"/>
-    <hyperlink ref="C26" r:id="rId23" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825435" xr:uid="{E8B612A5-FFD4-4FCA-ACBA-B180D21DA9D4}"/>
-    <hyperlink ref="C27" r:id="rId24" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825437" xr:uid="{F19D4665-0E2A-42D2-9BEF-42BCA8FFE309}"/>
-    <hyperlink ref="C28" r:id="rId25" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825439" xr:uid="{E985A221-E816-4E46-876A-A6B76D842943}"/>
-    <hyperlink ref="C29" r:id="rId26" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825440" xr:uid="{F29D33E4-11E8-41BF-9F73-2061BF4E9E42}"/>
-    <hyperlink ref="C30" r:id="rId27" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825442" xr:uid="{D7448766-CC74-4010-A5FC-0529CC0CD68C}"/>
-    <hyperlink ref="C31" r:id="rId28" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825443" xr:uid="{06BAC564-7AC8-4BC9-AE76-097BC95013B0}"/>
-    <hyperlink ref="C32" r:id="rId29" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825445" xr:uid="{64626996-6027-4E00-B915-D8DE1D16EED7}"/>
-    <hyperlink ref="C33" r:id="rId30" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825446" xr:uid="{581E05EB-4E09-4690-92A8-FC56B7B46591}"/>
-    <hyperlink ref="C34" r:id="rId31" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825448" xr:uid="{90F276E9-386F-4009-8B8B-DB9E62D45CB1}"/>
-    <hyperlink ref="C35" r:id="rId32" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825450" xr:uid="{9ED9F47D-68D9-4A49-974D-C05447EEB8FD}"/>
-    <hyperlink ref="C36" r:id="rId33" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825451" xr:uid="{4C5F4CA9-5193-46FC-BE61-DEC7B58FD919}"/>
-    <hyperlink ref="C37" r:id="rId34" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825453" xr:uid="{A561AC0B-C35E-4B41-B9CC-7DCD47C646EA}"/>
-    <hyperlink ref="C38" r:id="rId35" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825454" xr:uid="{7D68C4BB-49EA-4C3F-9741-DC1B1281F127}"/>
-    <hyperlink ref="C39" r:id="rId36" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825456" xr:uid="{CAD2DE76-6FEB-48A1-9A35-92AEBE6D9BDB}"/>
-    <hyperlink ref="C40" r:id="rId37" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825458" xr:uid="{DBD9EA7E-EB62-4DE0-A845-79B2E685A52A}"/>
-    <hyperlink ref="C41" r:id="rId38" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825461" xr:uid="{8A4504B8-8C0D-49F0-B15E-B7AECE6065B1}"/>
-    <hyperlink ref="C42" r:id="rId39" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825463" xr:uid="{7C7E2736-013B-4FD3-9688-7F16D4805CD6}"/>
-    <hyperlink ref="C43" r:id="rId40" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825466" xr:uid="{50BF37B1-B3B2-4EE8-BF8A-302F208D6DB3}"/>
-    <hyperlink ref="C44" r:id="rId41" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825469" xr:uid="{4B1722BC-83C4-4A23-8C58-A1529D6113E2}"/>
-    <hyperlink ref="C45" r:id="rId42" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825470" xr:uid="{B949045F-4518-4E9F-8DF1-DC280252AF0D}"/>
-    <hyperlink ref="C46" r:id="rId43" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825475" xr:uid="{8289B1BB-DC40-44D5-A587-4C932DA8E80D}"/>
-    <hyperlink ref="C47" r:id="rId44" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825477" xr:uid="{CA386A17-1B9D-4DF9-8E9B-AC77D22B0F6E}"/>
-    <hyperlink ref="C48" r:id="rId45" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825480" xr:uid="{6D6C8669-9DEC-48B6-ADA6-33FEB457868F}"/>
-    <hyperlink ref="C49" r:id="rId46" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825481" xr:uid="{8061BA15-88D4-4DAB-8238-B46DB50A23CE}"/>
-    <hyperlink ref="C50" r:id="rId47" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825484" xr:uid="{21663EFE-07CD-4103-8FA0-86795220F449}"/>
-    <hyperlink ref="C51" r:id="rId48" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825487" xr:uid="{9120D718-2283-43DA-B126-066B62CCDF61}"/>
-    <hyperlink ref="C52" r:id="rId49" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825488" xr:uid="{36FFF6A8-4B82-4F86-90E3-FE149CFCB379}"/>
-    <hyperlink ref="C53" r:id="rId50" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825491" xr:uid="{3C51198E-B690-47D1-B8B3-2E4566DF12EB}"/>
-    <hyperlink ref="C54" r:id="rId51" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825492" xr:uid="{E71D91DD-3110-4B4F-B443-991BE1BCB632}"/>
-    <hyperlink ref="C55" r:id="rId52" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825495" xr:uid="{43E39BB9-96C8-4991-9705-B8B975ED2629}"/>
-    <hyperlink ref="C56" r:id="rId53" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825499" xr:uid="{54B78B49-9461-4F26-9CC4-F4D93F4CEA8C}"/>
-    <hyperlink ref="C57" r:id="rId54" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825503" xr:uid="{65F89F7B-FF61-493D-B2AA-20CBEF205C5F}"/>
-    <hyperlink ref="C58" r:id="rId55" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825504" xr:uid="{F056C048-3491-4DD2-9D1D-C707ACF9C979}"/>
-    <hyperlink ref="C59" r:id="rId56" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825508" xr:uid="{86EE9AE5-24CC-4C5C-85C9-FD076D95760E}"/>
-    <hyperlink ref="C60" r:id="rId57" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825511" xr:uid="{223D44C6-3384-4054-818E-B5943E50C8F2}"/>
-    <hyperlink ref="C61" r:id="rId58" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825513" xr:uid="{6CED8683-068C-4786-9B43-FCF074D5855B}"/>
-    <hyperlink ref="C62" r:id="rId59" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825517" xr:uid="{96D9E63D-300A-4F88-A485-9DCE1813791F}"/>
-    <hyperlink ref="C63" r:id="rId60" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825521" xr:uid="{7F229C66-1655-4740-80B7-1E789E392E23}"/>
-    <hyperlink ref="C64" r:id="rId61" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825524" xr:uid="{FE46B8FB-D15D-4D8A-8D4D-B9621F14B3B8}"/>
-    <hyperlink ref="C65" r:id="rId62" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825527" xr:uid="{A30F6CB9-73A3-47E0-9160-299A6939C3AB}"/>
-    <hyperlink ref="C66" r:id="rId63" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825531" xr:uid="{14747DFF-F6C9-4455-8DAB-0708797F9477}"/>
-    <hyperlink ref="C67" r:id="rId64" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825535" xr:uid="{C7300438-0C2B-496D-B0F1-4C66979C2CDA}"/>
-    <hyperlink ref="C68" r:id="rId65" display="https://workbench.cisecurity.org/sections/1117053/recommendations/1825537" xr:uid="{37A1E8C3-C8FF-43F5-B745-7BE9D0BE77BB}"/>
-    <hyperlink ref="C69" r:id="rId66" display="https://workbench.cisecurity.org/sections/1117053/recommendations/1825543" xr:uid="{E6A1582E-01C3-427E-82A0-2A4BAADB1992}"/>
-    <hyperlink ref="C70" r:id="rId67" display="https://workbench.cisecurity.org/sections/1117057/recommendations/1825547" xr:uid="{30EC9C22-3BA3-453A-A289-8ACD29673753}"/>
-    <hyperlink ref="C71" r:id="rId68" display="https://workbench.cisecurity.org/sections/1117057/recommendations/1825550" xr:uid="{032FAC77-86E6-4929-B8E8-185E116B22CC}"/>
-    <hyperlink ref="C72" r:id="rId69" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825554" xr:uid="{04FAC81E-1429-43B9-B7FE-F19605133960}"/>
-    <hyperlink ref="C73" r:id="rId70" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825556" xr:uid="{5C388E1C-B994-450E-8F8A-9CC493B76C30}"/>
-    <hyperlink ref="C74" r:id="rId71" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825560" xr:uid="{4A35612D-64E4-4E6E-B938-87C88BC69508}"/>
-    <hyperlink ref="C75" r:id="rId72" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825563" xr:uid="{3A76EE9D-89D3-447B-BB4B-875863C57531}"/>
-    <hyperlink ref="C76" r:id="rId73" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825567" xr:uid="{C27958F7-440D-4A95-82E0-60D00BF8CA28}"/>
-    <hyperlink ref="C77" r:id="rId74" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825571" xr:uid="{C43825A9-DCBF-41D3-92CD-A7B4A42DBA5B}"/>
-    <hyperlink ref="C78" r:id="rId75" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825575" xr:uid="{D93FDEB1-209B-406D-BE9C-9A4EF93722C7}"/>
-    <hyperlink ref="C79" r:id="rId76" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825579" xr:uid="{124C1D01-AC3E-4068-93ED-5FAE169020CA}"/>
-    <hyperlink ref="C80" r:id="rId77" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825582" xr:uid="{62731C14-5D73-4957-A930-7D69F38F6B60}"/>
-    <hyperlink ref="C81" r:id="rId78" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825584" xr:uid="{FD2D4E4E-FE24-45DD-80F7-52C7CC19DCEA}"/>
-    <hyperlink ref="C82" r:id="rId79" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825588" xr:uid="{83CC5962-BB40-4ABB-992D-91181F8E4FFC}"/>
-    <hyperlink ref="C83" r:id="rId80" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825593" xr:uid="{0D902A06-C38C-4128-AC17-9B9F7E641DD0}"/>
-    <hyperlink ref="C84" r:id="rId81" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825595" xr:uid="{B7B70DCD-1EFB-4A6A-AF9C-00AA0FA75D30}"/>
-    <hyperlink ref="C85" r:id="rId82" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825598" xr:uid="{5033C8FB-3AEE-4A27-9BF8-A3F2B910849A}"/>
-    <hyperlink ref="C86" r:id="rId83" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825601" xr:uid="{C4B7FE47-34DD-4486-96A3-1653B3F9D482}"/>
-    <hyperlink ref="C87" r:id="rId84" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825603" xr:uid="{E9328855-477E-4ED8-9C0E-9FD7537CDB04}"/>
-    <hyperlink ref="C88" r:id="rId85" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825605" xr:uid="{40909A9E-2F4F-44CC-9E4D-D666DC52A772}"/>
-    <hyperlink ref="C89" r:id="rId86" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825607" xr:uid="{D53FF91E-D77D-4384-822C-67F8962C16B6}"/>
-    <hyperlink ref="C90" r:id="rId87" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825609" xr:uid="{2198778C-267E-49F5-997A-D069C1FF8292}"/>
-    <hyperlink ref="C91" r:id="rId88" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825611" xr:uid="{91F160EE-1B44-4400-BE2D-B3D5A1758748}"/>
-    <hyperlink ref="C92" r:id="rId89" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825613" xr:uid="{08578B38-E6C3-488D-86ED-E7F7BBC9A4FB}"/>
-    <hyperlink ref="C93" r:id="rId90" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825615" xr:uid="{36BD6799-48AD-4DA8-A20A-95109D3BD696}"/>
-    <hyperlink ref="C94" r:id="rId91" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825617" xr:uid="{5DDFE08B-DD51-47B3-9A87-BC93A21673E2}"/>
-    <hyperlink ref="C95" r:id="rId92" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825619" xr:uid="{7AC8C382-744F-4027-BD69-EFF949B1DAB0}"/>
-    <hyperlink ref="C96" r:id="rId93" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825620" xr:uid="{0C7CF5BD-F2B4-4429-B755-B24D15B29242}"/>
-    <hyperlink ref="C97" r:id="rId94" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825621" xr:uid="{D559E65C-7E71-4A60-BD96-7762B4D89075}"/>
-    <hyperlink ref="C98" r:id="rId95" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825623" xr:uid="{6BB7349E-B2A1-42A9-92D9-0E0B148449A9}"/>
-    <hyperlink ref="C99" r:id="rId96" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825624" xr:uid="{A3C71FDC-40DA-4E81-8527-7DE91B07B22F}"/>
-    <hyperlink ref="C100" r:id="rId97" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825625" xr:uid="{BDDBA8D4-BFCB-4FA7-AC15-455E1EC4289D}"/>
-    <hyperlink ref="C101" r:id="rId98" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825627" xr:uid="{F445DF54-05C3-4167-B1A5-4D502AF183CD}"/>
-    <hyperlink ref="C102" r:id="rId99" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825628" xr:uid="{9D8CB9DA-01DD-49F4-A215-86B6A3735283}"/>
-    <hyperlink ref="C103" r:id="rId100" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825630" xr:uid="{6B9A3F83-9011-488C-874B-4D13CB7D2D62}"/>
-    <hyperlink ref="C104" r:id="rId101" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825632" xr:uid="{723C5D18-2AFA-47DC-9A99-E215D4C5DE63}"/>
-    <hyperlink ref="C105" r:id="rId102" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825634" xr:uid="{B2E7A51C-40CA-4B5B-B28C-36DB4207ED77}"/>
-    <hyperlink ref="C106" r:id="rId103" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825636" xr:uid="{BE52B05E-0A00-4E53-A26B-4BA294FBD5CB}"/>
-    <hyperlink ref="C107" r:id="rId104" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825637" xr:uid="{8F6A221D-DE1E-4F10-8600-2BBA2F61A6B0}"/>
-    <hyperlink ref="C108" r:id="rId105" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825638" xr:uid="{F60AD0E3-BDD9-4679-8E3C-C73B2276FD4C}"/>
-    <hyperlink ref="C109" r:id="rId106" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825640" xr:uid="{A16960CC-C3FB-4A92-8876-1D221D741697}"/>
-    <hyperlink ref="C110" r:id="rId107" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825642" xr:uid="{59789FED-1A43-402E-ABC7-9E586F531873}"/>
-    <hyperlink ref="C111" r:id="rId108" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825643" xr:uid="{439737BE-3FDB-409F-9450-1168E4DEBEB3}"/>
-    <hyperlink ref="C113" r:id="rId109" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825646" xr:uid="{0FF8D7AA-2C54-4C94-9321-5F1041B4133A}"/>
-    <hyperlink ref="C114" r:id="rId110" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825648" xr:uid="{45FEE086-17DE-4CE7-AC24-341D8A785635}"/>
-    <hyperlink ref="C115" r:id="rId111" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825650" xr:uid="{B6BC0BC9-C3B6-4F1C-9525-37E06D716479}"/>
-    <hyperlink ref="C116" r:id="rId112" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825651" xr:uid="{D69A5762-488E-4461-80D4-4C95C900EC20}"/>
-    <hyperlink ref="C117" r:id="rId113" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825653" xr:uid="{B5B8E009-9EDD-4FA1-9109-A2842908022A}"/>
-    <hyperlink ref="C118" r:id="rId114" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825656" xr:uid="{48FD525E-0EBF-4E88-AAAB-2AC2BB919264}"/>
-    <hyperlink ref="C119" r:id="rId115" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825657" xr:uid="{FA7FCF51-7DEB-4E1F-A1DD-779ABE61AA62}"/>
-    <hyperlink ref="C120" r:id="rId116" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825659" xr:uid="{CEBBA353-5721-4E76-8136-6885606F83F9}"/>
-    <hyperlink ref="C121" r:id="rId117" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825661" xr:uid="{67B3CF0C-E01F-4F2D-892F-8907F0C40020}"/>
-    <hyperlink ref="C123" r:id="rId118" display="https://workbench.cisecurity.org/sections/1117165/recommendations/1825664" xr:uid="{1F0598B6-45D5-4ED5-8975-D07B93AA1576}"/>
-    <hyperlink ref="C124" r:id="rId119" display="https://workbench.cisecurity.org/sections/1117168/recommendations/1825667" xr:uid="{C81614DD-65EB-495A-B499-3DB41ED55DB8}"/>
-    <hyperlink ref="C125" r:id="rId120" display="https://workbench.cisecurity.org/sections/1117168/recommendations/1825668" xr:uid="{4889D8C6-5895-4580-AC24-5373328085E3}"/>
-    <hyperlink ref="C126" r:id="rId121" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825672" xr:uid="{D7DFE626-F490-429E-BFA6-8327F969C1F7}"/>
-    <hyperlink ref="C127" r:id="rId122" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825674" xr:uid="{EA2264A7-C566-471B-9803-4CE287B9D42D}"/>
-    <hyperlink ref="C128" r:id="rId123" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825676" xr:uid="{624F6FAF-CF2B-4898-9D8A-4280BE4D6C1B}"/>
-    <hyperlink ref="C129" r:id="rId124" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825678" xr:uid="{F359BCB7-C22B-4F93-A18A-15E9ABE1F7EE}"/>
-    <hyperlink ref="C130" r:id="rId125" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825680" xr:uid="{0D1BF434-FD57-4926-8AB3-2B456BB5D418}"/>
-    <hyperlink ref="C131" r:id="rId126" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825682" xr:uid="{35798869-BD20-4F56-AD65-C2D548CC820D}"/>
-    <hyperlink ref="C132" r:id="rId127" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825684" xr:uid="{5CBA3037-708B-4B75-9C73-9A3B9737DDC6}"/>
-    <hyperlink ref="C133" r:id="rId128" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825686" xr:uid="{B2D5D2C8-0925-4D97-8162-B378545DC6E1}"/>
-    <hyperlink ref="C134" r:id="rId129" display="https://workbench.cisecurity.org/sections/1117018/recommendations/1825429" xr:uid="{E3BBF73F-EB33-4D82-91E3-DB6F6A124371}"/>
-    <hyperlink ref="C135" r:id="rId130" display="https://workbench.cisecurity.org/sections/1117018/recommendations/1825432" xr:uid="{97FE6FA5-36E6-4512-AE5F-90AF7BB63D07}"/>
-    <hyperlink ref="C136" r:id="rId131" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825436" xr:uid="{260D04C8-E038-4149-9C5D-602AFDD8B3AC}"/>
-    <hyperlink ref="C137" r:id="rId132" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825438" xr:uid="{938B9880-021E-41AF-8299-D005A078918F}"/>
-    <hyperlink ref="C138" r:id="rId133" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825441" xr:uid="{8DCF57BA-80B0-4E39-B783-72F0FA0F0C92}"/>
-    <hyperlink ref="C139" r:id="rId134" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825444" xr:uid="{7EDF1D4A-CC21-4510-A088-CEA9C811D176}"/>
-    <hyperlink ref="C140" r:id="rId135" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825447" xr:uid="{EEBF86A6-380D-4CB0-A5DB-6936C602B951}"/>
-    <hyperlink ref="C141" r:id="rId136" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825449" xr:uid="{F8E4832E-CDC8-4C62-8559-069FF380DD76}"/>
-    <hyperlink ref="C142" r:id="rId137" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825452" xr:uid="{93B31445-242E-49D2-9D41-FC258D825220}"/>
-    <hyperlink ref="C143" r:id="rId138" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825455" xr:uid="{D3D7D0AC-F200-4793-8487-A6E9EA4B570F}"/>
-    <hyperlink ref="C144" r:id="rId139" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825457" xr:uid="{C40B79A6-18A7-47EB-9199-298C264B4307}"/>
-    <hyperlink ref="C145" r:id="rId140" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825460" xr:uid="{522E23E4-9216-41A5-8987-37B49C56A0CD}"/>
-    <hyperlink ref="C146" r:id="rId141" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825462" xr:uid="{965D2E7D-29C3-4ECB-A625-6F73A631158C}"/>
-    <hyperlink ref="C147" r:id="rId142" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825465" xr:uid="{012A7BF2-6AFB-42EB-BFC0-17607890B057}"/>
-    <hyperlink ref="C148" r:id="rId143" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825468" xr:uid="{50717CA2-B851-4208-BF48-57E2691805F0}"/>
-    <hyperlink ref="C149" r:id="rId144" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825472" xr:uid="{1696E1C3-26E2-4CBC-AF4B-8EBAAAD7AADD}"/>
-    <hyperlink ref="C150" r:id="rId145" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825476" xr:uid="{7F185A1C-79A9-405A-BA22-0C84CA2937FA}"/>
-    <hyperlink ref="C151" r:id="rId146" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825479" xr:uid="{9291B7F9-95F5-49FD-B2BA-2730340AB124}"/>
-    <hyperlink ref="C152" r:id="rId147" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825483" xr:uid="{1B113A1D-B675-4B90-8DBD-803685BEEFE6}"/>
-    <hyperlink ref="C153" r:id="rId148" display="https://workbench.cisecurity.org/sections/1117035/recommendations/1825485" xr:uid="{A113A592-8D0B-42A3-AE35-654E24D86903}"/>
-    <hyperlink ref="C154" r:id="rId149" display="https://workbench.cisecurity.org/sections/1117035/recommendations/1825489" xr:uid="{B0F7DA60-AD77-4A86-BB3A-37B6F8666164}"/>
-    <hyperlink ref="C155" r:id="rId150" display="https://workbench.cisecurity.org/sections/1117037/recommendations/1825493" xr:uid="{F85CF96C-73C3-4C1C-B736-D937F72F8FA8}"/>
-    <hyperlink ref="C156" r:id="rId151" display="https://workbench.cisecurity.org/sections/1117037/recommendations/1825496" xr:uid="{2FBFC23B-4831-456C-BDCC-C05014FDF3D1}"/>
-    <hyperlink ref="C157" r:id="rId152" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825500" xr:uid="{3811CE7D-A841-40BD-AA5A-A46D23406178}"/>
-    <hyperlink ref="C158" r:id="rId153" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825506" xr:uid="{B6807F75-BAB7-48A6-A50D-8DCB39D97872}"/>
-    <hyperlink ref="C159" r:id="rId154" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825510" xr:uid="{A88D3CFB-304E-4D9F-9216-2B6C262AF0ED}"/>
-    <hyperlink ref="C160" r:id="rId155" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825516" xr:uid="{86C26B3C-2052-4626-874E-2A2D07120DAD}"/>
-    <hyperlink ref="C161" r:id="rId156" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825518" xr:uid="{A4313095-F1F6-4E31-9B1F-D9AE6BA61C20}"/>
-    <hyperlink ref="C162" r:id="rId157" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825522" xr:uid="{C9CBE815-4386-4DF4-8C84-84E287E42C9D}"/>
-    <hyperlink ref="C163" r:id="rId158" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825525" xr:uid="{35880342-F342-4B02-9807-FC9DB6768BF6}"/>
-    <hyperlink ref="C164" r:id="rId159" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825529" xr:uid="{AB0FE423-7809-4EF2-AC64-E6ADB5D418C1}"/>
-    <hyperlink ref="C165" r:id="rId160" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825532" xr:uid="{1BD58792-16D3-49B1-B9A3-2508C5D59B75}"/>
-    <hyperlink ref="C166" r:id="rId161" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825536" xr:uid="{3D3D7AC5-4D50-4A5E-B2F7-781FA54C080E}"/>
-    <hyperlink ref="C167" r:id="rId162" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825540" xr:uid="{8BDBE780-2AC1-4979-A2E8-BD1A12A69D42}"/>
-    <hyperlink ref="C168" r:id="rId163" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825544" xr:uid="{30230B7D-FB84-4B9C-ABE8-86A71A3237C2}"/>
-    <hyperlink ref="C169" r:id="rId164" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825548" xr:uid="{6B4F427D-85CB-4CC8-BA1A-F4FAC19DABEF}"/>
-    <hyperlink ref="C170" r:id="rId165" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825551" xr:uid="{8DC30B6C-A5B8-4533-932C-131AF6A9B454}"/>
-    <hyperlink ref="C171" r:id="rId166" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825555" xr:uid="{E74C7F8A-0172-43DD-B70D-0FFB4EE54697}"/>
-    <hyperlink ref="C172" r:id="rId167" display="https://workbench.cisecurity.org/sections/1117070/recommendations/1825558" xr:uid="{05D8C471-D44B-4D52-B27D-587D6CBD93C1}"/>
-    <hyperlink ref="C173" r:id="rId168" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825562" xr:uid="{7AD15CF6-05E5-4D00-B974-57905406D4A9}"/>
-    <hyperlink ref="C174" r:id="rId169" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825565" xr:uid="{00421274-F63D-4AD2-8259-E08443CFAA17}"/>
-    <hyperlink ref="C175" r:id="rId170" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825568" xr:uid="{96B58D57-B9A8-46EF-9A02-B85E5F4E507A}"/>
-    <hyperlink ref="C176" r:id="rId171" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825572" xr:uid="{DED8A4CD-E9D6-495F-9D34-9B7B374C234E}"/>
-    <hyperlink ref="C177" r:id="rId172" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825576" xr:uid="{BCFBDE1A-2005-40EF-B251-F42F755C471B}"/>
-    <hyperlink ref="C178" r:id="rId173" display="https://workbench.cisecurity.org/sections/1117040/recommendations/1825515" xr:uid="{F7A3D654-3750-46FB-A49E-E2E3B1324EC7}"/>
-    <hyperlink ref="C179" r:id="rId174" display="https://workbench.cisecurity.org/sections/1117041/recommendations/1825502" xr:uid="{4861C41E-B322-4E88-A39E-B4ACCF2DB4CC}"/>
-    <hyperlink ref="C180" r:id="rId175" display="https://workbench.cisecurity.org/sections/1117041/recommendations/1825507" xr:uid="{F6C5F3B3-0AD5-4E74-AF34-B318F8BBCBB8}"/>
-    <hyperlink ref="C181" r:id="rId176" display="https://workbench.cisecurity.org/sections/1117042/recommendations/1825512" xr:uid="{F5F00FAE-DD91-4295-ADD9-083080850296}"/>
-    <hyperlink ref="C182" r:id="rId177" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825546" xr:uid="{0259BDC1-9C52-43D7-A5C9-856883F499E8}"/>
-    <hyperlink ref="C183" r:id="rId178" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825553" xr:uid="{EBD37EF1-933A-4DE2-BFB8-6AA1C71C2E43}"/>
-    <hyperlink ref="C184" r:id="rId179" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825557" xr:uid="{0C4C80F2-FB4C-46BD-B863-EF4B13870032}"/>
-    <hyperlink ref="C185" r:id="rId180" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825561" xr:uid="{1DF1C9A8-5DED-4EEB-ACAC-7C2770B1519E}"/>
-    <hyperlink ref="C186" r:id="rId181" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825570" xr:uid="{276659A9-805A-4FD6-8F0A-7F68F2538F6E}"/>
-    <hyperlink ref="C187" r:id="rId182" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825574" xr:uid="{FA78B15E-F0CF-4645-B828-BF951311661B}"/>
-    <hyperlink ref="C188" r:id="rId183" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825578" xr:uid="{1701733A-D084-4A28-9D5D-0E79D06E58B9}"/>
-    <hyperlink ref="C189" r:id="rId184" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825581" xr:uid="{0956E9BA-3923-4C2B-A330-4F05291027BC}"/>
-    <hyperlink ref="C190" r:id="rId185" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825585" xr:uid="{66390F64-5B13-4285-8064-7636B611FBE9}"/>
-    <hyperlink ref="C191" r:id="rId186" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825587" xr:uid="{CB01C30E-76BD-4696-8689-463E779652DD}"/>
-    <hyperlink ref="C192" r:id="rId187" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825589" xr:uid="{C59C3983-2261-4F3A-87EF-7C975FE15260}"/>
-    <hyperlink ref="C193" r:id="rId188" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825592" xr:uid="{3A79E946-7269-44AE-BBF4-86DBC42F749A}"/>
-    <hyperlink ref="C194" r:id="rId189" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825594" xr:uid="{A245E557-8586-44B5-9C3A-0D57AB922103}"/>
-    <hyperlink ref="C195" r:id="rId190" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825597" xr:uid="{0EDA4EE7-429D-4588-B943-979D9ACE7125}"/>
-    <hyperlink ref="C196" r:id="rId191" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825599" xr:uid="{01BB594F-0BD0-49D3-96E1-CF55AB414E44}"/>
-    <hyperlink ref="C197" r:id="rId192" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825602" xr:uid="{D94513EA-A6B4-4CB9-B3FB-285449FF212E}"/>
-    <hyperlink ref="C198" r:id="rId193" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825604" xr:uid="{C0941664-003F-4DFE-A158-78A94E3B438F}"/>
-    <hyperlink ref="C199" r:id="rId194" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825606" xr:uid="{9D936FF5-1E60-489D-8E5F-54AFFA77BCF2}"/>
-    <hyperlink ref="C200" r:id="rId195" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825608" xr:uid="{E84CDD0C-2DBE-4404-969B-6B32A4E9D55B}"/>
-    <hyperlink ref="C201" r:id="rId196" display="https://workbench.cisecurity.org/sections/1117131/recommendations/1825610" xr:uid="{14B5530C-C902-462B-B725-D882F40155D3}"/>
-    <hyperlink ref="C202" r:id="rId197" display="https://workbench.cisecurity.org/sections/1117131/recommendations/1825612" xr:uid="{6F72B70A-C4C4-4133-8177-6BC024168F28}"/>
-    <hyperlink ref="C203" r:id="rId198" display="https://workbench.cisecurity.org/sections/1117133/recommendations/1825614" xr:uid="{900DA61C-9B65-409C-AFAE-9E09A9AE295D}"/>
-    <hyperlink ref="C204" r:id="rId199" display="https://workbench.cisecurity.org/sections/1117136/recommendations/1825616" xr:uid="{0E0CB621-2A09-4600-A2AA-B6A04B11CF8D}"/>
-    <hyperlink ref="C205" r:id="rId200" display="https://workbench.cisecurity.org/sections/1117137/recommendations/1825618" xr:uid="{200AE59B-61C3-469A-BAD9-AFF4D38D5F1E}"/>
-    <hyperlink ref="C206" r:id="rId201" display="https://workbench.cisecurity.org/sections/1117137/recommendations/1825622" xr:uid="{A1BC8217-8549-4145-9EA4-E21A5016B0E2}"/>
-    <hyperlink ref="C207" r:id="rId202" display="https://workbench.cisecurity.org/sections/1117140/recommendations/1825626" xr:uid="{89BFA654-CCB1-46B1-AB2B-BA98B5313EC3}"/>
-    <hyperlink ref="C208" r:id="rId203" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825629" xr:uid="{6BAD3049-535B-4819-AC08-D09739880F87}"/>
-    <hyperlink ref="C209" r:id="rId204" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825631" xr:uid="{6EE983CD-19D0-4D92-9A80-0F4035247102}"/>
-    <hyperlink ref="C210" r:id="rId205" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825633" xr:uid="{C9BBB676-1ABA-40D2-936B-F6D5DD2E0084}"/>
-    <hyperlink ref="C211" r:id="rId206" display="https://workbench.cisecurity.org/sections/1117146/recommendations/1825635" xr:uid="{471C413E-399D-449F-89E9-36F48F3BDE8F}"/>
-    <hyperlink ref="C212" r:id="rId207" display="https://workbench.cisecurity.org/sections/1117153/recommendations/1825639" xr:uid="{A07AFF57-860D-404D-84B9-CC532F7D85D8}"/>
-    <hyperlink ref="C213" r:id="rId208" display="https://workbench.cisecurity.org/sections/1117154/recommendations/1825641" xr:uid="{6CAE56CF-D945-48D3-AEE2-AF23C0EF3B52}"/>
-    <hyperlink ref="C214" r:id="rId209" display="https://workbench.cisecurity.org/sections/1117154/recommendations/1825645" xr:uid="{942ABD51-9FC2-4CD8-AB4C-C7781BD2AD9B}"/>
-    <hyperlink ref="C215" r:id="rId210" display="https://workbench.cisecurity.org/sections/1117156/recommendations/1825647" xr:uid="{2DC1B17C-E898-47D8-B26C-C584CBBDB45C}"/>
-    <hyperlink ref="C216" r:id="rId211" display="https://workbench.cisecurity.org/sections/1117156/recommendations/1825652" xr:uid="{7F755417-1B62-41F6-BC53-A260B56D58D1}"/>
-    <hyperlink ref="C217" r:id="rId212" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825654" xr:uid="{DC9DBC88-ECEA-4FE2-B409-F59A7D096E27}"/>
-    <hyperlink ref="C218" r:id="rId213" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825655" xr:uid="{65880178-3DEC-4D84-830E-7F85312E947B}"/>
-    <hyperlink ref="C219" r:id="rId214" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825658" xr:uid="{31797B12-2228-4D93-846A-3E47203CF108}"/>
-    <hyperlink ref="C220" r:id="rId215" display="https://workbench.cisecurity.org/sections/1117159/recommendations/1825660" xr:uid="{DBC21B7A-091F-4C5D-B881-B6B8274D99E1}"/>
-    <hyperlink ref="C221" r:id="rId216" display="https://workbench.cisecurity.org/sections/1117163/recommendations/1825663" xr:uid="{1A3C8FA0-15F5-4761-83EB-FBE2A7BDF648}"/>
-    <hyperlink ref="C222" r:id="rId217" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825669" xr:uid="{56AF01C3-532F-4AD9-961D-A8FB21114F89}"/>
-    <hyperlink ref="C223" r:id="rId218" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825671" xr:uid="{606BCD85-1414-49F1-97BF-06B7D4A27116}"/>
-    <hyperlink ref="C224" r:id="rId219" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825673" xr:uid="{5E0A02F2-4814-4E01-BCF7-37E9FCB21981}"/>
-    <hyperlink ref="C225" r:id="rId220" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825675" xr:uid="{ACD95963-9BFB-468D-A077-A1668A4DBFB6}"/>
-    <hyperlink ref="C226" r:id="rId221" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825677" xr:uid="{742EBF31-F28E-498F-9B54-712884C56EDE}"/>
-    <hyperlink ref="C227" r:id="rId222" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825679" xr:uid="{8C730493-1EE7-414A-A470-89F45956FAFC}"/>
-    <hyperlink ref="C228" r:id="rId223" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825681" xr:uid="{4A7D4413-92D7-42A8-9C15-79EA243A7398}"/>
-    <hyperlink ref="C229" r:id="rId224" display="https://workbench.cisecurity.org/sections/1117173/recommendations/1825685" xr:uid="{6565135C-0D01-45D1-9D3D-B55B9F948EE8}"/>
-    <hyperlink ref="C230" r:id="rId225" display="https://workbench.cisecurity.org/sections/1117181/recommendations/1825687" xr:uid="{A6340EAB-8693-4C9F-BBF9-CD129108D6E2}"/>
-    <hyperlink ref="C231" r:id="rId226" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825688" xr:uid="{9F685D80-0422-4AD0-A1B1-D01E1B3CE70A}"/>
-    <hyperlink ref="C232" r:id="rId227" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825689" xr:uid="{1C94043E-D883-4914-B6C1-FFEC956F6DCE}"/>
-    <hyperlink ref="C233" r:id="rId228" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825690" xr:uid="{CB94670C-B58C-4A19-8461-680D0ADE0496}"/>
-    <hyperlink ref="C234" r:id="rId229" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825691" xr:uid="{89EF1492-503D-42C9-9CAA-C68959BE9171}"/>
-    <hyperlink ref="C235" r:id="rId230" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825692" xr:uid="{9A0983DB-6738-422C-8CBF-01EBA974CA75}"/>
-    <hyperlink ref="C236" r:id="rId231" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825693" xr:uid="{C5F4F4BC-CEA3-4F14-8B52-C26B5390C105}"/>
-    <hyperlink ref="C237" r:id="rId232" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825694" xr:uid="{7E832D11-1F44-4B3D-97E4-7F70801019B0}"/>
-    <hyperlink ref="C238" r:id="rId233" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825695" xr:uid="{AB159C5E-7ACB-4EFB-BA12-8C0FE7FDA968}"/>
-    <hyperlink ref="C239" r:id="rId234" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825696" xr:uid="{2E580628-8FDD-410F-BC47-949860CC9629}"/>
-    <hyperlink ref="C240" r:id="rId235" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825698" xr:uid="{D0FF6951-8F37-4D4F-AC9D-6077D2C2F4F9}"/>
-    <hyperlink ref="C241" r:id="rId236" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825699" xr:uid="{3C1FD09F-77BA-4E6A-8564-6BCF9B76B570}"/>
-    <hyperlink ref="C242" r:id="rId237" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825700" xr:uid="{2B7A15F4-3F14-406A-8735-F4EE46A3BC20}"/>
-    <hyperlink ref="C243" r:id="rId238" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825701" xr:uid="{9B5B9C32-D022-4408-BB1F-4D64AF1C6DBB}"/>
-    <hyperlink ref="C244" r:id="rId239" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825702" xr:uid="{8C9CCBC7-D17B-40D5-9F00-4437C8B60624}"/>
-    <hyperlink ref="C245" r:id="rId240" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825703" xr:uid="{7A4F761E-8815-44C7-AD28-7E5D9D265E26}"/>
-    <hyperlink ref="C246" r:id="rId241" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825704" xr:uid="{FECA4422-6E72-4E95-8DC3-94621A6AF51D}"/>
-    <hyperlink ref="C247" r:id="rId242" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825705" xr:uid="{F10AEB7B-4997-41D5-8ECD-859558380ED5}"/>
-    <hyperlink ref="C248" r:id="rId243" display="https://workbench.cisecurity.org/sections/1117194/recommendations/1825706" xr:uid="{E499F1F9-1D4C-44CE-A8B7-92DF8C8C4C9F}"/>
-    <hyperlink ref="C249" r:id="rId244" display="https://workbench.cisecurity.org/sections/1117195/recommendations/1825707" xr:uid="{2280A042-E75F-496F-BEB0-B7E3103F5C9E}"/>
-    <hyperlink ref="C250" r:id="rId245" display="https://workbench.cisecurity.org/sections/1117196/recommendations/1825708" xr:uid="{21A3161D-FB9F-491F-9B23-52932F50BFC2}"/>
-    <hyperlink ref="C251" r:id="rId246" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825710" xr:uid="{DE5F4B21-3321-4220-9CA1-0188E708756E}"/>
-    <hyperlink ref="C252" r:id="rId247" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825711" xr:uid="{77467936-CAC5-4DD2-8F2B-B52879F8EAD2}"/>
-    <hyperlink ref="C253" r:id="rId248" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825712" xr:uid="{395B816A-F97E-4681-BCB5-C4663F51B251}"/>
-    <hyperlink ref="C254" r:id="rId249" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825713" xr:uid="{7B48F277-C848-4E9E-B210-0464EADB2F8C}"/>
-    <hyperlink ref="C255" r:id="rId250" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825714" xr:uid="{E73EAAB1-C94C-48B1-83C3-5CB06D7E217D}"/>
-    <hyperlink ref="C256" r:id="rId251" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825715" xr:uid="{4F03FD29-AECC-4E09-9395-B700A19C559A}"/>
-    <hyperlink ref="C257" r:id="rId252" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825716" xr:uid="{0BB095E0-DA0D-4F46-A71A-E05D0939CD91}"/>
-    <hyperlink ref="C258" r:id="rId253" display="https://workbench.cisecurity.org/sections/1117200/recommendations/1825717" xr:uid="{F346EF11-888B-4ECF-B31E-F7E96F30DA78}"/>
-    <hyperlink ref="C259" r:id="rId254" display="https://workbench.cisecurity.org/sections/1117200/recommendations/1825718" xr:uid="{2E19C594-DC27-4590-AC6C-E9BE62099BFE}"/>
-    <hyperlink ref="C260" r:id="rId255" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825719" xr:uid="{CB4A13C2-6817-43C1-A1E6-36C6BC0806F6}"/>
-    <hyperlink ref="C261" r:id="rId256" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825720" xr:uid="{84872009-C57D-413A-8C20-16E764F0188C}"/>
-    <hyperlink ref="C262" r:id="rId257" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825721" xr:uid="{461F9795-74F2-4695-B31E-44B63A1E01E0}"/>
-    <hyperlink ref="C263" r:id="rId258" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825722" xr:uid="{0083E7FE-C8BA-4865-BA9B-71590D9B5BDB}"/>
-    <hyperlink ref="C264" r:id="rId259" display="https://workbench.cisecurity.org/sections/1117211/recommendations/1825723" xr:uid="{299E36EB-BED2-4417-B0A7-2E5F41537434}"/>
-    <hyperlink ref="C265" r:id="rId260" display="https://workbench.cisecurity.org/sections/1117211/recommendations/1825724" xr:uid="{473F1C85-FB0D-455F-97AB-7F0AA5C5015F}"/>
-    <hyperlink ref="C266" r:id="rId261" display="https://workbench.cisecurity.org/sections/1117212/recommendations/1825725" xr:uid="{5388E80C-533B-4737-BC09-3A929490EC54}"/>
-    <hyperlink ref="C267" r:id="rId262" display="https://workbench.cisecurity.org/sections/1117212/recommendations/1825726" xr:uid="{F7A6354C-459B-4AAC-8DBC-E361200CEA42}"/>
-    <hyperlink ref="C268" r:id="rId263" display="https://workbench.cisecurity.org/sections/1117215/recommendations/1825727" xr:uid="{F1B2F1A9-06ED-4EC6-A278-CBFEAC6C6751}"/>
-    <hyperlink ref="C269" r:id="rId264" display="https://workbench.cisecurity.org/sections/1117228/recommendations/1825728" xr:uid="{2770382D-1897-4FCF-93D4-5E4E15B1B2DD}"/>
-    <hyperlink ref="C270" r:id="rId265" display="https://workbench.cisecurity.org/sections/1117234/recommendations/1825729" xr:uid="{E5E25D47-B5CB-49AF-88B0-2A8CB32B8EC0}"/>
-    <hyperlink ref="C271" r:id="rId266" display="https://workbench.cisecurity.org/sections/1117236/recommendations/1825730" xr:uid="{B7F99A28-87FC-4558-957D-2718B53EBE6C}"/>
-    <hyperlink ref="C272" r:id="rId267" display="https://workbench.cisecurity.org/sections/1117240/recommendations/1825731" xr:uid="{B6A66A66-F785-46F6-9F3B-2E1A51EC95DC}"/>
-    <hyperlink ref="C273" r:id="rId268" display="https://workbench.cisecurity.org/sections/1117240/recommendations/1825732" xr:uid="{9C4FF5E3-2098-4DFD-B826-8C0632AAAAFE}"/>
-    <hyperlink ref="C274" r:id="rId269" display="https://workbench.cisecurity.org/sections/1117245/recommendations/1825733" xr:uid="{209919DF-E574-4EFE-B005-0E9F5EC2FF21}"/>
-    <hyperlink ref="C275" r:id="rId270" display="https://workbench.cisecurity.org/sections/1117247/recommendations/1825734" xr:uid="{571F3CE5-C93E-4F9E-9B38-AFD7D1D46A49}"/>
-    <hyperlink ref="C276" r:id="rId271" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825735" xr:uid="{08AF651E-25E0-47E7-8DEB-C21B461F6BC1}"/>
-    <hyperlink ref="C277" r:id="rId272" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825736" xr:uid="{42C506A9-21F3-4527-B882-E2803D5288A9}"/>
-    <hyperlink ref="C278" r:id="rId273" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825737" xr:uid="{4A57AEE5-5D03-4E2A-9269-2B7E46685DBF}"/>
-    <hyperlink ref="C279" r:id="rId274" display="https://workbench.cisecurity.org/sections/1117252/recommendations/1825738" xr:uid="{8406A8E4-936C-41D7-B5A6-4743777B2FE5}"/>
-    <hyperlink ref="C280" r:id="rId275" display="https://workbench.cisecurity.org/sections/1117254/recommendations/1825739" xr:uid="{0BEB68F5-F26C-4DD6-89A6-9573C4098107}"/>
-    <hyperlink ref="C281" r:id="rId276" display="https://workbench.cisecurity.org/sections/1117256/recommendations/1825740" xr:uid="{413F16BC-8042-4B4F-AE70-A1327FA260B5}"/>
-    <hyperlink ref="C282" r:id="rId277" display="https://workbench.cisecurity.org/sections/1117256/recommendations/1825742" xr:uid="{1847B836-A6DB-4371-8640-B3DB39EF6C6B}"/>
-    <hyperlink ref="C283" r:id="rId278" display="https://workbench.cisecurity.org/sections/1117257/recommendations/1825743" xr:uid="{4CAA3B6B-336B-4A79-923A-93D0AC95E973}"/>
-    <hyperlink ref="C284" r:id="rId279" display="https://workbench.cisecurity.org/sections/1117258/recommendations/1825744" xr:uid="{EA524355-39AD-4E85-AE74-BD70786846F7}"/>
-    <hyperlink ref="C285" r:id="rId280" display="https://workbench.cisecurity.org/sections/1117258/recommendations/1825745" xr:uid="{B3449D3B-5214-40B2-BBBA-1556FA6CDECD}"/>
-    <hyperlink ref="C286" r:id="rId281" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825746" xr:uid="{095A7829-EFA3-4711-B1B0-AA87BE3EEE04}"/>
-    <hyperlink ref="C287" r:id="rId282" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825747" xr:uid="{B8A5D0E7-05C0-4E90-B9F0-27CC0CD40481}"/>
-    <hyperlink ref="C288" r:id="rId283" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825748" xr:uid="{FFF5C0CC-57A2-48F9-BD52-E51C61F2FCA4}"/>
-    <hyperlink ref="C289" r:id="rId284" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825749" xr:uid="{58A54676-06B5-42A9-8A4A-164526EEF4B7}"/>
-    <hyperlink ref="C290" r:id="rId285" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825750" xr:uid="{BA7B2A2D-C731-4655-B4BB-1872AC19DE69}"/>
-    <hyperlink ref="C291" r:id="rId286" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825751" xr:uid="{D258E32D-51ED-4D5F-A6FB-BEEBAB540C56}"/>
-    <hyperlink ref="C292" r:id="rId287" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825752" xr:uid="{C8AE5D72-732A-4CF7-B408-0948B9697844}"/>
-    <hyperlink ref="C293" r:id="rId288" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825753" xr:uid="{0365866F-8D33-4ED6-AC68-1617D2C14550}"/>
-    <hyperlink ref="C294" r:id="rId289" display="https://workbench.cisecurity.org/sections/1117273/recommendations/1825774" xr:uid="{91D6FC4B-BD71-4CA1-B2BE-12B28CF17D35}"/>
-    <hyperlink ref="C295" r:id="rId290" display="https://workbench.cisecurity.org/sections/1117273/recommendations/1825776" xr:uid="{D83E092B-5971-4F31-82AE-7C08DB72AE5D}"/>
-    <hyperlink ref="C296" r:id="rId291" display="https://workbench.cisecurity.org/sections/1117277/recommendations/1825779" xr:uid="{BE6C624E-A873-47CD-ADCE-2F92DA64E134}"/>
-    <hyperlink ref="C297" r:id="rId292" display="https://workbench.cisecurity.org/sections/1117277/recommendations/1825782" xr:uid="{1DCAC2CC-5206-407B-85FD-3E9672EDEAEA}"/>
-    <hyperlink ref="C298" r:id="rId293" display="https://workbench.cisecurity.org/sections/1117278/recommendations/1825784" xr:uid="{99E118AC-94A8-4330-895E-F29BA1535593}"/>
-    <hyperlink ref="C299" r:id="rId294" display="https://workbench.cisecurity.org/sections/1117278/recommendations/1825788" xr:uid="{4B986CA1-9C88-4B44-A59E-399C40DB61CB}"/>
-    <hyperlink ref="C300" r:id="rId295" display="https://workbench.cisecurity.org/sections/1117282/recommendations/1825792" xr:uid="{09530E63-80E7-4B2E-9946-3BDE47C30DFB}"/>
-    <hyperlink ref="C301" r:id="rId296" display="https://workbench.cisecurity.org/sections/1117282/recommendations/1825795" xr:uid="{EB33877E-428D-41AD-A493-F9F32E05902C}"/>
-    <hyperlink ref="C302" r:id="rId297" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825799" xr:uid="{EB6F517C-D619-4B96-8A67-CB36308DA152}"/>
-    <hyperlink ref="C303" r:id="rId298" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825803" xr:uid="{778CDEA3-B011-44CC-90AA-965E8B626E11}"/>
-    <hyperlink ref="C304" r:id="rId299" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825806" xr:uid="{C10B668A-18C7-40F4-A38B-D0BFAD6A02ED}"/>
-    <hyperlink ref="C305" r:id="rId300" display="https://workbench.cisecurity.org/sections/1117297/recommendations/1825815" xr:uid="{CC2D1F59-DE40-4B0C-BB1C-3FB333367999}"/>
-    <hyperlink ref="C306" r:id="rId301" display="https://workbench.cisecurity.org/sections/1117302/recommendations/1825819" xr:uid="{14C05EE0-E022-4C38-ABC7-8F94C9B7C963}"/>
-    <hyperlink ref="C307" r:id="rId302" display="https://workbench.cisecurity.org/sections/1117303/recommendations/1825823" xr:uid="{BBD603C7-FC93-4270-B7FD-E718C10F3B2E}"/>
-    <hyperlink ref="C308" r:id="rId303" display="https://workbench.cisecurity.org/sections/1117308/recommendations/1825827" xr:uid="{3AB69975-3470-4F21-86CC-F553C714B776}"/>
-    <hyperlink ref="C309" r:id="rId304" display="https://workbench.cisecurity.org/sections/1117308/recommendations/1825832" xr:uid="{D78A326A-CCF8-481C-8A72-1049E5BB454B}"/>
-    <hyperlink ref="C310" r:id="rId305" display="https://workbench.cisecurity.org/sections/1117314/recommendations/1825837" xr:uid="{F13EE283-D645-4C7D-885E-2DA5A0DF0A43}"/>
-    <hyperlink ref="C311" r:id="rId306" display="https://workbench.cisecurity.org/sections/1117314/recommendations/1825843" xr:uid="{AEC1DCCC-93F7-4421-9775-E7114A3B1925}"/>
-    <hyperlink ref="C312" r:id="rId307" display="https://workbench.cisecurity.org/sections/1117319/recommendations/1825872" xr:uid="{7EDE6A89-51EA-470F-A85A-8217F7AB5429}"/>
-    <hyperlink ref="C313" r:id="rId308" display="https://workbench.cisecurity.org/sections/1117324/recommendations/1825877" xr:uid="{478655B9-7C8B-4888-84CB-C6C9A24D39DE}"/>
-    <hyperlink ref="C314" r:id="rId309" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825884" xr:uid="{BB3A884F-8E73-4F94-A68B-5F88698FDF59}"/>
-    <hyperlink ref="C315" r:id="rId310" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825889" xr:uid="{CDFD72A9-F3BC-43EE-91D0-D23046FEDB2F}"/>
-    <hyperlink ref="C316" r:id="rId311" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825892" xr:uid="{7DC8D0E6-E49A-4F85-A3DA-A0502ED9F253}"/>
-    <hyperlink ref="C317" r:id="rId312" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825897" xr:uid="{2D9350AA-1C4A-4B3A-8420-7C51A28A1CC1}"/>
-    <hyperlink ref="C318" r:id="rId313" display="https://workbench.cisecurity.org/sections/1117343/recommendations/1825903" xr:uid="{2FF9A3AF-DAC4-4DF6-B5EF-CFE5C44442CD}"/>
-    <hyperlink ref="C319" r:id="rId314" display="https://workbench.cisecurity.org/sections/1117344/recommendations/1825908" xr:uid="{EE8737F1-2019-4D05-BADF-DA374118457F}"/>
-    <hyperlink ref="C320" r:id="rId315" display="https://workbench.cisecurity.org/sections/1117344/recommendations/1825913" xr:uid="{59EBF186-D0E3-44EB-B3A9-830D939D89BB}"/>
-    <hyperlink ref="C321" r:id="rId316" display="https://workbench.cisecurity.org/sections/1117360/recommendations/1825932" xr:uid="{8851CF71-118A-4E4E-A5E5-B10D975D4BE5}"/>
-    <hyperlink ref="C322" r:id="rId317" display="https://workbench.cisecurity.org/sections/1117375/recommendations/1825944" xr:uid="{65B81676-7935-4F7B-921E-EF4CC7B740FB}"/>
-    <hyperlink ref="C323" r:id="rId318" display="https://workbench.cisecurity.org/benchmarks/8932/sections/1117379" xr:uid="{2ABF5BB0-85F3-4138-BD9E-4D0F03EF95E8}"/>
-    <hyperlink ref="C324" r:id="rId319" display="https://workbench.cisecurity.org/benchmarks/8932/sections/1117380" xr:uid="{B1739889-2CFA-4CB1-873E-CEFE54E84FE4}"/>
-    <hyperlink ref="C325" r:id="rId320" display="https://workbench.cisecurity.org/benchmarks/8932/sections/1117383" xr:uid="{79A78FCF-6B1C-4F97-ADB5-FE45E9A468F7}"/>
-    <hyperlink ref="C326" r:id="rId321" display="https://workbench.cisecurity.org/sections/1117380/recommendations/1825951" xr:uid="{8CF63D1E-9CAE-4D8F-B485-D3AB9C07E769}"/>
-    <hyperlink ref="C327" r:id="rId322" display="https://workbench.cisecurity.org/sections/1117385/recommendations/1825958" xr:uid="{71AB820E-0BAD-44EA-9E45-544B84D1AC64}"/>
-    <hyperlink ref="C328" r:id="rId323" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1858438" xr:uid="{271A682A-47E6-4BDF-BB94-A1DA89BBFE69}"/>
-    <hyperlink ref="C329" r:id="rId324" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825964" xr:uid="{6080BBB5-F3E4-4BDC-8BDF-82ED260404A4}"/>
-    <hyperlink ref="C330" r:id="rId325" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825969" xr:uid="{799D7017-D660-4033-815A-7CE99E98AC0E}"/>
-    <hyperlink ref="C331" r:id="rId326" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1858440" xr:uid="{DD141FF8-C34F-415A-B3E4-A10F8055F916}"/>
-    <hyperlink ref="C332" r:id="rId327" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825975" xr:uid="{D5570E6E-18E6-43A2-AF3C-6E2B898B0EE1}"/>
-    <hyperlink ref="C333" r:id="rId328" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825980" xr:uid="{B06A2F37-C834-45C8-B6E1-6746238A11EF}"/>
-    <hyperlink ref="C334" r:id="rId329" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825988" xr:uid="{514499A7-28B7-4298-BBC5-8C8664E2374A}"/>
-    <hyperlink ref="C335" r:id="rId330" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825994" xr:uid="{BED701E5-6255-4B9E-B041-E3552C8DF53F}"/>
-    <hyperlink ref="C336" r:id="rId331" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825999" xr:uid="{C267A258-4445-4055-BF50-EDA4F9FD8303}"/>
-    <hyperlink ref="C337" r:id="rId332" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1826004" xr:uid="{C5D037C1-6ACA-4464-B032-38593FECD9ED}"/>
-    <hyperlink ref="C338" r:id="rId333" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1826008" xr:uid="{1F339DC9-D457-4135-8E05-CE1E39F30D76}"/>
-    <hyperlink ref="C339" r:id="rId334" display="https://workbench.cisecurity.org/sections/1117435/recommendations/1826011" xr:uid="{F56C3AF8-7D5A-4F1C-9963-C307252E914E}"/>
-    <hyperlink ref="C340" r:id="rId335" display="https://workbench.cisecurity.org/sections/1117435/recommendations/1826017" xr:uid="{A204E171-09EB-4104-AF76-2C872FFBB1E0}"/>
-    <hyperlink ref="C341" r:id="rId336" display="https://workbench.cisecurity.org/sections/1117458/recommendations/1826021" xr:uid="{5FBD034F-A5C9-4055-97DB-6FA890B706D2}"/>
-    <hyperlink ref="C342" r:id="rId337" display="https://workbench.cisecurity.org/sections/1117458/recommendations/1826024" xr:uid="{CA0EC348-521A-4E26-9FEE-03359271792E}"/>
-    <hyperlink ref="C343" r:id="rId338" display="https://workbench.cisecurity.org/sections/1117465/recommendations/1826029" xr:uid="{EE93B58B-111A-47CC-A7BC-A8FCEE541D4D}"/>
-    <hyperlink ref="C344" r:id="rId339" display="https://workbench.cisecurity.org/sections/1117466/recommendations/1826032" xr:uid="{ACA757AD-95B8-4E41-B814-F6F332F4BBB1}"/>
-    <hyperlink ref="C345" r:id="rId340" display="https://workbench.cisecurity.org/sections/1117466/recommendations/1826036" xr:uid="{A00FC28A-E096-4D31-B0D9-AA09BAD1839B}"/>
-    <hyperlink ref="C346" r:id="rId341" display="https://workbench.cisecurity.org/sections/1117472/recommendations/1826043" xr:uid="{8B24DAAA-D8BA-4696-9334-CA0690699E13}"/>
-    <hyperlink ref="C347" r:id="rId342" display="https://workbench.cisecurity.org/sections/1117486/recommendations/1826049" xr:uid="{8B673709-2D87-4BC4-8BB7-77A0ED422ED3}"/>
-    <hyperlink ref="C348" r:id="rId343" display="https://workbench.cisecurity.org/sections/1117498/recommendations/1826059" xr:uid="{A93F46AD-D580-4BB0-98E0-AC626158B73F}"/>
-    <hyperlink ref="C349" r:id="rId344" display="https://workbench.cisecurity.org/sections/1117498/recommendations/1826062" xr:uid="{2F58FB0E-DDD4-4C1C-949C-6A7BEE96B15E}"/>
-    <hyperlink ref="C350" r:id="rId345" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826068" xr:uid="{0AC2971B-B080-42E1-B746-7633AF7D8982}"/>
-    <hyperlink ref="C351" r:id="rId346" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826071" xr:uid="{C539BEA0-50FA-49BD-8B06-BD2ED6D08A75}"/>
-    <hyperlink ref="C352" r:id="rId347" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826074" xr:uid="{72BFCA5F-8FC0-4498-927D-7D02524C3CEF}"/>
-    <hyperlink ref="C353" r:id="rId348" display="https://workbench.cisecurity.org/sections/1117509/recommendations/1826076" xr:uid="{115B0D74-E6D6-4510-A8B1-C5F68D9A3EFB}"/>
-    <hyperlink ref="C354" r:id="rId349" display="https://workbench.cisecurity.org/sections/1117522/recommendations/1826080" xr:uid="{9C5AEA10-6EBD-4DAC-AD59-EB4CDBA7AD66}"/>
-    <hyperlink ref="C355" r:id="rId350" display="https://workbench.cisecurity.org/sections/1117522/recommendations/1826083" xr:uid="{4B1B075F-0D52-4F5B-A19E-A3A1ECF2DBC6}"/>
-    <hyperlink ref="C356" r:id="rId351" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826086" xr:uid="{08E678C6-B3BF-4FDD-B630-CFB3064454D3}"/>
-    <hyperlink ref="C357" r:id="rId352" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826089" xr:uid="{4C84D143-5800-415F-8865-C6BABBF761A1}"/>
-    <hyperlink ref="C358" r:id="rId353" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826092" xr:uid="{65CF5C96-2F89-4407-B5E4-63ACECF045A5}"/>
-    <hyperlink ref="C359" r:id="rId354" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826094" xr:uid="{3DF7DF43-CF2B-4EA8-8010-9ECF42C14CBA}"/>
-    <hyperlink ref="C360" r:id="rId355" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826097" xr:uid="{D96C36F9-14A8-4979-81B1-BCF1BBD72AA1}"/>
-    <hyperlink ref="C361" r:id="rId356" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826100" xr:uid="{8C64F721-D11B-4860-8ECF-01A624E53A6C}"/>
-    <hyperlink ref="C362" r:id="rId357" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826101" xr:uid="{5DEC0AC2-A30F-428B-8EBD-4BDB11476915}"/>
-    <hyperlink ref="C363" r:id="rId358" display="https://workbench.cisecurity.org/sections/1117540/recommendations/1826102" xr:uid="{DF4A0DFD-A9AE-4820-A674-F356416F6C05}"/>
-    <hyperlink ref="C364" r:id="rId359" display="https://workbench.cisecurity.org/sections/1117544/recommendations/1826104" xr:uid="{82948185-D458-4310-9411-3AD0DF2BC17F}"/>
-    <hyperlink ref="C365" r:id="rId360" display="https://workbench.cisecurity.org/sections/1117549/recommendations/1826110" xr:uid="{888D59C3-9B88-442A-A274-604E833DF9F2}"/>
-    <hyperlink ref="C366" r:id="rId361" display="https://workbench.cisecurity.org/sections/1117561/recommendations/1826114" xr:uid="{6860A944-F998-4296-9313-16ACC2943F86}"/>
-    <hyperlink ref="C367" r:id="rId362" display="https://workbench.cisecurity.org/sections/1117561/recommendations/1826116" xr:uid="{F22E413F-B069-4757-A961-2C93484DE2D2}"/>
-    <hyperlink ref="C368" r:id="rId363" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826118" xr:uid="{048BA544-4250-4A92-BB59-9FB6CB00C756}"/>
-    <hyperlink ref="C369" r:id="rId364" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826120" xr:uid="{4ED3DBF5-042A-444D-9D9F-8AD70A63E862}"/>
-    <hyperlink ref="C370" r:id="rId365" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826123" xr:uid="{F7382B81-9689-4208-8597-60D49AEDAC84}"/>
-    <hyperlink ref="C371" r:id="rId366" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825533" xr:uid="{F94BACFD-94D2-40DD-9690-EE9D9A656CC8}"/>
-    <hyperlink ref="C372" r:id="rId367" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825541" xr:uid="{BBDDF067-F6B2-40BC-8EEA-B0F21BF386E0}"/>
-    <hyperlink ref="C373" r:id="rId368" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825545" xr:uid="{4AED8D16-3EAF-4073-980C-0753980BD2B7}"/>
-    <hyperlink ref="C374" r:id="rId369" display="https://workbench.cisecurity.org/sections/1117062/recommendations/1825552" xr:uid="{243240B0-D3DC-42E7-9D20-6A13CB1B385F}"/>
-    <hyperlink ref="C375" r:id="rId370" display="https://workbench.cisecurity.org/sections/1117072/recommendations/1825559" xr:uid="{B4937AD8-F3F5-4A67-B95C-752FB120CFAB}"/>
-    <hyperlink ref="C376" r:id="rId371" display="https://workbench.cisecurity.org/sections/1117078/recommendations/1825564" xr:uid="{C9E8DC31-FC5F-4B38-8538-B303CF320244}"/>
-    <hyperlink ref="C377" r:id="rId372" display="https://workbench.cisecurity.org/sections/1117078/recommendations/1825569" xr:uid="{6E5882B1-69A9-4F9A-B7F2-9990EA8CB2CA}"/>
-    <hyperlink ref="C378" r:id="rId373" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825573" xr:uid="{65B69C0D-1EC2-4217-8FED-579B51337D6A}"/>
-    <hyperlink ref="C379" r:id="rId374" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825577" xr:uid="{12E78287-5965-464A-BB0A-EA14E59C7126}"/>
-    <hyperlink ref="C380" r:id="rId375" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825580" xr:uid="{96B42123-CFA0-43B4-AEA6-E4D9174F2E2C}"/>
-    <hyperlink ref="C381" r:id="rId376" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825583" xr:uid="{C186D6D2-AAFC-4E08-9CC2-780896AD91F7}"/>
-    <hyperlink ref="C382" r:id="rId377" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825586" xr:uid="{4E3B4700-0260-41F6-A6C7-E21FE50A2162}"/>
-    <hyperlink ref="C383" r:id="rId378" display="https://workbench.cisecurity.org/sections/1117105/recommendations/1825591" xr:uid="{80CCB478-F932-46FE-9F8E-2E397F2B795A}"/>
-    <hyperlink ref="C384" r:id="rId379" display="https://workbench.cisecurity.org/sections/1117120/recommendations/1825596" xr:uid="{89932BA5-1830-4B5A-A9ED-31D436F9F76C}"/>
-    <hyperlink ref="C385" r:id="rId380" display="https://workbench.cisecurity.org/sections/1117126/recommendations/1825600" xr:uid="{216363B1-B5EB-4218-A16C-052563EBDC65}"/>
-    <hyperlink ref="C112" r:id="rId381" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825644" xr:uid="{A6662E2A-3508-468C-A704-4810896FD441}"/>
-    <hyperlink ref="C122" r:id="rId382" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825662" xr:uid="{1243301D-5178-4904-8B3E-D78529CCACFE}"/>
+    <hyperlink ref="C11" r:id="rId1" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825411" xr:uid="{7D0C5552-EB9F-473E-B0DD-CBC3025A93B5}"/>
+    <hyperlink ref="C12" r:id="rId2" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825412" xr:uid="{FA266BC7-FB54-4049-A2AC-8E24A2E945D1}"/>
+    <hyperlink ref="C13" r:id="rId3" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825413" xr:uid="{BBAF59D7-CB6D-4803-8425-EDCD53D9F5B8}"/>
+    <hyperlink ref="C14" r:id="rId4" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825414" xr:uid="{9641237E-55DD-4597-9E28-07BC1CAB9CA1}"/>
+    <hyperlink ref="C15" r:id="rId5" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825415" xr:uid="{2C3D48D3-564F-40E7-B4DD-909AB1004F16}"/>
+    <hyperlink ref="C16" r:id="rId6" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825416" xr:uid="{EDA20C45-E578-4F2A-8E53-2195231AA03C}"/>
+    <hyperlink ref="C17" r:id="rId7" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825419" xr:uid="{62A2039D-2DA7-47AF-A002-924284CEF467}"/>
+    <hyperlink ref="C18" r:id="rId8" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825421" xr:uid="{B8BDE911-A0FD-4A84-81AC-6D2575F42733}"/>
+    <hyperlink ref="C19" r:id="rId9" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825423" xr:uid="{C805C0C9-A1F7-414E-880B-CFC59D4CB354}"/>
+    <hyperlink ref="C20" r:id="rId10" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825426" xr:uid="{FE15F125-B64A-4302-A3C6-7B3958E96F76}"/>
+    <hyperlink ref="C21" r:id="rId11" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825417" xr:uid="{9D12553C-285D-4A48-A326-F67FBA3CA4E2}"/>
+    <hyperlink ref="C22" r:id="rId12" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825418" xr:uid="{38B935A6-F550-455B-86E8-F6C2AF6C9B41}"/>
+    <hyperlink ref="C23" r:id="rId13" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825420" xr:uid="{EE93B5F8-0149-4F35-A234-585B434586FF}"/>
+    <hyperlink ref="C24" r:id="rId14" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825422" xr:uid="{D3A02C9C-1D5A-4F85-95AB-5691BFB25AE4}"/>
+    <hyperlink ref="C25" r:id="rId15" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825424" xr:uid="{A73621EC-60AE-4DB9-B5BF-1B4CA33B4186}"/>
+    <hyperlink ref="C26" r:id="rId16" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825425" xr:uid="{242229C3-7EE8-4E33-9A47-459085B497B7}"/>
+    <hyperlink ref="C27" r:id="rId17" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825427" xr:uid="{4137E96F-77FD-4D56-B8ED-FEF29E29E53A}"/>
+    <hyperlink ref="C28" r:id="rId18" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825428" xr:uid="{9A2B8387-8D1C-410A-A0F9-7CB7D6E5719E}"/>
+    <hyperlink ref="C29" r:id="rId19" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825430" xr:uid="{CA5F5F63-E50E-4657-AD92-94CFC54EA4C0}"/>
+    <hyperlink ref="C30" r:id="rId20" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825431" xr:uid="{ACE04638-A683-429D-8FCE-A20DC3C9D247}"/>
+    <hyperlink ref="C31" r:id="rId21" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825433" xr:uid="{FBA902C4-E518-4122-83A6-59396C6C4606}"/>
+    <hyperlink ref="C32" r:id="rId22" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825434" xr:uid="{27203167-0E96-4B42-A562-CF0D07923A31}"/>
+    <hyperlink ref="C33" r:id="rId23" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825435" xr:uid="{E8B612A5-FFD4-4FCA-ACBA-B180D21DA9D4}"/>
+    <hyperlink ref="C34" r:id="rId24" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825437" xr:uid="{F19D4665-0E2A-42D2-9BEF-42BCA8FFE309}"/>
+    <hyperlink ref="C35" r:id="rId25" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825439" xr:uid="{E985A221-E816-4E46-876A-A6B76D842943}"/>
+    <hyperlink ref="C36" r:id="rId26" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825440" xr:uid="{F29D33E4-11E8-41BF-9F73-2061BF4E9E42}"/>
+    <hyperlink ref="C37" r:id="rId27" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825442" xr:uid="{D7448766-CC74-4010-A5FC-0529CC0CD68C}"/>
+    <hyperlink ref="C38" r:id="rId28" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825443" xr:uid="{06BAC564-7AC8-4BC9-AE76-097BC95013B0}"/>
+    <hyperlink ref="C39" r:id="rId29" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825445" xr:uid="{64626996-6027-4E00-B915-D8DE1D16EED7}"/>
+    <hyperlink ref="C40" r:id="rId30" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825446" xr:uid="{581E05EB-4E09-4690-92A8-FC56B7B46591}"/>
+    <hyperlink ref="C41" r:id="rId31" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825448" xr:uid="{90F276E9-386F-4009-8B8B-DB9E62D45CB1}"/>
+    <hyperlink ref="C42" r:id="rId32" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825450" xr:uid="{9ED9F47D-68D9-4A49-974D-C05447EEB8FD}"/>
+    <hyperlink ref="C43" r:id="rId33" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825451" xr:uid="{4C5F4CA9-5193-46FC-BE61-DEC7B58FD919}"/>
+    <hyperlink ref="C44" r:id="rId34" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825453" xr:uid="{A561AC0B-C35E-4B41-B9CC-7DCD47C646EA}"/>
+    <hyperlink ref="C45" r:id="rId35" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825454" xr:uid="{7D68C4BB-49EA-4C3F-9741-DC1B1281F127}"/>
+    <hyperlink ref="C46" r:id="rId36" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825456" xr:uid="{CAD2DE76-6FEB-48A1-9A35-92AEBE6D9BDB}"/>
+    <hyperlink ref="C47" r:id="rId37" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825458" xr:uid="{DBD9EA7E-EB62-4DE0-A845-79B2E685A52A}"/>
+    <hyperlink ref="C48" r:id="rId38" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825461" xr:uid="{8A4504B8-8C0D-49F0-B15E-B7AECE6065B1}"/>
+    <hyperlink ref="C49" r:id="rId39" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825463" xr:uid="{7C7E2736-013B-4FD3-9688-7F16D4805CD6}"/>
+    <hyperlink ref="C50" r:id="rId40" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825466" xr:uid="{50BF37B1-B3B2-4EE8-BF8A-302F208D6DB3}"/>
+    <hyperlink ref="C51" r:id="rId41" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825469" xr:uid="{4B1722BC-83C4-4A23-8C58-A1529D6113E2}"/>
+    <hyperlink ref="C52" r:id="rId42" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825470" xr:uid="{B949045F-4518-4E9F-8DF1-DC280252AF0D}"/>
+    <hyperlink ref="C53" r:id="rId43" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825475" xr:uid="{8289B1BB-DC40-44D5-A587-4C932DA8E80D}"/>
+    <hyperlink ref="C54" r:id="rId44" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825477" xr:uid="{CA386A17-1B9D-4DF9-8E9B-AC77D22B0F6E}"/>
+    <hyperlink ref="C55" r:id="rId45" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825480" xr:uid="{6D6C8669-9DEC-48B6-ADA6-33FEB457868F}"/>
+    <hyperlink ref="C56" r:id="rId46" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825481" xr:uid="{8061BA15-88D4-4DAB-8238-B46DB50A23CE}"/>
+    <hyperlink ref="C57" r:id="rId47" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825484" xr:uid="{21663EFE-07CD-4103-8FA0-86795220F449}"/>
+    <hyperlink ref="C58" r:id="rId48" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825487" xr:uid="{9120D718-2283-43DA-B126-066B62CCDF61}"/>
+    <hyperlink ref="C59" r:id="rId49" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825488" xr:uid="{36FFF6A8-4B82-4F86-90E3-FE149CFCB379}"/>
+    <hyperlink ref="C60" r:id="rId50" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825491" xr:uid="{3C51198E-B690-47D1-B8B3-2E4566DF12EB}"/>
+    <hyperlink ref="C61" r:id="rId51" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825492" xr:uid="{E71D91DD-3110-4B4F-B443-991BE1BCB632}"/>
+    <hyperlink ref="C62" r:id="rId52" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825495" xr:uid="{43E39BB9-96C8-4991-9705-B8B975ED2629}"/>
+    <hyperlink ref="C63" r:id="rId53" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825499" xr:uid="{54B78B49-9461-4F26-9CC4-F4D93F4CEA8C}"/>
+    <hyperlink ref="C64" r:id="rId54" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825503" xr:uid="{65F89F7B-FF61-493D-B2AA-20CBEF205C5F}"/>
+    <hyperlink ref="C65" r:id="rId55" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825504" xr:uid="{F056C048-3491-4DD2-9D1D-C707ACF9C979}"/>
+    <hyperlink ref="C66" r:id="rId56" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825508" xr:uid="{86EE9AE5-24CC-4C5C-85C9-FD076D95760E}"/>
+    <hyperlink ref="C67" r:id="rId57" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825511" xr:uid="{223D44C6-3384-4054-818E-B5943E50C8F2}"/>
+    <hyperlink ref="C68" r:id="rId58" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825513" xr:uid="{6CED8683-068C-4786-9B43-FCF074D5855B}"/>
+    <hyperlink ref="C69" r:id="rId59" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825517" xr:uid="{96D9E63D-300A-4F88-A485-9DCE1813791F}"/>
+    <hyperlink ref="C70" r:id="rId60" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825521" xr:uid="{7F229C66-1655-4740-80B7-1E789E392E23}"/>
+    <hyperlink ref="C71" r:id="rId61" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825524" xr:uid="{FE46B8FB-D15D-4D8A-8D4D-B9621F14B3B8}"/>
+    <hyperlink ref="C72" r:id="rId62" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825527" xr:uid="{A30F6CB9-73A3-47E0-9160-299A6939C3AB}"/>
+    <hyperlink ref="C73" r:id="rId63" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825531" xr:uid="{14747DFF-F6C9-4455-8DAB-0708797F9477}"/>
+    <hyperlink ref="C74" r:id="rId64" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825535" xr:uid="{C7300438-0C2B-496D-B0F1-4C66979C2CDA}"/>
+    <hyperlink ref="C75" r:id="rId65" display="https://workbench.cisecurity.org/sections/1117053/recommendations/1825537" xr:uid="{37A1E8C3-C8FF-43F5-B745-7BE9D0BE77BB}"/>
+    <hyperlink ref="C76" r:id="rId66" display="https://workbench.cisecurity.org/sections/1117053/recommendations/1825543" xr:uid="{E6A1582E-01C3-427E-82A0-2A4BAADB1992}"/>
+    <hyperlink ref="C77" r:id="rId67" display="https://workbench.cisecurity.org/sections/1117057/recommendations/1825547" xr:uid="{30EC9C22-3BA3-453A-A289-8ACD29673753}"/>
+    <hyperlink ref="C78" r:id="rId68" display="https://workbench.cisecurity.org/sections/1117057/recommendations/1825550" xr:uid="{032FAC77-86E6-4929-B8E8-185E116B22CC}"/>
+    <hyperlink ref="C79" r:id="rId69" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825554" xr:uid="{04FAC81E-1429-43B9-B7FE-F19605133960}"/>
+    <hyperlink ref="C80" r:id="rId70" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825556" xr:uid="{5C388E1C-B994-450E-8F8A-9CC493B76C30}"/>
+    <hyperlink ref="C81" r:id="rId71" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825560" xr:uid="{4A35612D-64E4-4E6E-B938-87C88BC69508}"/>
+    <hyperlink ref="C82" r:id="rId72" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825563" xr:uid="{3A76EE9D-89D3-447B-BB4B-875863C57531}"/>
+    <hyperlink ref="C83" r:id="rId73" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825567" xr:uid="{C27958F7-440D-4A95-82E0-60D00BF8CA28}"/>
+    <hyperlink ref="C84" r:id="rId74" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825571" xr:uid="{C43825A9-DCBF-41D3-92CD-A7B4A42DBA5B}"/>
+    <hyperlink ref="C85" r:id="rId75" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825575" xr:uid="{D93FDEB1-209B-406D-BE9C-9A4EF93722C7}"/>
+    <hyperlink ref="C86" r:id="rId76" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825579" xr:uid="{124C1D01-AC3E-4068-93ED-5FAE169020CA}"/>
+    <hyperlink ref="C87" r:id="rId77" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825582" xr:uid="{62731C14-5D73-4957-A930-7D69F38F6B60}"/>
+    <hyperlink ref="C88" r:id="rId78" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825584" xr:uid="{FD2D4E4E-FE24-45DD-80F7-52C7CC19DCEA}"/>
+    <hyperlink ref="C89" r:id="rId79" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825588" xr:uid="{83CC5962-BB40-4ABB-992D-91181F8E4FFC}"/>
+    <hyperlink ref="C90" r:id="rId80" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825593" xr:uid="{0D902A06-C38C-4128-AC17-9B9F7E641DD0}"/>
+    <hyperlink ref="C91" r:id="rId81" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825595" xr:uid="{B7B70DCD-1EFB-4A6A-AF9C-00AA0FA75D30}"/>
+    <hyperlink ref="C92" r:id="rId82" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825598" xr:uid="{5033C8FB-3AEE-4A27-9BF8-A3F2B910849A}"/>
+    <hyperlink ref="C93" r:id="rId83" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825601" xr:uid="{C4B7FE47-34DD-4486-96A3-1653B3F9D482}"/>
+    <hyperlink ref="C94" r:id="rId84" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825603" xr:uid="{E9328855-477E-4ED8-9C0E-9FD7537CDB04}"/>
+    <hyperlink ref="C95" r:id="rId85" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825605" xr:uid="{40909A9E-2F4F-44CC-9E4D-D666DC52A772}"/>
+    <hyperlink ref="C96" r:id="rId86" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825607" xr:uid="{D53FF91E-D77D-4384-822C-67F8962C16B6}"/>
+    <hyperlink ref="C97" r:id="rId87" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825609" xr:uid="{2198778C-267E-49F5-997A-D069C1FF8292}"/>
+    <hyperlink ref="C98" r:id="rId88" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825611" xr:uid="{91F160EE-1B44-4400-BE2D-B3D5A1758748}"/>
+    <hyperlink ref="C99" r:id="rId89" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825613" xr:uid="{08578B38-E6C3-488D-86ED-E7F7BBC9A4FB}"/>
+    <hyperlink ref="C100" r:id="rId90" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825615" xr:uid="{36BD6799-48AD-4DA8-A20A-95109D3BD696}"/>
+    <hyperlink ref="C101" r:id="rId91" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825617" xr:uid="{5DDFE08B-DD51-47B3-9A87-BC93A21673E2}"/>
+    <hyperlink ref="C102" r:id="rId92" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825619" xr:uid="{7AC8C382-744F-4027-BD69-EFF949B1DAB0}"/>
+    <hyperlink ref="C103" r:id="rId93" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825620" xr:uid="{0C7CF5BD-F2B4-4429-B755-B24D15B29242}"/>
+    <hyperlink ref="C104" r:id="rId94" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825621" xr:uid="{D559E65C-7E71-4A60-BD96-7762B4D89075}"/>
+    <hyperlink ref="C105" r:id="rId95" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825623" xr:uid="{6BB7349E-B2A1-42A9-92D9-0E0B148449A9}"/>
+    <hyperlink ref="C106" r:id="rId96" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825624" xr:uid="{A3C71FDC-40DA-4E81-8527-7DE91B07B22F}"/>
+    <hyperlink ref="C107" r:id="rId97" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825625" xr:uid="{BDDBA8D4-BFCB-4FA7-AC15-455E1EC4289D}"/>
+    <hyperlink ref="C108" r:id="rId98" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825627" xr:uid="{F445DF54-05C3-4167-B1A5-4D502AF183CD}"/>
+    <hyperlink ref="C109" r:id="rId99" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825628" xr:uid="{9D8CB9DA-01DD-49F4-A215-86B6A3735283}"/>
+    <hyperlink ref="C110" r:id="rId100" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825630" xr:uid="{6B9A3F83-9011-488C-874B-4D13CB7D2D62}"/>
+    <hyperlink ref="C111" r:id="rId101" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825632" xr:uid="{723C5D18-2AFA-47DC-9A99-E215D4C5DE63}"/>
+    <hyperlink ref="C112" r:id="rId102" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825634" xr:uid="{B2E7A51C-40CA-4B5B-B28C-36DB4207ED77}"/>
+    <hyperlink ref="C113" r:id="rId103" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825636" xr:uid="{BE52B05E-0A00-4E53-A26B-4BA294FBD5CB}"/>
+    <hyperlink ref="C114" r:id="rId104" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825637" xr:uid="{8F6A221D-DE1E-4F10-8600-2BBA2F61A6B0}"/>
+    <hyperlink ref="C115" r:id="rId105" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825638" xr:uid="{F60AD0E3-BDD9-4679-8E3C-C73B2276FD4C}"/>
+    <hyperlink ref="C116" r:id="rId106" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825640" xr:uid="{A16960CC-C3FB-4A92-8876-1D221D741697}"/>
+    <hyperlink ref="C117" r:id="rId107" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825642" xr:uid="{59789FED-1A43-402E-ABC7-9E586F531873}"/>
+    <hyperlink ref="C118" r:id="rId108" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825643" xr:uid="{439737BE-3FDB-409F-9450-1168E4DEBEB3}"/>
+    <hyperlink ref="C120" r:id="rId109" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825646" xr:uid="{0FF8D7AA-2C54-4C94-9321-5F1041B4133A}"/>
+    <hyperlink ref="C121" r:id="rId110" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825648" xr:uid="{45FEE086-17DE-4CE7-AC24-341D8A785635}"/>
+    <hyperlink ref="C122" r:id="rId111" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825650" xr:uid="{B6BC0BC9-C3B6-4F1C-9525-37E06D716479}"/>
+    <hyperlink ref="C123" r:id="rId112" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825651" xr:uid="{D69A5762-488E-4461-80D4-4C95C900EC20}"/>
+    <hyperlink ref="C124" r:id="rId113" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825653" xr:uid="{B5B8E009-9EDD-4FA1-9109-A2842908022A}"/>
+    <hyperlink ref="C125" r:id="rId114" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825656" xr:uid="{48FD525E-0EBF-4E88-AAAB-2AC2BB919264}"/>
+    <hyperlink ref="C126" r:id="rId115" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825657" xr:uid="{FA7FCF51-7DEB-4E1F-A1DD-779ABE61AA62}"/>
+    <hyperlink ref="C127" r:id="rId116" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825659" xr:uid="{CEBBA353-5721-4E76-8136-6885606F83F9}"/>
+    <hyperlink ref="C128" r:id="rId117" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825661" xr:uid="{67B3CF0C-E01F-4F2D-892F-8907F0C40020}"/>
+    <hyperlink ref="C130" r:id="rId118" display="https://workbench.cisecurity.org/sections/1117165/recommendations/1825664" xr:uid="{1F0598B6-45D5-4ED5-8975-D07B93AA1576}"/>
+    <hyperlink ref="C131" r:id="rId119" display="https://workbench.cisecurity.org/sections/1117168/recommendations/1825667" xr:uid="{C81614DD-65EB-495A-B499-3DB41ED55DB8}"/>
+    <hyperlink ref="C132" r:id="rId120" display="https://workbench.cisecurity.org/sections/1117168/recommendations/1825668" xr:uid="{4889D8C6-5895-4580-AC24-5373328085E3}"/>
+    <hyperlink ref="C133" r:id="rId121" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825672" xr:uid="{D7DFE626-F490-429E-BFA6-8327F969C1F7}"/>
+    <hyperlink ref="C134" r:id="rId122" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825674" xr:uid="{EA2264A7-C566-471B-9803-4CE287B9D42D}"/>
+    <hyperlink ref="C135" r:id="rId123" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825676" xr:uid="{624F6FAF-CF2B-4898-9D8A-4280BE4D6C1B}"/>
+    <hyperlink ref="C136" r:id="rId124" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825678" xr:uid="{F359BCB7-C22B-4F93-A18A-15E9ABE1F7EE}"/>
+    <hyperlink ref="C137" r:id="rId125" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825680" xr:uid="{0D1BF434-FD57-4926-8AB3-2B456BB5D418}"/>
+    <hyperlink ref="C138" r:id="rId126" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825682" xr:uid="{35798869-BD20-4F56-AD65-C2D548CC820D}"/>
+    <hyperlink ref="C139" r:id="rId127" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825684" xr:uid="{5CBA3037-708B-4B75-9C73-9A3B9737DDC6}"/>
+    <hyperlink ref="C140" r:id="rId128" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825686" xr:uid="{B2D5D2C8-0925-4D97-8162-B378545DC6E1}"/>
+    <hyperlink ref="C141" r:id="rId129" display="https://workbench.cisecurity.org/sections/1117018/recommendations/1825429" xr:uid="{E3BBF73F-EB33-4D82-91E3-DB6F6A124371}"/>
+    <hyperlink ref="C142" r:id="rId130" display="https://workbench.cisecurity.org/sections/1117018/recommendations/1825432" xr:uid="{97FE6FA5-36E6-4512-AE5F-90AF7BB63D07}"/>
+    <hyperlink ref="C143" r:id="rId131" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825436" xr:uid="{260D04C8-E038-4149-9C5D-602AFDD8B3AC}"/>
+    <hyperlink ref="C144" r:id="rId132" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825438" xr:uid="{938B9880-021E-41AF-8299-D005A078918F}"/>
+    <hyperlink ref="C145" r:id="rId133" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825441" xr:uid="{8DCF57BA-80B0-4E39-B783-72F0FA0F0C92}"/>
+    <hyperlink ref="C146" r:id="rId134" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825444" xr:uid="{7EDF1D4A-CC21-4510-A088-CEA9C811D176}"/>
+    <hyperlink ref="C147" r:id="rId135" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825447" xr:uid="{EEBF86A6-380D-4CB0-A5DB-6936C602B951}"/>
+    <hyperlink ref="C148" r:id="rId136" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825449" xr:uid="{F8E4832E-CDC8-4C62-8559-069FF380DD76}"/>
+    <hyperlink ref="C149" r:id="rId137" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825452" xr:uid="{93B31445-242E-49D2-9D41-FC258D825220}"/>
+    <hyperlink ref="C150" r:id="rId138" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825455" xr:uid="{D3D7D0AC-F200-4793-8487-A6E9EA4B570F}"/>
+    <hyperlink ref="C169" r:id="rId139" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825457" xr:uid="{C40B79A6-18A7-47EB-9199-298C264B4307}"/>
+    <hyperlink ref="C170" r:id="rId140" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825460" xr:uid="{522E23E4-9216-41A5-8987-37B49C56A0CD}"/>
+    <hyperlink ref="C171" r:id="rId141" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825462" xr:uid="{965D2E7D-29C3-4ECB-A625-6F73A631158C}"/>
+    <hyperlink ref="C172" r:id="rId142" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825465" xr:uid="{012A7BF2-6AFB-42EB-BFC0-17607890B057}"/>
+    <hyperlink ref="C173" r:id="rId143" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825468" xr:uid="{50717CA2-B851-4208-BF48-57E2691805F0}"/>
+    <hyperlink ref="C174" r:id="rId144" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825472" xr:uid="{1696E1C3-26E2-4CBC-AF4B-8EBAAAD7AADD}"/>
+    <hyperlink ref="C175" r:id="rId145" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825476" xr:uid="{7F185A1C-79A9-405A-BA22-0C84CA2937FA}"/>
+    <hyperlink ref="C176" r:id="rId146" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825479" xr:uid="{9291B7F9-95F5-49FD-B2BA-2730340AB124}"/>
+    <hyperlink ref="C177" r:id="rId147" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825483" xr:uid="{1B113A1D-B675-4B90-8DBD-803685BEEFE6}"/>
+    <hyperlink ref="C178" r:id="rId148" display="https://workbench.cisecurity.org/sections/1117035/recommendations/1825485" xr:uid="{A113A592-8D0B-42A3-AE35-654E24D86903}"/>
+    <hyperlink ref="C179" r:id="rId149" display="https://workbench.cisecurity.org/sections/1117035/recommendations/1825489" xr:uid="{B0F7DA60-AD77-4A86-BB3A-37B6F8666164}"/>
+    <hyperlink ref="C180" r:id="rId150" display="https://workbench.cisecurity.org/sections/1117037/recommendations/1825493" xr:uid="{F85CF96C-73C3-4C1C-B736-D937F72F8FA8}"/>
+    <hyperlink ref="C181" r:id="rId151" display="https://workbench.cisecurity.org/sections/1117037/recommendations/1825496" xr:uid="{2FBFC23B-4831-456C-BDCC-C05014FDF3D1}"/>
+    <hyperlink ref="C182" r:id="rId152" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825500" xr:uid="{3811CE7D-A841-40BD-AA5A-A46D23406178}"/>
+    <hyperlink ref="C183" r:id="rId153" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825506" xr:uid="{B6807F75-BAB7-48A6-A50D-8DCB39D97872}"/>
+    <hyperlink ref="C184" r:id="rId154" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825510" xr:uid="{A88D3CFB-304E-4D9F-9216-2B6C262AF0ED}"/>
+    <hyperlink ref="C185" r:id="rId155" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825516" xr:uid="{86C26B3C-2052-4626-874E-2A2D07120DAD}"/>
+    <hyperlink ref="C186" r:id="rId156" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825518" xr:uid="{A4313095-F1F6-4E31-9B1F-D9AE6BA61C20}"/>
+    <hyperlink ref="C187" r:id="rId157" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825522" xr:uid="{C9CBE815-4386-4DF4-8C84-84E287E42C9D}"/>
+    <hyperlink ref="C188" r:id="rId158" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825525" xr:uid="{35880342-F342-4B02-9807-FC9DB6768BF6}"/>
+    <hyperlink ref="C189" r:id="rId159" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825529" xr:uid="{AB0FE423-7809-4EF2-AC64-E6ADB5D418C1}"/>
+    <hyperlink ref="C190" r:id="rId160" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825532" xr:uid="{1BD58792-16D3-49B1-B9A3-2508C5D59B75}"/>
+    <hyperlink ref="C191" r:id="rId161" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825536" xr:uid="{3D3D7AC5-4D50-4A5E-B2F7-781FA54C080E}"/>
+    <hyperlink ref="C192" r:id="rId162" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825540" xr:uid="{8BDBE780-2AC1-4979-A2E8-BD1A12A69D42}"/>
+    <hyperlink ref="C193" r:id="rId163" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825544" xr:uid="{30230B7D-FB84-4B9C-ABE8-86A71A3237C2}"/>
+    <hyperlink ref="C194" r:id="rId164" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825548" xr:uid="{6B4F427D-85CB-4CC8-BA1A-F4FAC19DABEF}"/>
+    <hyperlink ref="C195" r:id="rId165" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825551" xr:uid="{8DC30B6C-A5B8-4533-932C-131AF6A9B454}"/>
+    <hyperlink ref="C196" r:id="rId166" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825555" xr:uid="{E74C7F8A-0172-43DD-B70D-0FFB4EE54697}"/>
+    <hyperlink ref="C197" r:id="rId167" display="https://workbench.cisecurity.org/sections/1117070/recommendations/1825558" xr:uid="{05D8C471-D44B-4D52-B27D-587D6CBD93C1}"/>
+    <hyperlink ref="C198" r:id="rId168" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825562" xr:uid="{7AD15CF6-05E5-4D00-B974-57905406D4A9}"/>
+    <hyperlink ref="C199" r:id="rId169" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825565" xr:uid="{00421274-F63D-4AD2-8259-E08443CFAA17}"/>
+    <hyperlink ref="C200" r:id="rId170" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825568" xr:uid="{96B58D57-B9A8-46EF-9A02-B85E5F4E507A}"/>
+    <hyperlink ref="C201" r:id="rId171" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825572" xr:uid="{DED8A4CD-E9D6-495F-9D34-9B7B374C234E}"/>
+    <hyperlink ref="C202" r:id="rId172" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825576" xr:uid="{BCFBDE1A-2005-40EF-B251-F42F755C471B}"/>
+    <hyperlink ref="C206" r:id="rId173" display="https://workbench.cisecurity.org/sections/1117040/recommendations/1825515" xr:uid="{F7A3D654-3750-46FB-A49E-E2E3B1324EC7}"/>
+    <hyperlink ref="C203" r:id="rId174" display="https://workbench.cisecurity.org/sections/1117041/recommendations/1825502" xr:uid="{4861C41E-B322-4E88-A39E-B4ACCF2DB4CC}"/>
+    <hyperlink ref="C204" r:id="rId175" display="https://workbench.cisecurity.org/sections/1117041/recommendations/1825507" xr:uid="{F6C5F3B3-0AD5-4E74-AF34-B318F8BBCBB8}"/>
+    <hyperlink ref="C205" r:id="rId176" display="https://workbench.cisecurity.org/sections/1117042/recommendations/1825512" xr:uid="{F5F00FAE-DD91-4295-ADD9-083080850296}"/>
+    <hyperlink ref="C213" r:id="rId177" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825546" xr:uid="{0259BDC1-9C52-43D7-A5C9-856883F499E8}"/>
+    <hyperlink ref="C214" r:id="rId178" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825553" xr:uid="{EBD37EF1-933A-4DE2-BFB8-6AA1C71C2E43}"/>
+    <hyperlink ref="C215" r:id="rId179" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825557" xr:uid="{0C4C80F2-FB4C-46BD-B863-EF4B13870032}"/>
+    <hyperlink ref="C216" r:id="rId180" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825561" xr:uid="{1DF1C9A8-5DED-4EEB-ACAC-7C2770B1519E}"/>
+    <hyperlink ref="C217" r:id="rId181" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825570" xr:uid="{276659A9-805A-4FD6-8F0A-7F68F2538F6E}"/>
+    <hyperlink ref="C218" r:id="rId182" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825574" xr:uid="{FA78B15E-F0CF-4645-B828-BF951311661B}"/>
+    <hyperlink ref="C219" r:id="rId183" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825578" xr:uid="{1701733A-D084-4A28-9D5D-0E79D06E58B9}"/>
+    <hyperlink ref="C220" r:id="rId184" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825581" xr:uid="{0956E9BA-3923-4C2B-A330-4F05291027BC}"/>
+    <hyperlink ref="C221" r:id="rId185" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825585" xr:uid="{66390F64-5B13-4285-8064-7636B611FBE9}"/>
+    <hyperlink ref="C222" r:id="rId186" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825587" xr:uid="{CB01C30E-76BD-4696-8689-463E779652DD}"/>
+    <hyperlink ref="C223" r:id="rId187" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825589" xr:uid="{C59C3983-2261-4F3A-87EF-7C975FE15260}"/>
+    <hyperlink ref="C224" r:id="rId188" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825592" xr:uid="{3A79E946-7269-44AE-BBF4-86DBC42F749A}"/>
+    <hyperlink ref="C225" r:id="rId189" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825594" xr:uid="{A245E557-8586-44B5-9C3A-0D57AB922103}"/>
+    <hyperlink ref="C226" r:id="rId190" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825597" xr:uid="{0EDA4EE7-429D-4588-B943-979D9ACE7125}"/>
+    <hyperlink ref="C227" r:id="rId191" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825599" xr:uid="{01BB594F-0BD0-49D3-96E1-CF55AB414E44}"/>
+    <hyperlink ref="C228" r:id="rId192" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825602" xr:uid="{D94513EA-A6B4-4CB9-B3FB-285449FF212E}"/>
+    <hyperlink ref="C229" r:id="rId193" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825604" xr:uid="{C0941664-003F-4DFE-A158-78A94E3B438F}"/>
+    <hyperlink ref="C230" r:id="rId194" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825606" xr:uid="{9D936FF5-1E60-489D-8E5F-54AFFA77BCF2}"/>
+    <hyperlink ref="C231" r:id="rId195" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825608" xr:uid="{E84CDD0C-2DBE-4404-969B-6B32A4E9D55B}"/>
+    <hyperlink ref="C232" r:id="rId196" display="https://workbench.cisecurity.org/sections/1117131/recommendations/1825610" xr:uid="{14B5530C-C902-462B-B725-D882F40155D3}"/>
+    <hyperlink ref="C233" r:id="rId197" display="https://workbench.cisecurity.org/sections/1117131/recommendations/1825612" xr:uid="{6F72B70A-C4C4-4133-8177-6BC024168F28}"/>
+    <hyperlink ref="C234" r:id="rId198" display="https://workbench.cisecurity.org/sections/1117133/recommendations/1825614" xr:uid="{900DA61C-9B65-409C-AFAE-9E09A9AE295D}"/>
+    <hyperlink ref="C235" r:id="rId199" display="https://workbench.cisecurity.org/sections/1117136/recommendations/1825616" xr:uid="{0E0CB621-2A09-4600-A2AA-B6A04B11CF8D}"/>
+    <hyperlink ref="C236" r:id="rId200" display="https://workbench.cisecurity.org/sections/1117137/recommendations/1825618" xr:uid="{200AE59B-61C3-469A-BAD9-AFF4D38D5F1E}"/>
+    <hyperlink ref="C237" r:id="rId201" display="https://workbench.cisecurity.org/sections/1117137/recommendations/1825622" xr:uid="{A1BC8217-8549-4145-9EA4-E21A5016B0E2}"/>
+    <hyperlink ref="C238" r:id="rId202" display="https://workbench.cisecurity.org/sections/1117140/recommendations/1825626" xr:uid="{89BFA654-CCB1-46B1-AB2B-BA98B5313EC3}"/>
+    <hyperlink ref="C239" r:id="rId203" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825629" xr:uid="{6BAD3049-535B-4819-AC08-D09739880F87}"/>
+    <hyperlink ref="C240" r:id="rId204" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825631" xr:uid="{6EE983CD-19D0-4D92-9A80-0F4035247102}"/>
+    <hyperlink ref="C241" r:id="rId205" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825633" xr:uid="{C9BBB676-1ABA-40D2-936B-F6D5DD2E0084}"/>
+    <hyperlink ref="C242" r:id="rId206" display="https://workbench.cisecurity.org/sections/1117146/recommendations/1825635" xr:uid="{471C413E-399D-449F-89E9-36F48F3BDE8F}"/>
+    <hyperlink ref="C243" r:id="rId207" display="https://workbench.cisecurity.org/sections/1117153/recommendations/1825639" xr:uid="{A07AFF57-860D-404D-84B9-CC532F7D85D8}"/>
+    <hyperlink ref="C244" r:id="rId208" display="https://workbench.cisecurity.org/sections/1117154/recommendations/1825641" xr:uid="{6CAE56CF-D945-48D3-AEE2-AF23C0EF3B52}"/>
+    <hyperlink ref="C245" r:id="rId209" display="https://workbench.cisecurity.org/sections/1117154/recommendations/1825645" xr:uid="{942ABD51-9FC2-4CD8-AB4C-C7781BD2AD9B}"/>
+    <hyperlink ref="C246" r:id="rId210" display="https://workbench.cisecurity.org/sections/1117156/recommendations/1825647" xr:uid="{2DC1B17C-E898-47D8-B26C-C584CBBDB45C}"/>
+    <hyperlink ref="C247" r:id="rId211" display="https://workbench.cisecurity.org/sections/1117156/recommendations/1825652" xr:uid="{7F755417-1B62-41F6-BC53-A260B56D58D1}"/>
+    <hyperlink ref="C248" r:id="rId212" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825654" xr:uid="{DC9DBC88-ECEA-4FE2-B409-F59A7D096E27}"/>
+    <hyperlink ref="C249" r:id="rId213" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825655" xr:uid="{65880178-3DEC-4D84-830E-7F85312E947B}"/>
+    <hyperlink ref="C250" r:id="rId214" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825658" xr:uid="{31797B12-2228-4D93-846A-3E47203CF108}"/>
+    <hyperlink ref="C251" r:id="rId215" display="https://workbench.cisecurity.org/sections/1117159/recommendations/1825660" xr:uid="{DBC21B7A-091F-4C5D-B881-B6B8274D99E1}"/>
+    <hyperlink ref="C252" r:id="rId216" display="https://workbench.cisecurity.org/sections/1117163/recommendations/1825663" xr:uid="{1A3C8FA0-15F5-4761-83EB-FBE2A7BDF648}"/>
+    <hyperlink ref="C255" r:id="rId217" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825669" xr:uid="{56AF01C3-532F-4AD9-961D-A8FB21114F89}"/>
+    <hyperlink ref="C256" r:id="rId218" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825671" xr:uid="{606BCD85-1414-49F1-97BF-06B7D4A27116}"/>
+    <hyperlink ref="C257" r:id="rId219" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825673" xr:uid="{5E0A02F2-4814-4E01-BCF7-37E9FCB21981}"/>
+    <hyperlink ref="C258" r:id="rId220" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825675" xr:uid="{ACD95963-9BFB-468D-A077-A1668A4DBFB6}"/>
+    <hyperlink ref="C259" r:id="rId221" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825677" xr:uid="{742EBF31-F28E-498F-9B54-712884C56EDE}"/>
+    <hyperlink ref="C260" r:id="rId222" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825679" xr:uid="{8C730493-1EE7-414A-A470-89F45956FAFC}"/>
+    <hyperlink ref="C261" r:id="rId223" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825681" xr:uid="{4A7D4413-92D7-42A8-9C15-79EA243A7398}"/>
+    <hyperlink ref="C262" r:id="rId224" display="https://workbench.cisecurity.org/sections/1117173/recommendations/1825685" xr:uid="{6565135C-0D01-45D1-9D3D-B55B9F948EE8}"/>
+    <hyperlink ref="C263" r:id="rId225" display="https://workbench.cisecurity.org/sections/1117181/recommendations/1825687" xr:uid="{A6340EAB-8693-4C9F-BBF9-CD129108D6E2}"/>
+    <hyperlink ref="C264" r:id="rId226" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825688" xr:uid="{9F685D80-0422-4AD0-A1B1-D01E1B3CE70A}"/>
+    <hyperlink ref="C265" r:id="rId227" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825689" xr:uid="{1C94043E-D883-4914-B6C1-FFEC956F6DCE}"/>
+    <hyperlink ref="C266" r:id="rId228" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825690" xr:uid="{CB94670C-B58C-4A19-8461-680D0ADE0496}"/>
+    <hyperlink ref="C267" r:id="rId229" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825691" xr:uid="{89EF1492-503D-42C9-9CAA-C68959BE9171}"/>
+    <hyperlink ref="C268" r:id="rId230" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825692" xr:uid="{9A0983DB-6738-422C-8CBF-01EBA974CA75}"/>
+    <hyperlink ref="C269" r:id="rId231" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825693" xr:uid="{C5F4F4BC-CEA3-4F14-8B52-C26B5390C105}"/>
+    <hyperlink ref="C270" r:id="rId232" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825694" xr:uid="{7E832D11-1F44-4B3D-97E4-7F70801019B0}"/>
+    <hyperlink ref="C271" r:id="rId233" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825695" xr:uid="{AB159C5E-7ACB-4EFB-BA12-8C0FE7FDA968}"/>
+    <hyperlink ref="C272" r:id="rId234" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825696" xr:uid="{2E580628-8FDD-410F-BC47-949860CC9629}"/>
+    <hyperlink ref="C273" r:id="rId235" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825698" xr:uid="{D0FF6951-8F37-4D4F-AC9D-6077D2C2F4F9}"/>
+    <hyperlink ref="C274" r:id="rId236" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825699" xr:uid="{3C1FD09F-77BA-4E6A-8564-6BCF9B76B570}"/>
+    <hyperlink ref="C275" r:id="rId237" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825700" xr:uid="{2B7A15F4-3F14-406A-8735-F4EE46A3BC20}"/>
+    <hyperlink ref="C276" r:id="rId238" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825701" xr:uid="{9B5B9C32-D022-4408-BB1F-4D64AF1C6DBB}"/>
+    <hyperlink ref="C277" r:id="rId239" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825702" xr:uid="{8C9CCBC7-D17B-40D5-9F00-4437C8B60624}"/>
+    <hyperlink ref="C278" r:id="rId240" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825703" xr:uid="{7A4F761E-8815-44C7-AD28-7E5D9D265E26}"/>
+    <hyperlink ref="C279" r:id="rId241" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825704" xr:uid="{FECA4422-6E72-4E95-8DC3-94621A6AF51D}"/>
+    <hyperlink ref="C280" r:id="rId242" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825705" xr:uid="{F10AEB7B-4997-41D5-8ECD-859558380ED5}"/>
+    <hyperlink ref="C281" r:id="rId243" display="https://workbench.cisecurity.org/sections/1117194/recommendations/1825706" xr:uid="{E499F1F9-1D4C-44CE-A8B7-92DF8C8C4C9F}"/>
+    <hyperlink ref="C282" r:id="rId244" display="https://workbench.cisecurity.org/sections/1117195/recommendations/1825707" xr:uid="{2280A042-E75F-496F-BEB0-B7E3103F5C9E}"/>
+    <hyperlink ref="C283" r:id="rId245" display="https://workbench.cisecurity.org/sections/1117196/recommendations/1825708" xr:uid="{21A3161D-FB9F-491F-9B23-52932F50BFC2}"/>
+    <hyperlink ref="C284" r:id="rId246" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825710" xr:uid="{DE5F4B21-3321-4220-9CA1-0188E708756E}"/>
+    <hyperlink ref="C285" r:id="rId247" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825711" xr:uid="{77467936-CAC5-4DD2-8F2B-B52879F8EAD2}"/>
+    <hyperlink ref="C286" r:id="rId248" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825712" xr:uid="{395B816A-F97E-4681-BCB5-C4663F51B251}"/>
+    <hyperlink ref="C287" r:id="rId249" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825713" xr:uid="{7B48F277-C848-4E9E-B210-0464EADB2F8C}"/>
+    <hyperlink ref="C288" r:id="rId250" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825714" xr:uid="{E73EAAB1-C94C-48B1-83C3-5CB06D7E217D}"/>
+    <hyperlink ref="C289" r:id="rId251" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825715" xr:uid="{4F03FD29-AECC-4E09-9395-B700A19C559A}"/>
+    <hyperlink ref="C290" r:id="rId252" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825716" xr:uid="{0BB095E0-DA0D-4F46-A71A-E05D0939CD91}"/>
+    <hyperlink ref="C291" r:id="rId253" display="https://workbench.cisecurity.org/sections/1117200/recommendations/1825717" xr:uid="{F346EF11-888B-4ECF-B31E-F7E96F30DA78}"/>
+    <hyperlink ref="C292" r:id="rId254" display="https://workbench.cisecurity.org/sections/1117200/recommendations/1825718" xr:uid="{2E19C594-DC27-4590-AC6C-E9BE62099BFE}"/>
+    <hyperlink ref="C293" r:id="rId255" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825719" xr:uid="{CB4A13C2-6817-43C1-A1E6-36C6BC0806F6}"/>
+    <hyperlink ref="C294" r:id="rId256" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825720" xr:uid="{84872009-C57D-413A-8C20-16E764F0188C}"/>
+    <hyperlink ref="C295" r:id="rId257" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825721" xr:uid="{461F9795-74F2-4695-B31E-44B63A1E01E0}"/>
+    <hyperlink ref="C296" r:id="rId258" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825722" xr:uid="{0083E7FE-C8BA-4865-BA9B-71590D9B5BDB}"/>
+    <hyperlink ref="C297" r:id="rId259" display="https://workbench.cisecurity.org/sections/1117211/recommendations/1825723" xr:uid="{299E36EB-BED2-4417-B0A7-2E5F41537434}"/>
+    <hyperlink ref="C298" r:id="rId260" display="https://workbench.cisecurity.org/sections/1117211/recommendations/1825724" xr:uid="{473F1C85-FB0D-455F-97AB-7F0AA5C5015F}"/>
+    <hyperlink ref="C299" r:id="rId261" display="https://workbench.cisecurity.org/sections/1117212/recommendations/1825725" xr:uid="{5388E80C-533B-4737-BC09-3A929490EC54}"/>
+    <hyperlink ref="C300" r:id="rId262" display="https://workbench.cisecurity.org/sections/1117212/recommendations/1825726" xr:uid="{F7A6354C-459B-4AAC-8DBC-E361200CEA42}"/>
+    <hyperlink ref="C301" r:id="rId263" display="https://workbench.cisecurity.org/sections/1117215/recommendations/1825727" xr:uid="{F1B2F1A9-06ED-4EC6-A278-CBFEAC6C6751}"/>
+    <hyperlink ref="C302" r:id="rId264" display="https://workbench.cisecurity.org/sections/1117228/recommendations/1825728" xr:uid="{2770382D-1897-4FCF-93D4-5E4E15B1B2DD}"/>
+    <hyperlink ref="C303" r:id="rId265" display="https://workbench.cisecurity.org/sections/1117234/recommendations/1825729" xr:uid="{E5E25D47-B5CB-49AF-88B0-2A8CB32B8EC0}"/>
+    <hyperlink ref="C304" r:id="rId266" display="https://workbench.cisecurity.org/sections/1117236/recommendations/1825730" xr:uid="{B7F99A28-87FC-4558-957D-2718B53EBE6C}"/>
+    <hyperlink ref="C305" r:id="rId267" display="https://workbench.cisecurity.org/sections/1117240/recommendations/1825731" xr:uid="{B6A66A66-F785-46F6-9F3B-2E1A51EC95DC}"/>
+    <hyperlink ref="C306" r:id="rId268" display="https://workbench.cisecurity.org/sections/1117240/recommendations/1825732" xr:uid="{9C4FF5E3-2098-4DFD-B826-8C0632AAAAFE}"/>
+    <hyperlink ref="C307" r:id="rId269" display="https://workbench.cisecurity.org/sections/1117245/recommendations/1825733" xr:uid="{209919DF-E574-4EFE-B005-0E9F5EC2FF21}"/>
+    <hyperlink ref="C308" r:id="rId270" display="https://workbench.cisecurity.org/sections/1117247/recommendations/1825734" xr:uid="{571F3CE5-C93E-4F9E-9B38-AFD7D1D46A49}"/>
+    <hyperlink ref="C309" r:id="rId271" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825735" xr:uid="{08AF651E-25E0-47E7-8DEB-C21B461F6BC1}"/>
+    <hyperlink ref="C310" r:id="rId272" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825736" xr:uid="{42C506A9-21F3-4527-B882-E2803D5288A9}"/>
+    <hyperlink ref="C311" r:id="rId273" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825737" xr:uid="{4A57AEE5-5D03-4E2A-9269-2B7E46685DBF}"/>
+    <hyperlink ref="C312" r:id="rId274" display="https://workbench.cisecurity.org/sections/1117252/recommendations/1825738" xr:uid="{8406A8E4-936C-41D7-B5A6-4743777B2FE5}"/>
+    <hyperlink ref="C313" r:id="rId275" display="https://workbench.cisecurity.org/sections/1117254/recommendations/1825739" xr:uid="{0BEB68F5-F26C-4DD6-89A6-9573C4098107}"/>
+    <hyperlink ref="C314" r:id="rId276" display="https://workbench.cisecurity.org/sections/1117256/recommendations/1825740" xr:uid="{413F16BC-8042-4B4F-AE70-A1327FA260B5}"/>
+    <hyperlink ref="C315" r:id="rId277" display="https://workbench.cisecurity.org/sections/1117256/recommendations/1825742" xr:uid="{1847B836-A6DB-4371-8640-B3DB39EF6C6B}"/>
+    <hyperlink ref="C316" r:id="rId278" display="https://workbench.cisecurity.org/sections/1117257/recommendations/1825743" xr:uid="{4CAA3B6B-336B-4A79-923A-93D0AC95E973}"/>
+    <hyperlink ref="C317" r:id="rId279" display="https://workbench.cisecurity.org/sections/1117258/recommendations/1825744" xr:uid="{EA524355-39AD-4E85-AE74-BD70786846F7}"/>
+    <hyperlink ref="C318" r:id="rId280" display="https://workbench.cisecurity.org/sections/1117258/recommendations/1825745" xr:uid="{B3449D3B-5214-40B2-BBBA-1556FA6CDECD}"/>
+    <hyperlink ref="C319" r:id="rId281" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825746" xr:uid="{095A7829-EFA3-4711-B1B0-AA87BE3EEE04}"/>
+    <hyperlink ref="C320" r:id="rId282" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825747" xr:uid="{B8A5D0E7-05C0-4E90-B9F0-27CC0CD40481}"/>
+    <hyperlink ref="C321" r:id="rId283" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825748" xr:uid="{FFF5C0CC-57A2-48F9-BD52-E51C61F2FCA4}"/>
+    <hyperlink ref="C322" r:id="rId284" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825749" xr:uid="{58A54676-06B5-42A9-8A4A-164526EEF4B7}"/>
+    <hyperlink ref="C323" r:id="rId285" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825750" xr:uid="{BA7B2A2D-C731-4655-B4BB-1872AC19DE69}"/>
+    <hyperlink ref="C324" r:id="rId286" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825751" xr:uid="{D258E32D-51ED-4D5F-A6FB-BEEBAB540C56}"/>
+    <hyperlink ref="C325" r:id="rId287" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825752" xr:uid="{C8AE5D72-732A-4CF7-B408-0948B9697844}"/>
+    <hyperlink ref="C326" r:id="rId288" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825753" xr:uid="{0365866F-8D33-4ED6-AC68-1617D2C14550}"/>
+    <hyperlink ref="C327" r:id="rId289" display="https://workbench.cisecurity.org/sections/1117273/recommendations/1825774" xr:uid="{91D6FC4B-BD71-4CA1-B2BE-12B28CF17D35}"/>
+    <hyperlink ref="C328" r:id="rId290" display="https://workbench.cisecurity.org/sections/1117273/recommendations/1825776" xr:uid="{D83E092B-5971-4F31-82AE-7C08DB72AE5D}"/>
+    <hyperlink ref="C329" r:id="rId291" display="https://workbench.cisecurity.org/sections/1117277/recommendations/1825779" xr:uid="{BE6C624E-A873-47CD-ADCE-2F92DA64E134}"/>
+    <hyperlink ref="C330" r:id="rId292" display="https://workbench.cisecurity.org/sections/1117277/recommendations/1825782" xr:uid="{1DCAC2CC-5206-407B-85FD-3E9672EDEAEA}"/>
+    <hyperlink ref="C331" r:id="rId293" display="https://workbench.cisecurity.org/sections/1117278/recommendations/1825784" xr:uid="{99E118AC-94A8-4330-895E-F29BA1535593}"/>
+    <hyperlink ref="C332" r:id="rId294" display="https://workbench.cisecurity.org/sections/1117278/recommendations/1825788" xr:uid="{4B986CA1-9C88-4B44-A59E-399C40DB61CB}"/>
+    <hyperlink ref="C333" r:id="rId295" display="https://workbench.cisecurity.org/sections/1117282/recommendations/1825792" xr:uid="{09530E63-80E7-4B2E-9946-3BDE47C30DFB}"/>
+    <hyperlink ref="C334" r:id="rId296" display="https://workbench.cisecurity.org/sections/1117282/recommendations/1825795" xr:uid="{EB33877E-428D-41AD-A493-F9F32E05902C}"/>
+    <hyperlink ref="C335" r:id="rId297" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825799" xr:uid="{EB6F517C-D619-4B96-8A67-CB36308DA152}"/>
+    <hyperlink ref="C336" r:id="rId298" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825803" xr:uid="{778CDEA3-B011-44CC-90AA-965E8B626E11}"/>
+    <hyperlink ref="C337" r:id="rId299" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825806" xr:uid="{C10B668A-18C7-40F4-A38B-D0BFAD6A02ED}"/>
+    <hyperlink ref="C338" r:id="rId300" display="https://workbench.cisecurity.org/sections/1117297/recommendations/1825815" xr:uid="{CC2D1F59-DE40-4B0C-BB1C-3FB333367999}"/>
+    <hyperlink ref="C339" r:id="rId301" display="https://workbench.cisecurity.org/sections/1117302/recommendations/1825819" xr:uid="{14C05EE0-E022-4C38-ABC7-8F94C9B7C963}"/>
+    <hyperlink ref="C340" r:id="rId302" display="https://workbench.cisecurity.org/sections/1117303/recommendations/1825823" xr:uid="{BBD603C7-FC93-4270-B7FD-E718C10F3B2E}"/>
+    <hyperlink ref="C341" r:id="rId303" display="https://workbench.cisecurity.org/sections/1117308/recommendations/1825827" xr:uid="{3AB69975-3470-4F21-86CC-F553C714B776}"/>
+    <hyperlink ref="C342" r:id="rId304" display="https://workbench.cisecurity.org/sections/1117308/recommendations/1825832" xr:uid="{D78A326A-CCF8-481C-8A72-1049E5BB454B}"/>
+    <hyperlink ref="C343" r:id="rId305" display="https://workbench.cisecurity.org/sections/1117314/recommendations/1825837" xr:uid="{F13EE283-D645-4C7D-885E-2DA5A0DF0A43}"/>
+    <hyperlink ref="C344" r:id="rId306" display="https://workbench.cisecurity.org/sections/1117314/recommendations/1825843" xr:uid="{AEC1DCCC-93F7-4421-9775-E7114A3B1925}"/>
+    <hyperlink ref="C345" r:id="rId307" display="https://workbench.cisecurity.org/sections/1117319/recommendations/1825872" xr:uid="{7EDE6A89-51EA-470F-A85A-8217F7AB5429}"/>
+    <hyperlink ref="C346" r:id="rId308" display="https://workbench.cisecurity.org/sections/1117324/recommendations/1825877" xr:uid="{478655B9-7C8B-4888-84CB-C6C9A24D39DE}"/>
+    <hyperlink ref="C347" r:id="rId309" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825884" xr:uid="{BB3A884F-8E73-4F94-A68B-5F88698FDF59}"/>
+    <hyperlink ref="C348" r:id="rId310" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825889" xr:uid="{CDFD72A9-F3BC-43EE-91D0-D23046FEDB2F}"/>
+    <hyperlink ref="C349" r:id="rId311" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825892" xr:uid="{7DC8D0E6-E49A-4F85-A3DA-A0502ED9F253}"/>
+    <hyperlink ref="C350" r:id="rId312" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825897" xr:uid="{2D9350AA-1C4A-4B3A-8420-7C51A28A1CC1}"/>
+    <hyperlink ref="C351" r:id="rId313" display="https://workbench.cisecurity.org/sections/1117343/recommendations/1825903" xr:uid="{2FF9A3AF-DAC4-4DF6-B5EF-CFE5C44442CD}"/>
+    <hyperlink ref="C352" r:id="rId314" display="https://workbench.cisecurity.org/sections/1117344/recommendations/1825908" xr:uid="{EE8737F1-2019-4D05-BADF-DA374118457F}"/>
+    <hyperlink ref="C353" r:id="rId315" display="https://workbench.cisecurity.org/sections/1117344/recommendations/1825913" xr:uid="{59EBF186-D0E3-44EB-B3A9-830D939D89BB}"/>
+    <hyperlink ref="C354" r:id="rId316" display="https://workbench.cisecurity.org/sections/1117360/recommendations/1825932" xr:uid="{8851CF71-118A-4E4E-A5E5-B10D975D4BE5}"/>
+    <hyperlink ref="C355" r:id="rId317" display="https://workbench.cisecurity.org/sections/1117375/recommendations/1825944" xr:uid="{65B81676-7935-4F7B-921E-EF4CC7B740FB}"/>
+    <hyperlink ref="C356" r:id="rId318" display="https://workbench.cisecurity.org/sections/1117380/recommendations/1825951" xr:uid="{8CF63D1E-9CAE-4D8F-B485-D3AB9C07E769}"/>
+    <hyperlink ref="C357" r:id="rId319" display="https://workbench.cisecurity.org/sections/1117385/recommendations/1825958" xr:uid="{71AB820E-0BAD-44EA-9E45-544B84D1AC64}"/>
+    <hyperlink ref="C358" r:id="rId320" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1858438" xr:uid="{271A682A-47E6-4BDF-BB94-A1DA89BBFE69}"/>
+    <hyperlink ref="C359" r:id="rId321" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825964" xr:uid="{6080BBB5-F3E4-4BDC-8BDF-82ED260404A4}"/>
+    <hyperlink ref="C360" r:id="rId322" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825969" xr:uid="{799D7017-D660-4033-815A-7CE99E98AC0E}"/>
+    <hyperlink ref="C361" r:id="rId323" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1858440" xr:uid="{DD141FF8-C34F-415A-B3E4-A10F8055F916}"/>
+    <hyperlink ref="C362" r:id="rId324" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825975" xr:uid="{D5570E6E-18E6-43A2-AF3C-6E2B898B0EE1}"/>
+    <hyperlink ref="C363" r:id="rId325" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825980" xr:uid="{B06A2F37-C834-45C8-B6E1-6746238A11EF}"/>
+    <hyperlink ref="C364" r:id="rId326" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825988" xr:uid="{514499A7-28B7-4298-BBC5-8C8664E2374A}"/>
+    <hyperlink ref="C365" r:id="rId327" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825994" xr:uid="{BED701E5-6255-4B9E-B041-E3552C8DF53F}"/>
+    <hyperlink ref="C366" r:id="rId328" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825999" xr:uid="{C267A258-4445-4055-BF50-EDA4F9FD8303}"/>
+    <hyperlink ref="C367" r:id="rId329" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1826004" xr:uid="{C5D037C1-6ACA-4464-B032-38593FECD9ED}"/>
+    <hyperlink ref="C368" r:id="rId330" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1826008" xr:uid="{1F339DC9-D457-4135-8E05-CE1E39F30D76}"/>
+    <hyperlink ref="C369" r:id="rId331" display="https://workbench.cisecurity.org/sections/1117435/recommendations/1826011" xr:uid="{F56C3AF8-7D5A-4F1C-9963-C307252E914E}"/>
+    <hyperlink ref="C370" r:id="rId332" display="https://workbench.cisecurity.org/sections/1117435/recommendations/1826017" xr:uid="{A204E171-09EB-4104-AF76-2C872FFBB1E0}"/>
+    <hyperlink ref="C371" r:id="rId333" display="https://workbench.cisecurity.org/sections/1117458/recommendations/1826021" xr:uid="{5FBD034F-A5C9-4055-97DB-6FA890B706D2}"/>
+    <hyperlink ref="C372" r:id="rId334" display="https://workbench.cisecurity.org/sections/1117458/recommendations/1826024" xr:uid="{CA0EC348-521A-4E26-9FEE-03359271792E}"/>
+    <hyperlink ref="C373" r:id="rId335" display="https://workbench.cisecurity.org/sections/1117465/recommendations/1826029" xr:uid="{EE93B58B-111A-47CC-A7BC-A8FCEE541D4D}"/>
+    <hyperlink ref="C374" r:id="rId336" display="https://workbench.cisecurity.org/sections/1117466/recommendations/1826032" xr:uid="{ACA757AD-95B8-4E41-B814-F6F332F4BBB1}"/>
+    <hyperlink ref="C375" r:id="rId337" display="https://workbench.cisecurity.org/sections/1117466/recommendations/1826036" xr:uid="{A00FC28A-E096-4D31-B0D9-AA09BAD1839B}"/>
+    <hyperlink ref="C376" r:id="rId338" display="https://workbench.cisecurity.org/sections/1117472/recommendations/1826043" xr:uid="{8B24DAAA-D8BA-4696-9334-CA0690699E13}"/>
+    <hyperlink ref="C377" r:id="rId339" display="https://workbench.cisecurity.org/sections/1117486/recommendations/1826049" xr:uid="{8B673709-2D87-4BC4-8BB7-77A0ED422ED3}"/>
+    <hyperlink ref="C378" r:id="rId340" display="https://workbench.cisecurity.org/sections/1117498/recommendations/1826059" xr:uid="{A93F46AD-D580-4BB0-98E0-AC626158B73F}"/>
+    <hyperlink ref="C379" r:id="rId341" display="https://workbench.cisecurity.org/sections/1117498/recommendations/1826062" xr:uid="{2F58FB0E-DDD4-4C1C-949C-6A7BEE96B15E}"/>
+    <hyperlink ref="C380" r:id="rId342" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826068" xr:uid="{0AC2971B-B080-42E1-B746-7633AF7D8982}"/>
+    <hyperlink ref="C381" r:id="rId343" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826071" xr:uid="{C539BEA0-50FA-49BD-8B06-BD2ED6D08A75}"/>
+    <hyperlink ref="C382" r:id="rId344" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826074" xr:uid="{72BFCA5F-8FC0-4498-927D-7D02524C3CEF}"/>
+    <hyperlink ref="C383" r:id="rId345" display="https://workbench.cisecurity.org/sections/1117509/recommendations/1826076" xr:uid="{115B0D74-E6D6-4510-A8B1-C5F68D9A3EFB}"/>
+    <hyperlink ref="C384" r:id="rId346" display="https://workbench.cisecurity.org/sections/1117522/recommendations/1826080" xr:uid="{9C5AEA10-6EBD-4DAC-AD59-EB4CDBA7AD66}"/>
+    <hyperlink ref="C385" r:id="rId347" display="https://workbench.cisecurity.org/sections/1117522/recommendations/1826083" xr:uid="{4B1B075F-0D52-4F5B-A19E-A3A1ECF2DBC6}"/>
+    <hyperlink ref="C386" r:id="rId348" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826086" xr:uid="{08E678C6-B3BF-4FDD-B630-CFB3064454D3}"/>
+    <hyperlink ref="C387" r:id="rId349" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826089" xr:uid="{4C84D143-5800-415F-8865-C6BABBF761A1}"/>
+    <hyperlink ref="C388" r:id="rId350" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826092" xr:uid="{65CF5C96-2F89-4407-B5E4-63ACECF045A5}"/>
+    <hyperlink ref="C389" r:id="rId351" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826094" xr:uid="{3DF7DF43-CF2B-4EA8-8010-9ECF42C14CBA}"/>
+    <hyperlink ref="C390" r:id="rId352" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826097" xr:uid="{D96C36F9-14A8-4979-81B1-BCF1BBD72AA1}"/>
+    <hyperlink ref="C391" r:id="rId353" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826100" xr:uid="{8C64F721-D11B-4860-8ECF-01A624E53A6C}"/>
+    <hyperlink ref="C392" r:id="rId354" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826101" xr:uid="{5DEC0AC2-A30F-428B-8EBD-4BDB11476915}"/>
+    <hyperlink ref="C393" r:id="rId355" display="https://workbench.cisecurity.org/sections/1117540/recommendations/1826102" xr:uid="{DF4A0DFD-A9AE-4820-A674-F356416F6C05}"/>
+    <hyperlink ref="C394" r:id="rId356" display="https://workbench.cisecurity.org/sections/1117544/recommendations/1826104" xr:uid="{82948185-D458-4310-9411-3AD0DF2BC17F}"/>
+    <hyperlink ref="C395" r:id="rId357" display="https://workbench.cisecurity.org/sections/1117549/recommendations/1826110" xr:uid="{888D59C3-9B88-442A-A274-604E833DF9F2}"/>
+    <hyperlink ref="C396" r:id="rId358" display="https://workbench.cisecurity.org/sections/1117561/recommendations/1826114" xr:uid="{6860A944-F998-4296-9313-16ACC2943F86}"/>
+    <hyperlink ref="C397" r:id="rId359" display="https://workbench.cisecurity.org/sections/1117561/recommendations/1826116" xr:uid="{F22E413F-B069-4757-A961-2C93484DE2D2}"/>
+    <hyperlink ref="C398" r:id="rId360" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826118" xr:uid="{048BA544-4250-4A92-BB59-9FB6CB00C756}"/>
+    <hyperlink ref="C399" r:id="rId361" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826120" xr:uid="{4ED3DBF5-042A-444D-9D9F-8AD70A63E862}"/>
+    <hyperlink ref="C400" r:id="rId362" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826123" xr:uid="{F7382B81-9689-4208-8597-60D49AEDAC84}"/>
+    <hyperlink ref="C401" r:id="rId363" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825533" xr:uid="{F94BACFD-94D2-40DD-9690-EE9D9A656CC8}"/>
+    <hyperlink ref="C402" r:id="rId364" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825541" xr:uid="{BBDDF067-F6B2-40BC-8EEA-B0F21BF386E0}"/>
+    <hyperlink ref="C403" r:id="rId365" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825545" xr:uid="{4AED8D16-3EAF-4073-980C-0753980BD2B7}"/>
+    <hyperlink ref="C404" r:id="rId366" display="https://workbench.cisecurity.org/sections/1117062/recommendations/1825552" xr:uid="{243240B0-D3DC-42E7-9D20-6A13CB1B385F}"/>
+    <hyperlink ref="C405" r:id="rId367" display="https://workbench.cisecurity.org/sections/1117072/recommendations/1825559" xr:uid="{B4937AD8-F3F5-4A67-B95C-752FB120CFAB}"/>
+    <hyperlink ref="C406" r:id="rId368" display="https://workbench.cisecurity.org/sections/1117078/recommendations/1825564" xr:uid="{C9E8DC31-FC5F-4B38-8538-B303CF320244}"/>
+    <hyperlink ref="C407" r:id="rId369" display="https://workbench.cisecurity.org/sections/1117078/recommendations/1825569" xr:uid="{6E5882B1-69A9-4F9A-B7F2-9990EA8CB2CA}"/>
+    <hyperlink ref="C408" r:id="rId370" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825573" xr:uid="{65B69C0D-1EC2-4217-8FED-579B51337D6A}"/>
+    <hyperlink ref="C409" r:id="rId371" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825577" xr:uid="{12E78287-5965-464A-BB0A-EA14E59C7126}"/>
+    <hyperlink ref="C410" r:id="rId372" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825580" xr:uid="{96B42123-CFA0-43B4-AEA6-E4D9174F2E2C}"/>
+    <hyperlink ref="C411" r:id="rId373" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825583" xr:uid="{C186D6D2-AAFC-4E08-9CC2-780896AD91F7}"/>
+    <hyperlink ref="C412" r:id="rId374" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825586" xr:uid="{4E3B4700-0260-41F6-A6C7-E21FE50A2162}"/>
+    <hyperlink ref="C413" r:id="rId375" display="https://workbench.cisecurity.org/sections/1117105/recommendations/1825591" xr:uid="{80CCB478-F932-46FE-9F8E-2E397F2B795A}"/>
+    <hyperlink ref="C414" r:id="rId376" display="https://workbench.cisecurity.org/sections/1117120/recommendations/1825596" xr:uid="{89932BA5-1830-4B5A-A9ED-31D436F9F76C}"/>
+    <hyperlink ref="C415" r:id="rId377" display="https://workbench.cisecurity.org/sections/1117126/recommendations/1825600" xr:uid="{216363B1-B5EB-4218-A16C-052563EBDC65}"/>
+    <hyperlink ref="C119" r:id="rId378" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825644" xr:uid="{A6662E2A-3508-468C-A704-4810896FD441}"/>
+    <hyperlink ref="C129" r:id="rId379" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825662" xr:uid="{1243301D-5178-4904-8B3E-D78529CCACFE}"/>
+    <hyperlink ref="C159" r:id="rId380" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825490" xr:uid="{26E61361-375A-4D79-BE9C-940F65B51CD6}"/>
+    <hyperlink ref="C160" r:id="rId381" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825494" xr:uid="{FB36B092-0199-4A52-B459-6F1182C2D33F}"/>
+    <hyperlink ref="C161" r:id="rId382" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825497" xr:uid="{06928FDB-345F-458C-B8D4-9636A04BC190}"/>
+    <hyperlink ref="C162" r:id="rId383" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825501" xr:uid="{C0B4E5E1-50EE-4F81-9351-323E560E9AFD}"/>
+    <hyperlink ref="C163" r:id="rId384" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825505" xr:uid="{97156C51-B47B-45AE-97CE-07F422524BE6}"/>
+    <hyperlink ref="C164" r:id="rId385" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825509" xr:uid="{74C02E06-0CC7-4120-BC29-951279917244}"/>
+    <hyperlink ref="C165" r:id="rId386" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825514" xr:uid="{B59E0E88-56E6-4172-B551-CFAE3E989211}"/>
+    <hyperlink ref="C166" r:id="rId387" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825519" xr:uid="{E9778765-42AC-4E69-AFA8-5698C5522BD0}"/>
+    <hyperlink ref="C167" r:id="rId388" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825523" xr:uid="{E197E04D-5921-4D4A-873E-9188D44EA5BC}"/>
+    <hyperlink ref="C168" r:id="rId389" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825528" xr:uid="{AA1EEA33-460F-4E00-B59C-C8E5668370E7}"/>
+    <hyperlink ref="C207" r:id="rId390" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825520" xr:uid="{21A4B2A5-C772-405D-A19C-556FE949EB60}"/>
+    <hyperlink ref="C208" r:id="rId391" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825526" xr:uid="{BA5BC56D-50EE-4765-8206-43B18F75BA82}"/>
+    <hyperlink ref="C209" r:id="rId392" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825530" xr:uid="{F1F87E13-BE13-457E-BCD4-E92B9EB25555}"/>
+    <hyperlink ref="C210" r:id="rId393" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825534" xr:uid="{FF277FB5-3EE6-4792-94E8-4B93327E8A1E}"/>
+    <hyperlink ref="C211" r:id="rId394" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825538" xr:uid="{E323C188-6B57-4ECF-8B65-107440B5AE04}"/>
+    <hyperlink ref="C212" r:id="rId395" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825542" xr:uid="{ADF457E4-787C-4831-BB74-7678B609E62D}"/>
+    <hyperlink ref="C253" r:id="rId396" display="https://workbench.cisecurity.org/sections/1117166/recommendations/1825665" xr:uid="{F379327F-E108-42A8-94FC-E8CC8748DBD7}"/>
+    <hyperlink ref="C254" r:id="rId397" display="https://workbench.cisecurity.org/sections/1117166/recommendations/1825666" xr:uid="{619D9F84-B90A-4A73-BEC1-3220C376393B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId383"/>
+  <pageSetup orientation="portrait" r:id="rId398"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D1E9D9E8C516145ACFBCB6BAA5EA879" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d4fa9c8c5c5a66aa181cf143a0895ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c23bcc05-bb70-448c-b869-ca05feb44454" xmlns:ns3="636f7450-4f64-45f7-aa6c-f98af71a66c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3480ff6356aeaa2bb89f18c4a6ac38" ns2:_="" ns3:_="">
     <xsd:import namespace="c23bcc05-bb70-448c-b869-ca05feb44454"/>
@@ -7593,6 +8152,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7605,14 +8173,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{563C9C07-A392-4FB2-ABD0-36AFFD924442}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7631,6 +8191,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
   <ds:schemaRefs>

--- a/CIS-Windows-Server-2022.xlsx
+++ b/CIS-Windows-Server-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itumfoundation.sharepoint.com/sites/IT/Shared Documents/documentation/Horne/In progress/IS17 Baseline Policies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="8_{49A89D1A-DAFA-4E12-8468-EE064A824B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E581C64-CDA7-4AC2-A54F-CAC3D505CBD5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82932C3-78FF-4354-A77E-8F787B68856C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="750" windowWidth="28800" windowHeight="17115" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="20025" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
   </bookViews>
   <sheets>
     <sheet name="CIS Windows Server 2022 v1.0.0" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="821">
   <si>
     <t>1.1.1</t>
   </si>
@@ -2493,13 +2482,19 @@
   </si>
   <si>
     <t>Implementation requires additional setup by admin (not applied)</t>
+  </si>
+  <si>
+    <t>Orange Text</t>
+  </si>
+  <si>
+    <t>Configured by compatibility assurance options in the script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2560,6 +2555,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2594,7 +2596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2662,6 +2664,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2977,39 +2987,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DB50BF-856E-4B09-82A9-B1D3B9A7E638}">
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:D416"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="145.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="145.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="191.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="191.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>754</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>812</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>815</v>
       </c>
@@ -3017,4892 +3027,4900 @@
         <v>816</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="B6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>817</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B11" s="26" t="s">
         <v>751</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B68" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="8" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="8" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B84" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>163</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>171</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>173</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>177</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>183</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>185</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>187</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C105" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>189</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C107" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>193</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>195</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C109" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>197</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C111" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>201</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="8" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B113" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C113" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>205</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>207</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C115" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>209</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>211</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>213</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>215</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>756</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>218</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>220</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>222</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>224</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>226</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C125" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>228</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>230</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>232</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C128" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>234</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C129" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>757</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C130" s="6" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>237</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C131" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>239</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C132" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>241</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>243</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>245</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C135" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>247</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>249</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>251</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C138" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>255</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>257</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="8">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B142" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C142" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
         <v>5.2</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>259</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C143" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>261</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C144" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>263</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C145" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>265</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C146" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>267</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C147" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>269</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C148" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>271</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C149" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>273</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C150" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>275</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>758</v>
       </c>
-      <c r="C151" s="6"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
+      <c r="C152" s="6"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>759</v>
       </c>
-      <c r="C152" s="6"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="2" t="s">
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>760</v>
       </c>
-      <c r="C153" s="6"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
+      <c r="C154" s="6"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>761</v>
       </c>
-      <c r="C154" s="6"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="2" t="s">
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>765</v>
       </c>
-      <c r="C155" s="6"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
+      <c r="C156" s="6"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>762</v>
       </c>
-      <c r="C156" s="6"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="2" t="s">
+      <c r="C157" s="6"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>763</v>
       </c>
-      <c r="C157" s="6"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
+      <c r="C158" s="6"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>764</v>
       </c>
-      <c r="C158" s="6"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
+      <c r="C159" s="6"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B160" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="7" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B161" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="7" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B162" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="7" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B163" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="7" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B164" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="7" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B165" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C165" s="6" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B166" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B167" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B168" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="7" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B169" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="2" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>277</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="8" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B171" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="8" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B172" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="2" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>283</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="8" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B174" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="8" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B175" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="8" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B176" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="2" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>291</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>293</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C178" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="2" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>295</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="2" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>297</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C180" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="8" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B181" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="8" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="2" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>303</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="2" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>305</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="2" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>307</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="2" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>309</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C186" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="2" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>311</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C187" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="2" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>313</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C188" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="2" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>315</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C189" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="2" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>317</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C190" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="2" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>319</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C191" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="2" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>321</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C192" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="2" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>323</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="2" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>325</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="2" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>327</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="2" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>329</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="2" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>331</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C197" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="2" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>333</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C198" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="2" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>335</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C199" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="2" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>337</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C200" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="2" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>339</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="2" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>341</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="2" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>343</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="2" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>347</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C204" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>349</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C205" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>350</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>351</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C206" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="2" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>345</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="12" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B208" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C208" s="6" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="12" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B209" s="13" t="s">
         <v>797</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C209" s="6" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="12" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B210" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C210" s="6" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="12" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B211" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C211" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="12" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B212" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C212" s="6" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="12" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B213" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C213" s="6" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="2" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C214" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="2" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>355</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C215" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="2" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>357</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C216" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="2" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>359</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C217" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="2" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
         <v>361</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C218" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="2" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>363</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C219" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="2" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>365</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C220" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="2" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>367</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C221" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="2" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>369</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C222" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="2" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>371</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C223" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="2" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>373</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C224" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="2" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>375</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C225" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" s="2" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>377</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C226" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" s="2" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>379</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C227" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" s="2" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>381</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C228" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="2" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>383</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C229" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="2" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>385</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C230" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" s="2" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>387</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C231" s="6" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" s="2" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>389</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C232" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="2" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>391</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C233" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="2" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>393</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C234" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="2" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>395</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C235" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" s="2" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>397</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C236" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" s="2" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>399</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C237" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" s="2" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>401</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C238" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="2" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>403</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C239" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="2" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>405</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C240" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" s="2" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>407</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C241" s="6" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" s="2" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>409</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="C242" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="2" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>411</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C243" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" s="2" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>413</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C244" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" s="2" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>415</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C245" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" s="2" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>417</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C246" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" s="2" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>419</v>
       </c>
-      <c r="C246" s="6" t="s">
+      <c r="C247" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="2" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>421</v>
       </c>
-      <c r="C247" s="6" t="s">
+      <c r="C248" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="2" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B249" t="s">
         <v>423</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C249" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" s="2" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>425</v>
       </c>
-      <c r="C249" s="6" t="s">
+      <c r="C250" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="2" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>427</v>
       </c>
-      <c r="C250" s="6" t="s">
+      <c r="C251" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="2" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>429</v>
       </c>
-      <c r="C251" s="6" t="s">
+      <c r="C252" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" s="2" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>431</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C253" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="7" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B254" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="C253" s="6" t="s">
+      <c r="C254" s="6" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="7" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B255" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="C254" s="6" t="s">
+      <c r="C255" s="6" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="14" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="B256" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C255" s="16" t="s">
+      <c r="C256" s="16" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" s="14" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="B257" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C256" s="16" t="s">
+      <c r="C257" s="16" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="14" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B258" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="C257" s="16" t="s">
+      <c r="C258" s="16" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" s="14" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="B258" s="15" t="s">
+      <c r="B259" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="C258" s="16" t="s">
+      <c r="C259" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="14" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B260" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="C259" s="16" t="s">
+      <c r="C260" s="16" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="17" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="B260" s="18" t="s">
+      <c r="B261" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="C260" s="16" t="s">
+      <c r="C261" s="16" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" s="14" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="B261" s="15" t="s">
+      <c r="B262" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C261" s="16" t="s">
+      <c r="C262" s="16" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" s="2" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>447</v>
       </c>
-      <c r="C262" s="6" t="s">
+      <c r="C263" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A263" s="2" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" t="s">
         <v>449</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C264" s="6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" s="2" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>451</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C265" s="6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" s="2" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>453</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C266" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A266" s="2" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>455</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C267" s="6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A267" s="2" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>457</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C268" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" s="2" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>459</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C269" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" s="2" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B270" t="s">
         <v>461</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C270" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A270" s="2" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B271" t="s">
         <v>463</v>
       </c>
-      <c r="C270" s="6" t="s">
+      <c r="C271" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A271" s="2" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B272" t="s">
         <v>465</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="C272" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" s="2" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B273" t="s">
         <v>467</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C273" s="6" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="2" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B274" t="s">
         <v>469</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="C274" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="2" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B275" t="s">
         <v>471</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C275" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="2" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B276" t="s">
         <v>473</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C276" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" s="2" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B277" t="s">
         <v>475</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="C277" s="6" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="2" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B278" t="s">
         <v>477</v>
       </c>
-      <c r="C277" s="6" t="s">
+      <c r="C278" s="6" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" s="2" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B279" t="s">
         <v>479</v>
       </c>
-      <c r="C278" s="6" t="s">
+      <c r="C279" s="6" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" s="2" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B280" t="s">
         <v>481</v>
       </c>
-      <c r="C279" s="6" t="s">
+      <c r="C280" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" s="2" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B281" t="s">
         <v>483</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C281" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" s="2" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>485</v>
       </c>
-      <c r="C281" s="6" t="s">
+      <c r="C282" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="2" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>487</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="C283" s="6" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="2" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B284" t="s">
         <v>489</v>
       </c>
-      <c r="C283" s="6" t="s">
+      <c r="C284" s="6" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="2" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B285" t="s">
         <v>491</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="C285" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="2" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B286" t="s">
         <v>493</v>
       </c>
-      <c r="C285" s="6" t="s">
+      <c r="C286" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" s="2" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B287" t="s">
         <v>495</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C287" s="6" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="2" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B288" t="s">
         <v>497</v>
       </c>
-      <c r="C287" s="6" t="s">
+      <c r="C288" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="2" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B289" t="s">
         <v>499</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="C289" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" s="2" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>501</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C290" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" s="2" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>503</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C291" s="6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" s="2" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>505</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C292" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" s="2" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>507</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C293" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293" s="2" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B294" t="s">
         <v>509</v>
       </c>
-      <c r="C293" s="6" t="s">
+      <c r="C294" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A294" s="2" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>511</v>
       </c>
-      <c r="C294" s="6" t="s">
+      <c r="C295" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A295" s="2" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B296" t="s">
         <v>513</v>
       </c>
-      <c r="C295" s="6" t="s">
+      <c r="C296" s="6" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A296" s="2" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B297" t="s">
         <v>515</v>
       </c>
-      <c r="C296" s="6" t="s">
+      <c r="C297" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A297" s="2" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B298" t="s">
         <v>517</v>
       </c>
-      <c r="C297" s="6" t="s">
+      <c r="C298" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" s="2" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>519</v>
       </c>
-      <c r="C298" s="6" t="s">
+      <c r="C299" s="6" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299" s="19" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B300" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="C299" s="20" t="s">
+      <c r="C300" s="20" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300" s="19" t="s">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="B300" s="11" t="s">
+      <c r="B301" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="C300" s="20" t="s">
+      <c r="C301" s="20" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" s="8" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B302" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C301" s="6" t="s">
+      <c r="C302" s="6" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" s="2" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B303" t="s">
         <v>527</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C303" s="6" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303" s="2" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>529</v>
       </c>
-      <c r="C303" s="6" t="s">
+      <c r="C304" s="6" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304" s="2" t="s">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B305" t="s">
         <v>531</v>
       </c>
-      <c r="C304" s="6" t="s">
+      <c r="C305" s="6" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" s="2" t="s">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B306" t="s">
         <v>533</v>
       </c>
-      <c r="C305" s="6" t="s">
+      <c r="C306" s="6" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306" s="2" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>535</v>
       </c>
-      <c r="C306" s="6" t="s">
+      <c r="C307" s="6" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307" s="2" t="s">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B308" t="s">
         <v>537</v>
       </c>
-      <c r="C307" s="6" t="s">
+      <c r="C308" s="6" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308" s="2" t="s">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B309" t="s">
         <v>539</v>
       </c>
-      <c r="C308" s="6" t="s">
+      <c r="C309" s="6" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" s="2" t="s">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B310" t="s">
         <v>541</v>
       </c>
-      <c r="C309" s="6" t="s">
+      <c r="C310" s="6" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310" s="2" t="s">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>543</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C311" s="6" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311" s="2" t="s">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B312" t="s">
         <v>545</v>
       </c>
-      <c r="C311" s="6" t="s">
+      <c r="C312" s="6" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" s="2" t="s">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>547</v>
       </c>
-      <c r="C312" s="6" t="s">
+      <c r="C313" s="6" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" s="2" t="s">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" t="s">
         <v>549</v>
       </c>
-      <c r="C313" s="6" t="s">
+      <c r="C314" s="6" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" s="2" t="s">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>551</v>
       </c>
-      <c r="C314" s="6" t="s">
+      <c r="C315" s="6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" s="2" t="s">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>553</v>
       </c>
-      <c r="C315" s="6" t="s">
+      <c r="C316" s="6" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" s="2" t="s">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" t="s">
         <v>555</v>
       </c>
-      <c r="C316" s="6" t="s">
+      <c r="C317" s="6" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" s="2" t="s">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>557</v>
       </c>
-      <c r="C317" s="6" t="s">
+      <c r="C318" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" s="2" t="s">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>559</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C319" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" s="2" t="s">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>561</v>
       </c>
-      <c r="C319" s="6" t="s">
+      <c r="C320" s="6" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" s="2" t="s">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>563</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="C321" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321" s="2" t="s">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>565</v>
       </c>
-      <c r="C321" s="6" t="s">
+      <c r="C322" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322" s="2" t="s">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>567</v>
       </c>
-      <c r="C322" s="6" t="s">
+      <c r="C323" s="6" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" s="2" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>569</v>
       </c>
-      <c r="C323" s="6" t="s">
+      <c r="C324" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" s="2" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>571</v>
       </c>
-      <c r="C324" s="6" t="s">
+      <c r="C325" s="6" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" s="2" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>573</v>
       </c>
-      <c r="C325" s="6" t="s">
+      <c r="C326" s="6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" s="2" t="s">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>575</v>
       </c>
-      <c r="C326" s="6" t="s">
+      <c r="C327" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" s="2" t="s">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>577</v>
       </c>
-      <c r="C327" s="6" t="s">
+      <c r="C328" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" s="2" t="s">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>579</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C329" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329" s="2" t="s">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>581</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C330" s="6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330" s="2" t="s">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>583</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="C331" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" s="2" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>585</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C332" s="6" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" s="2" t="s">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>587</v>
       </c>
-      <c r="C332" s="6" t="s">
+      <c r="C333" s="6" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" s="2" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>589</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C334" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" s="2" t="s">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B335" t="s">
         <v>591</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C335" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" s="14" t="s">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="B335" s="15" t="s">
+      <c r="B336" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="C335" s="6" t="s">
+      <c r="C336" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" s="14" t="s">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="B336" s="15" t="s">
+      <c r="B337" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="C336" s="6" t="s">
+      <c r="C337" s="6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" s="14" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="B337" s="15" t="s">
+      <c r="B338" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="C337" s="6" t="s">
+      <c r="C338" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" s="14" t="s">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="B338" s="15" t="s">
+      <c r="B339" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="C338" s="6" t="s">
+      <c r="C339" s="6" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" s="14" t="s">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B339" s="15" t="s">
+      <c r="B340" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="C339" s="6" t="s">
+      <c r="C340" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" s="14" t="s">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="B340" s="15" t="s">
+      <c r="B341" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="C340" s="6" t="s">
+      <c r="C341" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" s="14" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B341" s="15" t="s">
+      <c r="B342" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="C341" s="6" t="s">
+      <c r="C342" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" s="14" t="s">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="B342" s="15" t="s">
+      <c r="B343" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="C342" s="6" t="s">
+      <c r="C343" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" s="14" t="s">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="B343" s="15" t="s">
+      <c r="B344" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="C343" s="6" t="s">
+      <c r="C344" s="6" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" s="14" t="s">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="B344" s="15" t="s">
+      <c r="B345" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="C344" s="6" t="s">
+      <c r="C345" s="6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" s="14" t="s">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="B345" s="15" t="s">
+      <c r="B346" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="C345" s="6" t="s">
+      <c r="C346" s="6" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" s="14" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="B346" s="15" t="s">
+      <c r="B347" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="C346" s="6" t="s">
+      <c r="C347" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" s="14" t="s">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="B347" s="15" t="s">
+      <c r="B348" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="C347" s="6" t="s">
+      <c r="C348" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" s="14" t="s">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B348" s="15" t="s">
+      <c r="B349" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="C348" s="6" t="s">
+      <c r="C349" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" s="14" t="s">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="B349" s="15" t="s">
+      <c r="B350" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="C349" s="6" t="s">
+      <c r="C350" s="6" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" s="14" t="s">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="B350" s="15" t="s">
+      <c r="B351" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="C350" s="6" t="s">
+      <c r="C351" s="6" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" s="14" t="s">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="B351" s="15" t="s">
+      <c r="B352" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C352" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" s="14" t="s">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B352" s="15" t="s">
+      <c r="B353" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C353" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" s="14" t="s">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="B353" s="15" t="s">
+      <c r="B354" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="C353" s="6" t="s">
+      <c r="C354" s="6" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" s="14" t="s">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="B354" s="15" t="s">
+      <c r="B355" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C354" s="6" t="s">
+      <c r="C355" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" s="14" t="s">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="B355" s="15" t="s">
+      <c r="B356" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="C355" s="6" t="s">
+      <c r="C356" s="6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" s="14" t="s">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="B356" s="15" t="s">
+      <c r="B357" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="C356" s="6" t="s">
+      <c r="C357" s="6" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" s="14" t="s">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="B357" s="15" t="s">
+      <c r="B358" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="C357" s="6" t="s">
+      <c r="C358" s="6" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" s="14" t="s">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="B358" s="15" t="s">
+      <c r="B359" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="C358" s="6" t="s">
+      <c r="C359" s="6" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" s="14" t="s">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="B359" s="15" t="s">
+      <c r="B360" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="C359" s="6" t="s">
+      <c r="C360" s="6" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" s="14" t="s">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="31" t="s">
         <v>642</v>
       </c>
-      <c r="B360" s="15" t="s">
+      <c r="B361" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="C360" s="6" t="s">
+      <c r="C361" s="6" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" s="14" t="s">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="B361" s="15" t="s">
+      <c r="B362" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="C361" s="6" t="s">
+      <c r="C362" s="6" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" s="14" t="s">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="B362" s="15" t="s">
+      <c r="B363" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="C362" s="6" t="s">
+      <c r="C363" s="6" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" s="14" t="s">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="B363" s="15" t="s">
+      <c r="B364" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="C363" s="6" t="s">
+      <c r="C364" s="6" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" s="14" t="s">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="B364" s="15" t="s">
+      <c r="B365" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="C364" s="6" t="s">
+      <c r="C365" s="6" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" s="14" t="s">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="B365" s="15" t="s">
+      <c r="B366" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="C365" s="6" t="s">
+      <c r="C366" s="6" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" s="14" t="s">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="B366" s="15" t="s">
+      <c r="B367" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="C366" s="6" t="s">
+      <c r="C367" s="6" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" s="14" t="s">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="B367" s="15" t="s">
+      <c r="B368" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="C367" s="6" t="s">
+      <c r="C368" s="6" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" s="14" t="s">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="B368" s="15" t="s">
+      <c r="B369" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="C368" s="6" t="s">
+      <c r="C369" s="6" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" s="14" t="s">
+    <row r="370" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A370" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="B369" s="15" t="s">
+      <c r="B370" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="C369" s="6" t="s">
+      <c r="C370" s="6" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A370" s="14" t="s">
+    <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="14" t="s">
         <v>662</v>
       </c>
-      <c r="B370" s="15" t="s">
+      <c r="B371" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C370" s="6" t="s">
+      <c r="C371" s="6" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" s="14" t="s">
+    <row r="372" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="B371" s="15" t="s">
+      <c r="B372" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C371" s="6" t="s">
+      <c r="C372" s="6" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" s="14" t="s">
+    <row r="373" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="B372" s="15" t="s">
+      <c r="B373" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="C372" s="6" t="s">
+      <c r="C373" s="6" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A373" s="14" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="B373" s="15" t="s">
+      <c r="B374" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="C373" s="6" t="s">
+      <c r="C374" s="6" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A374" s="14" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="B374" s="15" t="s">
+      <c r="B375" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="C374" s="6" t="s">
+      <c r="C375" s="6" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A375" s="14" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="B375" s="15" t="s">
+      <c r="B376" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="C375" s="6" t="s">
+      <c r="C376" s="6" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A376" s="14" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="B376" s="15" t="s">
+      <c r="B377" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="C376" s="6" t="s">
+      <c r="C377" s="6" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A377" s="14" t="s">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="B377" s="15" t="s">
+      <c r="B378" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C377" s="6" t="s">
+      <c r="C378" s="6" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A378" s="14" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B378" s="15" t="s">
+      <c r="B379" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="C378" s="6" t="s">
+      <c r="C379" s="6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A379" s="14" t="s">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="B379" s="15" t="s">
+      <c r="B380" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="C379" s="6" t="s">
+      <c r="C380" s="6" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A380" s="14" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="B380" s="15" t="s">
+      <c r="B381" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="C380" s="6" t="s">
+      <c r="C381" s="6" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A381" s="14" t="s">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="14" t="s">
         <v>684</v>
       </c>
-      <c r="B381" s="15" t="s">
+      <c r="B382" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="C381" s="6" t="s">
+      <c r="C382" s="6" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" s="14" t="s">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="B382" s="15" t="s">
+      <c r="B383" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="C382" s="6" t="s">
+      <c r="C383" s="6" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" s="14" t="s">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="B383" s="15" t="s">
+      <c r="B384" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="C383" s="6" t="s">
+      <c r="C384" s="6" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" s="14" t="s">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="B384" s="15" t="s">
+      <c r="B385" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="C384" s="6" t="s">
+      <c r="C385" s="6" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" s="14" t="s">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="B385" s="15" t="s">
+      <c r="B386" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="C385" s="6" t="s">
+      <c r="C386" s="6" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A386" s="19" t="s">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="B386" s="11" t="s">
+      <c r="B387" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="C386" s="6" t="s">
+      <c r="C387" s="6" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A387" s="19" t="s">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="B387" s="11" t="s">
+      <c r="B388" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="C387" s="6" t="s">
+      <c r="C388" s="6" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A388" s="19" t="s">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="B388" s="11" t="s">
+      <c r="B389" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="C388" s="6" t="s">
+      <c r="C389" s="6" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A389" s="19" t="s">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="B389" s="11" t="s">
+      <c r="B390" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="C389" s="6" t="s">
+      <c r="C390" s="6" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A390" s="19" t="s">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="B390" s="11" t="s">
+      <c r="B391" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="C390" s="6" t="s">
+      <c r="C391" s="6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A391" s="19" t="s">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="B391" s="11" t="s">
+      <c r="B392" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="C391" s="6" t="s">
+      <c r="C392" s="6" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A392" s="19" t="s">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="B392" s="11" t="s">
+      <c r="B393" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="C392" s="6" t="s">
+      <c r="C393" s="6" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A393" s="19" t="s">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="B393" s="11" t="s">
+      <c r="B394" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="C393" s="6" t="s">
+      <c r="C394" s="6" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A394" s="19" t="s">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="B394" s="11" t="s">
+      <c r="B395" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C394" s="6" t="s">
+      <c r="C395" s="6" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A395" s="19" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="B395" s="11" t="s">
+      <c r="B396" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="C395" s="6" t="s">
+      <c r="C396" s="6" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A396" s="19" t="s">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="B396" s="11" t="s">
+      <c r="B397" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="C396" s="6" t="s">
+      <c r="C397" s="6" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A397" s="19" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B397" s="11" t="s">
+      <c r="B398" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="C397" s="6" t="s">
+      <c r="C398" s="6" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A398" s="19" t="s">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="B398" s="11" t="s">
+      <c r="B399" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="C398" s="6" t="s">
+      <c r="C399" s="6" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A399" s="19" t="s">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="B399" s="11" t="s">
+      <c r="B400" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C399" s="6" t="s">
+      <c r="C400" s="6" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A400" s="19" t="s">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="B400" s="11" t="s">
+      <c r="B401" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="C400" s="6" t="s">
+      <c r="C401" s="6" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A401" s="21" t="s">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="B401" s="22" t="s">
+      <c r="B402" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="C401" s="6" t="s">
+      <c r="C402" s="6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A402" s="21" t="s">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="B402" s="22" t="s">
+      <c r="B403" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="C402" s="6" t="s">
+      <c r="C403" s="6" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A403" s="21" t="s">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="B403" s="22" t="s">
+      <c r="B404" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="C403" s="6" t="s">
+      <c r="C404" s="6" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A404" s="21" t="s">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="B404" s="22" t="s">
+      <c r="B405" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="C404" s="6" t="s">
+      <c r="C405" s="6" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A405" s="21" t="s">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="B405" s="22" t="s">
+      <c r="B406" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="C405" s="6" t="s">
+      <c r="C406" s="6" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A406" s="21" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="B406" s="22" t="s">
+      <c r="B407" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="C406" s="6" t="s">
+      <c r="C407" s="6" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A407" s="21" t="s">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="B407" s="22" t="s">
+      <c r="B408" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="C407" s="6" t="s">
+      <c r="C408" s="6" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A408" s="21" t="s">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="B408" s="22" t="s">
+      <c r="B409" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="C408" s="6" t="s">
+      <c r="C409" s="6" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A409" s="21" t="s">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="B409" s="22" t="s">
+      <c r="B410" s="22" t="s">
         <v>739</v>
       </c>
-      <c r="C409" s="6" t="s">
+      <c r="C410" s="6" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A410" s="21" t="s">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="B410" s="22" t="s">
+      <c r="B411" s="22" t="s">
         <v>741</v>
       </c>
-      <c r="C410" s="6" t="s">
+      <c r="C411" s="6" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A411" s="21" t="s">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="B411" s="22" t="s">
+      <c r="B412" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="C411" s="6" t="s">
+      <c r="C412" s="6" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A412" s="21" t="s">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="B412" s="22" t="s">
+      <c r="B413" s="22" t="s">
         <v>745</v>
       </c>
-      <c r="C412" s="6" t="s">
+      <c r="C413" s="6" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A413" s="21" t="s">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="B413" s="22" t="s">
+      <c r="B414" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="C413" s="6" t="s">
+      <c r="C414" s="6" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A414" s="21" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="B414" s="22" t="s">
+      <c r="B415" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="C414" s="6" t="s">
+      <c r="C415" s="6" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A415" s="21" t="s">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="B415" s="22" t="s">
+      <c r="B416" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="C415" s="6" t="s">
+      <c r="C416" s="6" t="s">
         <v>750</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825411" xr:uid="{7D0C5552-EB9F-473E-B0DD-CBC3025A93B5}"/>
-    <hyperlink ref="C12" r:id="rId2" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825412" xr:uid="{FA266BC7-FB54-4049-A2AC-8E24A2E945D1}"/>
-    <hyperlink ref="C13" r:id="rId3" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825413" xr:uid="{BBAF59D7-CB6D-4803-8425-EDCD53D9F5B8}"/>
-    <hyperlink ref="C14" r:id="rId4" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825414" xr:uid="{9641237E-55DD-4597-9E28-07BC1CAB9CA1}"/>
-    <hyperlink ref="C15" r:id="rId5" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825415" xr:uid="{2C3D48D3-564F-40E7-B4DD-909AB1004F16}"/>
-    <hyperlink ref="C16" r:id="rId6" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825416" xr:uid="{EDA20C45-E578-4F2A-8E53-2195231AA03C}"/>
-    <hyperlink ref="C17" r:id="rId7" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825419" xr:uid="{62A2039D-2DA7-47AF-A002-924284CEF467}"/>
-    <hyperlink ref="C18" r:id="rId8" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825421" xr:uid="{B8BDE911-A0FD-4A84-81AC-6D2575F42733}"/>
-    <hyperlink ref="C19" r:id="rId9" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825423" xr:uid="{C805C0C9-A1F7-414E-880B-CFC59D4CB354}"/>
-    <hyperlink ref="C20" r:id="rId10" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825426" xr:uid="{FE15F125-B64A-4302-A3C6-7B3958E96F76}"/>
-    <hyperlink ref="C21" r:id="rId11" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825417" xr:uid="{9D12553C-285D-4A48-A326-F67FBA3CA4E2}"/>
-    <hyperlink ref="C22" r:id="rId12" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825418" xr:uid="{38B935A6-F550-455B-86E8-F6C2AF6C9B41}"/>
-    <hyperlink ref="C23" r:id="rId13" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825420" xr:uid="{EE93B5F8-0149-4F35-A234-585B434586FF}"/>
-    <hyperlink ref="C24" r:id="rId14" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825422" xr:uid="{D3A02C9C-1D5A-4F85-95AB-5691BFB25AE4}"/>
-    <hyperlink ref="C25" r:id="rId15" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825424" xr:uid="{A73621EC-60AE-4DB9-B5BF-1B4CA33B4186}"/>
-    <hyperlink ref="C26" r:id="rId16" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825425" xr:uid="{242229C3-7EE8-4E33-9A47-459085B497B7}"/>
-    <hyperlink ref="C27" r:id="rId17" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825427" xr:uid="{4137E96F-77FD-4D56-B8ED-FEF29E29E53A}"/>
-    <hyperlink ref="C28" r:id="rId18" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825428" xr:uid="{9A2B8387-8D1C-410A-A0F9-7CB7D6E5719E}"/>
-    <hyperlink ref="C29" r:id="rId19" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825430" xr:uid="{CA5F5F63-E50E-4657-AD92-94CFC54EA4C0}"/>
-    <hyperlink ref="C30" r:id="rId20" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825431" xr:uid="{ACE04638-A683-429D-8FCE-A20DC3C9D247}"/>
-    <hyperlink ref="C31" r:id="rId21" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825433" xr:uid="{FBA902C4-E518-4122-83A6-59396C6C4606}"/>
-    <hyperlink ref="C32" r:id="rId22" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825434" xr:uid="{27203167-0E96-4B42-A562-CF0D07923A31}"/>
-    <hyperlink ref="C33" r:id="rId23" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825435" xr:uid="{E8B612A5-FFD4-4FCA-ACBA-B180D21DA9D4}"/>
-    <hyperlink ref="C34" r:id="rId24" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825437" xr:uid="{F19D4665-0E2A-42D2-9BEF-42BCA8FFE309}"/>
-    <hyperlink ref="C35" r:id="rId25" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825439" xr:uid="{E985A221-E816-4E46-876A-A6B76D842943}"/>
-    <hyperlink ref="C36" r:id="rId26" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825440" xr:uid="{F29D33E4-11E8-41BF-9F73-2061BF4E9E42}"/>
-    <hyperlink ref="C37" r:id="rId27" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825442" xr:uid="{D7448766-CC74-4010-A5FC-0529CC0CD68C}"/>
-    <hyperlink ref="C38" r:id="rId28" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825443" xr:uid="{06BAC564-7AC8-4BC9-AE76-097BC95013B0}"/>
-    <hyperlink ref="C39" r:id="rId29" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825445" xr:uid="{64626996-6027-4E00-B915-D8DE1D16EED7}"/>
-    <hyperlink ref="C40" r:id="rId30" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825446" xr:uid="{581E05EB-4E09-4690-92A8-FC56B7B46591}"/>
-    <hyperlink ref="C41" r:id="rId31" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825448" xr:uid="{90F276E9-386F-4009-8B8B-DB9E62D45CB1}"/>
-    <hyperlink ref="C42" r:id="rId32" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825450" xr:uid="{9ED9F47D-68D9-4A49-974D-C05447EEB8FD}"/>
-    <hyperlink ref="C43" r:id="rId33" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825451" xr:uid="{4C5F4CA9-5193-46FC-BE61-DEC7B58FD919}"/>
-    <hyperlink ref="C44" r:id="rId34" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825453" xr:uid="{A561AC0B-C35E-4B41-B9CC-7DCD47C646EA}"/>
-    <hyperlink ref="C45" r:id="rId35" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825454" xr:uid="{7D68C4BB-49EA-4C3F-9741-DC1B1281F127}"/>
-    <hyperlink ref="C46" r:id="rId36" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825456" xr:uid="{CAD2DE76-6FEB-48A1-9A35-92AEBE6D9BDB}"/>
-    <hyperlink ref="C47" r:id="rId37" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825458" xr:uid="{DBD9EA7E-EB62-4DE0-A845-79B2E685A52A}"/>
-    <hyperlink ref="C48" r:id="rId38" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825461" xr:uid="{8A4504B8-8C0D-49F0-B15E-B7AECE6065B1}"/>
-    <hyperlink ref="C49" r:id="rId39" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825463" xr:uid="{7C7E2736-013B-4FD3-9688-7F16D4805CD6}"/>
-    <hyperlink ref="C50" r:id="rId40" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825466" xr:uid="{50BF37B1-B3B2-4EE8-BF8A-302F208D6DB3}"/>
-    <hyperlink ref="C51" r:id="rId41" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825469" xr:uid="{4B1722BC-83C4-4A23-8C58-A1529D6113E2}"/>
-    <hyperlink ref="C52" r:id="rId42" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825470" xr:uid="{B949045F-4518-4E9F-8DF1-DC280252AF0D}"/>
-    <hyperlink ref="C53" r:id="rId43" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825475" xr:uid="{8289B1BB-DC40-44D5-A587-4C932DA8E80D}"/>
-    <hyperlink ref="C54" r:id="rId44" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825477" xr:uid="{CA386A17-1B9D-4DF9-8E9B-AC77D22B0F6E}"/>
-    <hyperlink ref="C55" r:id="rId45" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825480" xr:uid="{6D6C8669-9DEC-48B6-ADA6-33FEB457868F}"/>
-    <hyperlink ref="C56" r:id="rId46" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825481" xr:uid="{8061BA15-88D4-4DAB-8238-B46DB50A23CE}"/>
-    <hyperlink ref="C57" r:id="rId47" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825484" xr:uid="{21663EFE-07CD-4103-8FA0-86795220F449}"/>
-    <hyperlink ref="C58" r:id="rId48" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825487" xr:uid="{9120D718-2283-43DA-B126-066B62CCDF61}"/>
-    <hyperlink ref="C59" r:id="rId49" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825488" xr:uid="{36FFF6A8-4B82-4F86-90E3-FE149CFCB379}"/>
-    <hyperlink ref="C60" r:id="rId50" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825491" xr:uid="{3C51198E-B690-47D1-B8B3-2E4566DF12EB}"/>
-    <hyperlink ref="C61" r:id="rId51" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825492" xr:uid="{E71D91DD-3110-4B4F-B443-991BE1BCB632}"/>
-    <hyperlink ref="C62" r:id="rId52" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825495" xr:uid="{43E39BB9-96C8-4991-9705-B8B975ED2629}"/>
-    <hyperlink ref="C63" r:id="rId53" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825499" xr:uid="{54B78B49-9461-4F26-9CC4-F4D93F4CEA8C}"/>
-    <hyperlink ref="C64" r:id="rId54" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825503" xr:uid="{65F89F7B-FF61-493D-B2AA-20CBEF205C5F}"/>
-    <hyperlink ref="C65" r:id="rId55" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825504" xr:uid="{F056C048-3491-4DD2-9D1D-C707ACF9C979}"/>
-    <hyperlink ref="C66" r:id="rId56" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825508" xr:uid="{86EE9AE5-24CC-4C5C-85C9-FD076D95760E}"/>
-    <hyperlink ref="C67" r:id="rId57" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825511" xr:uid="{223D44C6-3384-4054-818E-B5943E50C8F2}"/>
-    <hyperlink ref="C68" r:id="rId58" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825513" xr:uid="{6CED8683-068C-4786-9B43-FCF074D5855B}"/>
-    <hyperlink ref="C69" r:id="rId59" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825517" xr:uid="{96D9E63D-300A-4F88-A485-9DCE1813791F}"/>
-    <hyperlink ref="C70" r:id="rId60" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825521" xr:uid="{7F229C66-1655-4740-80B7-1E789E392E23}"/>
-    <hyperlink ref="C71" r:id="rId61" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825524" xr:uid="{FE46B8FB-D15D-4D8A-8D4D-B9621F14B3B8}"/>
-    <hyperlink ref="C72" r:id="rId62" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825527" xr:uid="{A30F6CB9-73A3-47E0-9160-299A6939C3AB}"/>
-    <hyperlink ref="C73" r:id="rId63" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825531" xr:uid="{14747DFF-F6C9-4455-8DAB-0708797F9477}"/>
-    <hyperlink ref="C74" r:id="rId64" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825535" xr:uid="{C7300438-0C2B-496D-B0F1-4C66979C2CDA}"/>
-    <hyperlink ref="C75" r:id="rId65" display="https://workbench.cisecurity.org/sections/1117053/recommendations/1825537" xr:uid="{37A1E8C3-C8FF-43F5-B745-7BE9D0BE77BB}"/>
-    <hyperlink ref="C76" r:id="rId66" display="https://workbench.cisecurity.org/sections/1117053/recommendations/1825543" xr:uid="{E6A1582E-01C3-427E-82A0-2A4BAADB1992}"/>
-    <hyperlink ref="C77" r:id="rId67" display="https://workbench.cisecurity.org/sections/1117057/recommendations/1825547" xr:uid="{30EC9C22-3BA3-453A-A289-8ACD29673753}"/>
-    <hyperlink ref="C78" r:id="rId68" display="https://workbench.cisecurity.org/sections/1117057/recommendations/1825550" xr:uid="{032FAC77-86E6-4929-B8E8-185E116B22CC}"/>
-    <hyperlink ref="C79" r:id="rId69" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825554" xr:uid="{04FAC81E-1429-43B9-B7FE-F19605133960}"/>
-    <hyperlink ref="C80" r:id="rId70" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825556" xr:uid="{5C388E1C-B994-450E-8F8A-9CC493B76C30}"/>
-    <hyperlink ref="C81" r:id="rId71" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825560" xr:uid="{4A35612D-64E4-4E6E-B938-87C88BC69508}"/>
-    <hyperlink ref="C82" r:id="rId72" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825563" xr:uid="{3A76EE9D-89D3-447B-BB4B-875863C57531}"/>
-    <hyperlink ref="C83" r:id="rId73" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825567" xr:uid="{C27958F7-440D-4A95-82E0-60D00BF8CA28}"/>
-    <hyperlink ref="C84" r:id="rId74" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825571" xr:uid="{C43825A9-DCBF-41D3-92CD-A7B4A42DBA5B}"/>
-    <hyperlink ref="C85" r:id="rId75" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825575" xr:uid="{D93FDEB1-209B-406D-BE9C-9A4EF93722C7}"/>
-    <hyperlink ref="C86" r:id="rId76" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825579" xr:uid="{124C1D01-AC3E-4068-93ED-5FAE169020CA}"/>
-    <hyperlink ref="C87" r:id="rId77" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825582" xr:uid="{62731C14-5D73-4957-A930-7D69F38F6B60}"/>
-    <hyperlink ref="C88" r:id="rId78" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825584" xr:uid="{FD2D4E4E-FE24-45DD-80F7-52C7CC19DCEA}"/>
-    <hyperlink ref="C89" r:id="rId79" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825588" xr:uid="{83CC5962-BB40-4ABB-992D-91181F8E4FFC}"/>
-    <hyperlink ref="C90" r:id="rId80" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825593" xr:uid="{0D902A06-C38C-4128-AC17-9B9F7E641DD0}"/>
-    <hyperlink ref="C91" r:id="rId81" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825595" xr:uid="{B7B70DCD-1EFB-4A6A-AF9C-00AA0FA75D30}"/>
-    <hyperlink ref="C92" r:id="rId82" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825598" xr:uid="{5033C8FB-3AEE-4A27-9BF8-A3F2B910849A}"/>
-    <hyperlink ref="C93" r:id="rId83" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825601" xr:uid="{C4B7FE47-34DD-4486-96A3-1653B3F9D482}"/>
-    <hyperlink ref="C94" r:id="rId84" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825603" xr:uid="{E9328855-477E-4ED8-9C0E-9FD7537CDB04}"/>
-    <hyperlink ref="C95" r:id="rId85" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825605" xr:uid="{40909A9E-2F4F-44CC-9E4D-D666DC52A772}"/>
-    <hyperlink ref="C96" r:id="rId86" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825607" xr:uid="{D53FF91E-D77D-4384-822C-67F8962C16B6}"/>
-    <hyperlink ref="C97" r:id="rId87" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825609" xr:uid="{2198778C-267E-49F5-997A-D069C1FF8292}"/>
-    <hyperlink ref="C98" r:id="rId88" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825611" xr:uid="{91F160EE-1B44-4400-BE2D-B3D5A1758748}"/>
-    <hyperlink ref="C99" r:id="rId89" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825613" xr:uid="{08578B38-E6C3-488D-86ED-E7F7BBC9A4FB}"/>
-    <hyperlink ref="C100" r:id="rId90" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825615" xr:uid="{36BD6799-48AD-4DA8-A20A-95109D3BD696}"/>
-    <hyperlink ref="C101" r:id="rId91" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825617" xr:uid="{5DDFE08B-DD51-47B3-9A87-BC93A21673E2}"/>
-    <hyperlink ref="C102" r:id="rId92" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825619" xr:uid="{7AC8C382-744F-4027-BD69-EFF949B1DAB0}"/>
-    <hyperlink ref="C103" r:id="rId93" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825620" xr:uid="{0C7CF5BD-F2B4-4429-B755-B24D15B29242}"/>
-    <hyperlink ref="C104" r:id="rId94" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825621" xr:uid="{D559E65C-7E71-4A60-BD96-7762B4D89075}"/>
-    <hyperlink ref="C105" r:id="rId95" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825623" xr:uid="{6BB7349E-B2A1-42A9-92D9-0E0B148449A9}"/>
-    <hyperlink ref="C106" r:id="rId96" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825624" xr:uid="{A3C71FDC-40DA-4E81-8527-7DE91B07B22F}"/>
-    <hyperlink ref="C107" r:id="rId97" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825625" xr:uid="{BDDBA8D4-BFCB-4FA7-AC15-455E1EC4289D}"/>
-    <hyperlink ref="C108" r:id="rId98" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825627" xr:uid="{F445DF54-05C3-4167-B1A5-4D502AF183CD}"/>
-    <hyperlink ref="C109" r:id="rId99" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825628" xr:uid="{9D8CB9DA-01DD-49F4-A215-86B6A3735283}"/>
-    <hyperlink ref="C110" r:id="rId100" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825630" xr:uid="{6B9A3F83-9011-488C-874B-4D13CB7D2D62}"/>
-    <hyperlink ref="C111" r:id="rId101" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825632" xr:uid="{723C5D18-2AFA-47DC-9A99-E215D4C5DE63}"/>
-    <hyperlink ref="C112" r:id="rId102" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825634" xr:uid="{B2E7A51C-40CA-4B5B-B28C-36DB4207ED77}"/>
-    <hyperlink ref="C113" r:id="rId103" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825636" xr:uid="{BE52B05E-0A00-4E53-A26B-4BA294FBD5CB}"/>
-    <hyperlink ref="C114" r:id="rId104" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825637" xr:uid="{8F6A221D-DE1E-4F10-8600-2BBA2F61A6B0}"/>
-    <hyperlink ref="C115" r:id="rId105" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825638" xr:uid="{F60AD0E3-BDD9-4679-8E3C-C73B2276FD4C}"/>
-    <hyperlink ref="C116" r:id="rId106" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825640" xr:uid="{A16960CC-C3FB-4A92-8876-1D221D741697}"/>
-    <hyperlink ref="C117" r:id="rId107" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825642" xr:uid="{59789FED-1A43-402E-ABC7-9E586F531873}"/>
-    <hyperlink ref="C118" r:id="rId108" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825643" xr:uid="{439737BE-3FDB-409F-9450-1168E4DEBEB3}"/>
-    <hyperlink ref="C120" r:id="rId109" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825646" xr:uid="{0FF8D7AA-2C54-4C94-9321-5F1041B4133A}"/>
-    <hyperlink ref="C121" r:id="rId110" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825648" xr:uid="{45FEE086-17DE-4CE7-AC24-341D8A785635}"/>
-    <hyperlink ref="C122" r:id="rId111" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825650" xr:uid="{B6BC0BC9-C3B6-4F1C-9525-37E06D716479}"/>
-    <hyperlink ref="C123" r:id="rId112" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825651" xr:uid="{D69A5762-488E-4461-80D4-4C95C900EC20}"/>
-    <hyperlink ref="C124" r:id="rId113" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825653" xr:uid="{B5B8E009-9EDD-4FA1-9109-A2842908022A}"/>
-    <hyperlink ref="C125" r:id="rId114" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825656" xr:uid="{48FD525E-0EBF-4E88-AAAB-2AC2BB919264}"/>
-    <hyperlink ref="C126" r:id="rId115" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825657" xr:uid="{FA7FCF51-7DEB-4E1F-A1DD-779ABE61AA62}"/>
-    <hyperlink ref="C127" r:id="rId116" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825659" xr:uid="{CEBBA353-5721-4E76-8136-6885606F83F9}"/>
-    <hyperlink ref="C128" r:id="rId117" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825661" xr:uid="{67B3CF0C-E01F-4F2D-892F-8907F0C40020}"/>
-    <hyperlink ref="C130" r:id="rId118" display="https://workbench.cisecurity.org/sections/1117165/recommendations/1825664" xr:uid="{1F0598B6-45D5-4ED5-8975-D07B93AA1576}"/>
-    <hyperlink ref="C131" r:id="rId119" display="https://workbench.cisecurity.org/sections/1117168/recommendations/1825667" xr:uid="{C81614DD-65EB-495A-B499-3DB41ED55DB8}"/>
-    <hyperlink ref="C132" r:id="rId120" display="https://workbench.cisecurity.org/sections/1117168/recommendations/1825668" xr:uid="{4889D8C6-5895-4580-AC24-5373328085E3}"/>
-    <hyperlink ref="C133" r:id="rId121" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825672" xr:uid="{D7DFE626-F490-429E-BFA6-8327F969C1F7}"/>
-    <hyperlink ref="C134" r:id="rId122" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825674" xr:uid="{EA2264A7-C566-471B-9803-4CE287B9D42D}"/>
-    <hyperlink ref="C135" r:id="rId123" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825676" xr:uid="{624F6FAF-CF2B-4898-9D8A-4280BE4D6C1B}"/>
-    <hyperlink ref="C136" r:id="rId124" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825678" xr:uid="{F359BCB7-C22B-4F93-A18A-15E9ABE1F7EE}"/>
-    <hyperlink ref="C137" r:id="rId125" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825680" xr:uid="{0D1BF434-FD57-4926-8AB3-2B456BB5D418}"/>
-    <hyperlink ref="C138" r:id="rId126" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825682" xr:uid="{35798869-BD20-4F56-AD65-C2D548CC820D}"/>
-    <hyperlink ref="C139" r:id="rId127" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825684" xr:uid="{5CBA3037-708B-4B75-9C73-9A3B9737DDC6}"/>
-    <hyperlink ref="C140" r:id="rId128" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825686" xr:uid="{B2D5D2C8-0925-4D97-8162-B378545DC6E1}"/>
-    <hyperlink ref="C141" r:id="rId129" display="https://workbench.cisecurity.org/sections/1117018/recommendations/1825429" xr:uid="{E3BBF73F-EB33-4D82-91E3-DB6F6A124371}"/>
-    <hyperlink ref="C142" r:id="rId130" display="https://workbench.cisecurity.org/sections/1117018/recommendations/1825432" xr:uid="{97FE6FA5-36E6-4512-AE5F-90AF7BB63D07}"/>
-    <hyperlink ref="C143" r:id="rId131" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825436" xr:uid="{260D04C8-E038-4149-9C5D-602AFDD8B3AC}"/>
-    <hyperlink ref="C144" r:id="rId132" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825438" xr:uid="{938B9880-021E-41AF-8299-D005A078918F}"/>
-    <hyperlink ref="C145" r:id="rId133" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825441" xr:uid="{8DCF57BA-80B0-4E39-B783-72F0FA0F0C92}"/>
-    <hyperlink ref="C146" r:id="rId134" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825444" xr:uid="{7EDF1D4A-CC21-4510-A088-CEA9C811D176}"/>
-    <hyperlink ref="C147" r:id="rId135" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825447" xr:uid="{EEBF86A6-380D-4CB0-A5DB-6936C602B951}"/>
-    <hyperlink ref="C148" r:id="rId136" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825449" xr:uid="{F8E4832E-CDC8-4C62-8559-069FF380DD76}"/>
-    <hyperlink ref="C149" r:id="rId137" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825452" xr:uid="{93B31445-242E-49D2-9D41-FC258D825220}"/>
-    <hyperlink ref="C150" r:id="rId138" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825455" xr:uid="{D3D7D0AC-F200-4793-8487-A6E9EA4B570F}"/>
-    <hyperlink ref="C169" r:id="rId139" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825457" xr:uid="{C40B79A6-18A7-47EB-9199-298C264B4307}"/>
-    <hyperlink ref="C170" r:id="rId140" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825460" xr:uid="{522E23E4-9216-41A5-8987-37B49C56A0CD}"/>
-    <hyperlink ref="C171" r:id="rId141" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825462" xr:uid="{965D2E7D-29C3-4ECB-A625-6F73A631158C}"/>
-    <hyperlink ref="C172" r:id="rId142" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825465" xr:uid="{012A7BF2-6AFB-42EB-BFC0-17607890B057}"/>
-    <hyperlink ref="C173" r:id="rId143" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825468" xr:uid="{50717CA2-B851-4208-BF48-57E2691805F0}"/>
-    <hyperlink ref="C174" r:id="rId144" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825472" xr:uid="{1696E1C3-26E2-4CBC-AF4B-8EBAAAD7AADD}"/>
-    <hyperlink ref="C175" r:id="rId145" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825476" xr:uid="{7F185A1C-79A9-405A-BA22-0C84CA2937FA}"/>
-    <hyperlink ref="C176" r:id="rId146" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825479" xr:uid="{9291B7F9-95F5-49FD-B2BA-2730340AB124}"/>
-    <hyperlink ref="C177" r:id="rId147" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825483" xr:uid="{1B113A1D-B675-4B90-8DBD-803685BEEFE6}"/>
-    <hyperlink ref="C178" r:id="rId148" display="https://workbench.cisecurity.org/sections/1117035/recommendations/1825485" xr:uid="{A113A592-8D0B-42A3-AE35-654E24D86903}"/>
-    <hyperlink ref="C179" r:id="rId149" display="https://workbench.cisecurity.org/sections/1117035/recommendations/1825489" xr:uid="{B0F7DA60-AD77-4A86-BB3A-37B6F8666164}"/>
-    <hyperlink ref="C180" r:id="rId150" display="https://workbench.cisecurity.org/sections/1117037/recommendations/1825493" xr:uid="{F85CF96C-73C3-4C1C-B736-D937F72F8FA8}"/>
-    <hyperlink ref="C181" r:id="rId151" display="https://workbench.cisecurity.org/sections/1117037/recommendations/1825496" xr:uid="{2FBFC23B-4831-456C-BDCC-C05014FDF3D1}"/>
-    <hyperlink ref="C182" r:id="rId152" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825500" xr:uid="{3811CE7D-A841-40BD-AA5A-A46D23406178}"/>
-    <hyperlink ref="C183" r:id="rId153" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825506" xr:uid="{B6807F75-BAB7-48A6-A50D-8DCB39D97872}"/>
-    <hyperlink ref="C184" r:id="rId154" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825510" xr:uid="{A88D3CFB-304E-4D9F-9216-2B6C262AF0ED}"/>
-    <hyperlink ref="C185" r:id="rId155" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825516" xr:uid="{86C26B3C-2052-4626-874E-2A2D07120DAD}"/>
-    <hyperlink ref="C186" r:id="rId156" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825518" xr:uid="{A4313095-F1F6-4E31-9B1F-D9AE6BA61C20}"/>
-    <hyperlink ref="C187" r:id="rId157" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825522" xr:uid="{C9CBE815-4386-4DF4-8C84-84E287E42C9D}"/>
-    <hyperlink ref="C188" r:id="rId158" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825525" xr:uid="{35880342-F342-4B02-9807-FC9DB6768BF6}"/>
-    <hyperlink ref="C189" r:id="rId159" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825529" xr:uid="{AB0FE423-7809-4EF2-AC64-E6ADB5D418C1}"/>
-    <hyperlink ref="C190" r:id="rId160" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825532" xr:uid="{1BD58792-16D3-49B1-B9A3-2508C5D59B75}"/>
-    <hyperlink ref="C191" r:id="rId161" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825536" xr:uid="{3D3D7AC5-4D50-4A5E-B2F7-781FA54C080E}"/>
-    <hyperlink ref="C192" r:id="rId162" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825540" xr:uid="{8BDBE780-2AC1-4979-A2E8-BD1A12A69D42}"/>
-    <hyperlink ref="C193" r:id="rId163" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825544" xr:uid="{30230B7D-FB84-4B9C-ABE8-86A71A3237C2}"/>
-    <hyperlink ref="C194" r:id="rId164" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825548" xr:uid="{6B4F427D-85CB-4CC8-BA1A-F4FAC19DABEF}"/>
-    <hyperlink ref="C195" r:id="rId165" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825551" xr:uid="{8DC30B6C-A5B8-4533-932C-131AF6A9B454}"/>
-    <hyperlink ref="C196" r:id="rId166" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825555" xr:uid="{E74C7F8A-0172-43DD-B70D-0FFB4EE54697}"/>
-    <hyperlink ref="C197" r:id="rId167" display="https://workbench.cisecurity.org/sections/1117070/recommendations/1825558" xr:uid="{05D8C471-D44B-4D52-B27D-587D6CBD93C1}"/>
-    <hyperlink ref="C198" r:id="rId168" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825562" xr:uid="{7AD15CF6-05E5-4D00-B974-57905406D4A9}"/>
-    <hyperlink ref="C199" r:id="rId169" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825565" xr:uid="{00421274-F63D-4AD2-8259-E08443CFAA17}"/>
-    <hyperlink ref="C200" r:id="rId170" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825568" xr:uid="{96B58D57-B9A8-46EF-9A02-B85E5F4E507A}"/>
-    <hyperlink ref="C201" r:id="rId171" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825572" xr:uid="{DED8A4CD-E9D6-495F-9D34-9B7B374C234E}"/>
-    <hyperlink ref="C202" r:id="rId172" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825576" xr:uid="{BCFBDE1A-2005-40EF-B251-F42F755C471B}"/>
-    <hyperlink ref="C206" r:id="rId173" display="https://workbench.cisecurity.org/sections/1117040/recommendations/1825515" xr:uid="{F7A3D654-3750-46FB-A49E-E2E3B1324EC7}"/>
-    <hyperlink ref="C203" r:id="rId174" display="https://workbench.cisecurity.org/sections/1117041/recommendations/1825502" xr:uid="{4861C41E-B322-4E88-A39E-B4ACCF2DB4CC}"/>
-    <hyperlink ref="C204" r:id="rId175" display="https://workbench.cisecurity.org/sections/1117041/recommendations/1825507" xr:uid="{F6C5F3B3-0AD5-4E74-AF34-B318F8BBCBB8}"/>
-    <hyperlink ref="C205" r:id="rId176" display="https://workbench.cisecurity.org/sections/1117042/recommendations/1825512" xr:uid="{F5F00FAE-DD91-4295-ADD9-083080850296}"/>
-    <hyperlink ref="C213" r:id="rId177" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825546" xr:uid="{0259BDC1-9C52-43D7-A5C9-856883F499E8}"/>
-    <hyperlink ref="C214" r:id="rId178" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825553" xr:uid="{EBD37EF1-933A-4DE2-BFB8-6AA1C71C2E43}"/>
-    <hyperlink ref="C215" r:id="rId179" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825557" xr:uid="{0C4C80F2-FB4C-46BD-B863-EF4B13870032}"/>
-    <hyperlink ref="C216" r:id="rId180" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825561" xr:uid="{1DF1C9A8-5DED-4EEB-ACAC-7C2770B1519E}"/>
-    <hyperlink ref="C217" r:id="rId181" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825570" xr:uid="{276659A9-805A-4FD6-8F0A-7F68F2538F6E}"/>
-    <hyperlink ref="C218" r:id="rId182" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825574" xr:uid="{FA78B15E-F0CF-4645-B828-BF951311661B}"/>
-    <hyperlink ref="C219" r:id="rId183" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825578" xr:uid="{1701733A-D084-4A28-9D5D-0E79D06E58B9}"/>
-    <hyperlink ref="C220" r:id="rId184" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825581" xr:uid="{0956E9BA-3923-4C2B-A330-4F05291027BC}"/>
-    <hyperlink ref="C221" r:id="rId185" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825585" xr:uid="{66390F64-5B13-4285-8064-7636B611FBE9}"/>
-    <hyperlink ref="C222" r:id="rId186" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825587" xr:uid="{CB01C30E-76BD-4696-8689-463E779652DD}"/>
-    <hyperlink ref="C223" r:id="rId187" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825589" xr:uid="{C59C3983-2261-4F3A-87EF-7C975FE15260}"/>
-    <hyperlink ref="C224" r:id="rId188" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825592" xr:uid="{3A79E946-7269-44AE-BBF4-86DBC42F749A}"/>
-    <hyperlink ref="C225" r:id="rId189" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825594" xr:uid="{A245E557-8586-44B5-9C3A-0D57AB922103}"/>
-    <hyperlink ref="C226" r:id="rId190" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825597" xr:uid="{0EDA4EE7-429D-4588-B943-979D9ACE7125}"/>
-    <hyperlink ref="C227" r:id="rId191" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825599" xr:uid="{01BB594F-0BD0-49D3-96E1-CF55AB414E44}"/>
-    <hyperlink ref="C228" r:id="rId192" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825602" xr:uid="{D94513EA-A6B4-4CB9-B3FB-285449FF212E}"/>
-    <hyperlink ref="C229" r:id="rId193" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825604" xr:uid="{C0941664-003F-4DFE-A158-78A94E3B438F}"/>
-    <hyperlink ref="C230" r:id="rId194" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825606" xr:uid="{9D936FF5-1E60-489D-8E5F-54AFFA77BCF2}"/>
-    <hyperlink ref="C231" r:id="rId195" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825608" xr:uid="{E84CDD0C-2DBE-4404-969B-6B32A4E9D55B}"/>
-    <hyperlink ref="C232" r:id="rId196" display="https://workbench.cisecurity.org/sections/1117131/recommendations/1825610" xr:uid="{14B5530C-C902-462B-B725-D882F40155D3}"/>
-    <hyperlink ref="C233" r:id="rId197" display="https://workbench.cisecurity.org/sections/1117131/recommendations/1825612" xr:uid="{6F72B70A-C4C4-4133-8177-6BC024168F28}"/>
-    <hyperlink ref="C234" r:id="rId198" display="https://workbench.cisecurity.org/sections/1117133/recommendations/1825614" xr:uid="{900DA61C-9B65-409C-AFAE-9E09A9AE295D}"/>
-    <hyperlink ref="C235" r:id="rId199" display="https://workbench.cisecurity.org/sections/1117136/recommendations/1825616" xr:uid="{0E0CB621-2A09-4600-A2AA-B6A04B11CF8D}"/>
-    <hyperlink ref="C236" r:id="rId200" display="https://workbench.cisecurity.org/sections/1117137/recommendations/1825618" xr:uid="{200AE59B-61C3-469A-BAD9-AFF4D38D5F1E}"/>
-    <hyperlink ref="C237" r:id="rId201" display="https://workbench.cisecurity.org/sections/1117137/recommendations/1825622" xr:uid="{A1BC8217-8549-4145-9EA4-E21A5016B0E2}"/>
-    <hyperlink ref="C238" r:id="rId202" display="https://workbench.cisecurity.org/sections/1117140/recommendations/1825626" xr:uid="{89BFA654-CCB1-46B1-AB2B-BA98B5313EC3}"/>
-    <hyperlink ref="C239" r:id="rId203" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825629" xr:uid="{6BAD3049-535B-4819-AC08-D09739880F87}"/>
-    <hyperlink ref="C240" r:id="rId204" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825631" xr:uid="{6EE983CD-19D0-4D92-9A80-0F4035247102}"/>
-    <hyperlink ref="C241" r:id="rId205" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825633" xr:uid="{C9BBB676-1ABA-40D2-936B-F6D5DD2E0084}"/>
-    <hyperlink ref="C242" r:id="rId206" display="https://workbench.cisecurity.org/sections/1117146/recommendations/1825635" xr:uid="{471C413E-399D-449F-89E9-36F48F3BDE8F}"/>
-    <hyperlink ref="C243" r:id="rId207" display="https://workbench.cisecurity.org/sections/1117153/recommendations/1825639" xr:uid="{A07AFF57-860D-404D-84B9-CC532F7D85D8}"/>
-    <hyperlink ref="C244" r:id="rId208" display="https://workbench.cisecurity.org/sections/1117154/recommendations/1825641" xr:uid="{6CAE56CF-D945-48D3-AEE2-AF23C0EF3B52}"/>
-    <hyperlink ref="C245" r:id="rId209" display="https://workbench.cisecurity.org/sections/1117154/recommendations/1825645" xr:uid="{942ABD51-9FC2-4CD8-AB4C-C7781BD2AD9B}"/>
-    <hyperlink ref="C246" r:id="rId210" display="https://workbench.cisecurity.org/sections/1117156/recommendations/1825647" xr:uid="{2DC1B17C-E898-47D8-B26C-C584CBBDB45C}"/>
-    <hyperlink ref="C247" r:id="rId211" display="https://workbench.cisecurity.org/sections/1117156/recommendations/1825652" xr:uid="{7F755417-1B62-41F6-BC53-A260B56D58D1}"/>
-    <hyperlink ref="C248" r:id="rId212" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825654" xr:uid="{DC9DBC88-ECEA-4FE2-B409-F59A7D096E27}"/>
-    <hyperlink ref="C249" r:id="rId213" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825655" xr:uid="{65880178-3DEC-4D84-830E-7F85312E947B}"/>
-    <hyperlink ref="C250" r:id="rId214" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825658" xr:uid="{31797B12-2228-4D93-846A-3E47203CF108}"/>
-    <hyperlink ref="C251" r:id="rId215" display="https://workbench.cisecurity.org/sections/1117159/recommendations/1825660" xr:uid="{DBC21B7A-091F-4C5D-B881-B6B8274D99E1}"/>
-    <hyperlink ref="C252" r:id="rId216" display="https://workbench.cisecurity.org/sections/1117163/recommendations/1825663" xr:uid="{1A3C8FA0-15F5-4761-83EB-FBE2A7BDF648}"/>
-    <hyperlink ref="C255" r:id="rId217" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825669" xr:uid="{56AF01C3-532F-4AD9-961D-A8FB21114F89}"/>
-    <hyperlink ref="C256" r:id="rId218" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825671" xr:uid="{606BCD85-1414-49F1-97BF-06B7D4A27116}"/>
-    <hyperlink ref="C257" r:id="rId219" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825673" xr:uid="{5E0A02F2-4814-4E01-BCF7-37E9FCB21981}"/>
-    <hyperlink ref="C258" r:id="rId220" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825675" xr:uid="{ACD95963-9BFB-468D-A077-A1668A4DBFB6}"/>
-    <hyperlink ref="C259" r:id="rId221" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825677" xr:uid="{742EBF31-F28E-498F-9B54-712884C56EDE}"/>
-    <hyperlink ref="C260" r:id="rId222" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825679" xr:uid="{8C730493-1EE7-414A-A470-89F45956FAFC}"/>
-    <hyperlink ref="C261" r:id="rId223" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825681" xr:uid="{4A7D4413-92D7-42A8-9C15-79EA243A7398}"/>
-    <hyperlink ref="C262" r:id="rId224" display="https://workbench.cisecurity.org/sections/1117173/recommendations/1825685" xr:uid="{6565135C-0D01-45D1-9D3D-B55B9F948EE8}"/>
-    <hyperlink ref="C263" r:id="rId225" display="https://workbench.cisecurity.org/sections/1117181/recommendations/1825687" xr:uid="{A6340EAB-8693-4C9F-BBF9-CD129108D6E2}"/>
-    <hyperlink ref="C264" r:id="rId226" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825688" xr:uid="{9F685D80-0422-4AD0-A1B1-D01E1B3CE70A}"/>
-    <hyperlink ref="C265" r:id="rId227" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825689" xr:uid="{1C94043E-D883-4914-B6C1-FFEC956F6DCE}"/>
-    <hyperlink ref="C266" r:id="rId228" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825690" xr:uid="{CB94670C-B58C-4A19-8461-680D0ADE0496}"/>
-    <hyperlink ref="C267" r:id="rId229" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825691" xr:uid="{89EF1492-503D-42C9-9CAA-C68959BE9171}"/>
-    <hyperlink ref="C268" r:id="rId230" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825692" xr:uid="{9A0983DB-6738-422C-8CBF-01EBA974CA75}"/>
-    <hyperlink ref="C269" r:id="rId231" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825693" xr:uid="{C5F4F4BC-CEA3-4F14-8B52-C26B5390C105}"/>
-    <hyperlink ref="C270" r:id="rId232" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825694" xr:uid="{7E832D11-1F44-4B3D-97E4-7F70801019B0}"/>
-    <hyperlink ref="C271" r:id="rId233" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825695" xr:uid="{AB159C5E-7ACB-4EFB-BA12-8C0FE7FDA968}"/>
-    <hyperlink ref="C272" r:id="rId234" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825696" xr:uid="{2E580628-8FDD-410F-BC47-949860CC9629}"/>
-    <hyperlink ref="C273" r:id="rId235" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825698" xr:uid="{D0FF6951-8F37-4D4F-AC9D-6077D2C2F4F9}"/>
-    <hyperlink ref="C274" r:id="rId236" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825699" xr:uid="{3C1FD09F-77BA-4E6A-8564-6BCF9B76B570}"/>
-    <hyperlink ref="C275" r:id="rId237" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825700" xr:uid="{2B7A15F4-3F14-406A-8735-F4EE46A3BC20}"/>
-    <hyperlink ref="C276" r:id="rId238" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825701" xr:uid="{9B5B9C32-D022-4408-BB1F-4D64AF1C6DBB}"/>
-    <hyperlink ref="C277" r:id="rId239" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825702" xr:uid="{8C9CCBC7-D17B-40D5-9F00-4437C8B60624}"/>
-    <hyperlink ref="C278" r:id="rId240" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825703" xr:uid="{7A4F761E-8815-44C7-AD28-7E5D9D265E26}"/>
-    <hyperlink ref="C279" r:id="rId241" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825704" xr:uid="{FECA4422-6E72-4E95-8DC3-94621A6AF51D}"/>
-    <hyperlink ref="C280" r:id="rId242" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825705" xr:uid="{F10AEB7B-4997-41D5-8ECD-859558380ED5}"/>
-    <hyperlink ref="C281" r:id="rId243" display="https://workbench.cisecurity.org/sections/1117194/recommendations/1825706" xr:uid="{E499F1F9-1D4C-44CE-A8B7-92DF8C8C4C9F}"/>
-    <hyperlink ref="C282" r:id="rId244" display="https://workbench.cisecurity.org/sections/1117195/recommendations/1825707" xr:uid="{2280A042-E75F-496F-BEB0-B7E3103F5C9E}"/>
-    <hyperlink ref="C283" r:id="rId245" display="https://workbench.cisecurity.org/sections/1117196/recommendations/1825708" xr:uid="{21A3161D-FB9F-491F-9B23-52932F50BFC2}"/>
-    <hyperlink ref="C284" r:id="rId246" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825710" xr:uid="{DE5F4B21-3321-4220-9CA1-0188E708756E}"/>
-    <hyperlink ref="C285" r:id="rId247" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825711" xr:uid="{77467936-CAC5-4DD2-8F2B-B52879F8EAD2}"/>
-    <hyperlink ref="C286" r:id="rId248" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825712" xr:uid="{395B816A-F97E-4681-BCB5-C4663F51B251}"/>
-    <hyperlink ref="C287" r:id="rId249" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825713" xr:uid="{7B48F277-C848-4E9E-B210-0464EADB2F8C}"/>
-    <hyperlink ref="C288" r:id="rId250" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825714" xr:uid="{E73EAAB1-C94C-48B1-83C3-5CB06D7E217D}"/>
-    <hyperlink ref="C289" r:id="rId251" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825715" xr:uid="{4F03FD29-AECC-4E09-9395-B700A19C559A}"/>
-    <hyperlink ref="C290" r:id="rId252" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825716" xr:uid="{0BB095E0-DA0D-4F46-A71A-E05D0939CD91}"/>
-    <hyperlink ref="C291" r:id="rId253" display="https://workbench.cisecurity.org/sections/1117200/recommendations/1825717" xr:uid="{F346EF11-888B-4ECF-B31E-F7E96F30DA78}"/>
-    <hyperlink ref="C292" r:id="rId254" display="https://workbench.cisecurity.org/sections/1117200/recommendations/1825718" xr:uid="{2E19C594-DC27-4590-AC6C-E9BE62099BFE}"/>
-    <hyperlink ref="C293" r:id="rId255" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825719" xr:uid="{CB4A13C2-6817-43C1-A1E6-36C6BC0806F6}"/>
-    <hyperlink ref="C294" r:id="rId256" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825720" xr:uid="{84872009-C57D-413A-8C20-16E764F0188C}"/>
-    <hyperlink ref="C295" r:id="rId257" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825721" xr:uid="{461F9795-74F2-4695-B31E-44B63A1E01E0}"/>
-    <hyperlink ref="C296" r:id="rId258" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825722" xr:uid="{0083E7FE-C8BA-4865-BA9B-71590D9B5BDB}"/>
-    <hyperlink ref="C297" r:id="rId259" display="https://workbench.cisecurity.org/sections/1117211/recommendations/1825723" xr:uid="{299E36EB-BED2-4417-B0A7-2E5F41537434}"/>
-    <hyperlink ref="C298" r:id="rId260" display="https://workbench.cisecurity.org/sections/1117211/recommendations/1825724" xr:uid="{473F1C85-FB0D-455F-97AB-7F0AA5C5015F}"/>
-    <hyperlink ref="C299" r:id="rId261" display="https://workbench.cisecurity.org/sections/1117212/recommendations/1825725" xr:uid="{5388E80C-533B-4737-BC09-3A929490EC54}"/>
-    <hyperlink ref="C300" r:id="rId262" display="https://workbench.cisecurity.org/sections/1117212/recommendations/1825726" xr:uid="{F7A6354C-459B-4AAC-8DBC-E361200CEA42}"/>
-    <hyperlink ref="C301" r:id="rId263" display="https://workbench.cisecurity.org/sections/1117215/recommendations/1825727" xr:uid="{F1B2F1A9-06ED-4EC6-A278-CBFEAC6C6751}"/>
-    <hyperlink ref="C302" r:id="rId264" display="https://workbench.cisecurity.org/sections/1117228/recommendations/1825728" xr:uid="{2770382D-1897-4FCF-93D4-5E4E15B1B2DD}"/>
-    <hyperlink ref="C303" r:id="rId265" display="https://workbench.cisecurity.org/sections/1117234/recommendations/1825729" xr:uid="{E5E25D47-B5CB-49AF-88B0-2A8CB32B8EC0}"/>
-    <hyperlink ref="C304" r:id="rId266" display="https://workbench.cisecurity.org/sections/1117236/recommendations/1825730" xr:uid="{B7F99A28-87FC-4558-957D-2718B53EBE6C}"/>
-    <hyperlink ref="C305" r:id="rId267" display="https://workbench.cisecurity.org/sections/1117240/recommendations/1825731" xr:uid="{B6A66A66-F785-46F6-9F3B-2E1A51EC95DC}"/>
-    <hyperlink ref="C306" r:id="rId268" display="https://workbench.cisecurity.org/sections/1117240/recommendations/1825732" xr:uid="{9C4FF5E3-2098-4DFD-B826-8C0632AAAAFE}"/>
-    <hyperlink ref="C307" r:id="rId269" display="https://workbench.cisecurity.org/sections/1117245/recommendations/1825733" xr:uid="{209919DF-E574-4EFE-B005-0E9F5EC2FF21}"/>
-    <hyperlink ref="C308" r:id="rId270" display="https://workbench.cisecurity.org/sections/1117247/recommendations/1825734" xr:uid="{571F3CE5-C93E-4F9E-9B38-AFD7D1D46A49}"/>
-    <hyperlink ref="C309" r:id="rId271" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825735" xr:uid="{08AF651E-25E0-47E7-8DEB-C21B461F6BC1}"/>
-    <hyperlink ref="C310" r:id="rId272" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825736" xr:uid="{42C506A9-21F3-4527-B882-E2803D5288A9}"/>
-    <hyperlink ref="C311" r:id="rId273" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825737" xr:uid="{4A57AEE5-5D03-4E2A-9269-2B7E46685DBF}"/>
-    <hyperlink ref="C312" r:id="rId274" display="https://workbench.cisecurity.org/sections/1117252/recommendations/1825738" xr:uid="{8406A8E4-936C-41D7-B5A6-4743777B2FE5}"/>
-    <hyperlink ref="C313" r:id="rId275" display="https://workbench.cisecurity.org/sections/1117254/recommendations/1825739" xr:uid="{0BEB68F5-F26C-4DD6-89A6-9573C4098107}"/>
-    <hyperlink ref="C314" r:id="rId276" display="https://workbench.cisecurity.org/sections/1117256/recommendations/1825740" xr:uid="{413F16BC-8042-4B4F-AE70-A1327FA260B5}"/>
-    <hyperlink ref="C315" r:id="rId277" display="https://workbench.cisecurity.org/sections/1117256/recommendations/1825742" xr:uid="{1847B836-A6DB-4371-8640-B3DB39EF6C6B}"/>
-    <hyperlink ref="C316" r:id="rId278" display="https://workbench.cisecurity.org/sections/1117257/recommendations/1825743" xr:uid="{4CAA3B6B-336B-4A79-923A-93D0AC95E973}"/>
-    <hyperlink ref="C317" r:id="rId279" display="https://workbench.cisecurity.org/sections/1117258/recommendations/1825744" xr:uid="{EA524355-39AD-4E85-AE74-BD70786846F7}"/>
-    <hyperlink ref="C318" r:id="rId280" display="https://workbench.cisecurity.org/sections/1117258/recommendations/1825745" xr:uid="{B3449D3B-5214-40B2-BBBA-1556FA6CDECD}"/>
-    <hyperlink ref="C319" r:id="rId281" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825746" xr:uid="{095A7829-EFA3-4711-B1B0-AA87BE3EEE04}"/>
-    <hyperlink ref="C320" r:id="rId282" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825747" xr:uid="{B8A5D0E7-05C0-4E90-B9F0-27CC0CD40481}"/>
-    <hyperlink ref="C321" r:id="rId283" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825748" xr:uid="{FFF5C0CC-57A2-48F9-BD52-E51C61F2FCA4}"/>
-    <hyperlink ref="C322" r:id="rId284" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825749" xr:uid="{58A54676-06B5-42A9-8A4A-164526EEF4B7}"/>
-    <hyperlink ref="C323" r:id="rId285" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825750" xr:uid="{BA7B2A2D-C731-4655-B4BB-1872AC19DE69}"/>
-    <hyperlink ref="C324" r:id="rId286" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825751" xr:uid="{D258E32D-51ED-4D5F-A6FB-BEEBAB540C56}"/>
-    <hyperlink ref="C325" r:id="rId287" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825752" xr:uid="{C8AE5D72-732A-4CF7-B408-0948B9697844}"/>
-    <hyperlink ref="C326" r:id="rId288" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825753" xr:uid="{0365866F-8D33-4ED6-AC68-1617D2C14550}"/>
-    <hyperlink ref="C327" r:id="rId289" display="https://workbench.cisecurity.org/sections/1117273/recommendations/1825774" xr:uid="{91D6FC4B-BD71-4CA1-B2BE-12B28CF17D35}"/>
-    <hyperlink ref="C328" r:id="rId290" display="https://workbench.cisecurity.org/sections/1117273/recommendations/1825776" xr:uid="{D83E092B-5971-4F31-82AE-7C08DB72AE5D}"/>
-    <hyperlink ref="C329" r:id="rId291" display="https://workbench.cisecurity.org/sections/1117277/recommendations/1825779" xr:uid="{BE6C624E-A873-47CD-ADCE-2F92DA64E134}"/>
-    <hyperlink ref="C330" r:id="rId292" display="https://workbench.cisecurity.org/sections/1117277/recommendations/1825782" xr:uid="{1DCAC2CC-5206-407B-85FD-3E9672EDEAEA}"/>
-    <hyperlink ref="C331" r:id="rId293" display="https://workbench.cisecurity.org/sections/1117278/recommendations/1825784" xr:uid="{99E118AC-94A8-4330-895E-F29BA1535593}"/>
-    <hyperlink ref="C332" r:id="rId294" display="https://workbench.cisecurity.org/sections/1117278/recommendations/1825788" xr:uid="{4B986CA1-9C88-4B44-A59E-399C40DB61CB}"/>
-    <hyperlink ref="C333" r:id="rId295" display="https://workbench.cisecurity.org/sections/1117282/recommendations/1825792" xr:uid="{09530E63-80E7-4B2E-9946-3BDE47C30DFB}"/>
-    <hyperlink ref="C334" r:id="rId296" display="https://workbench.cisecurity.org/sections/1117282/recommendations/1825795" xr:uid="{EB33877E-428D-41AD-A493-F9F32E05902C}"/>
-    <hyperlink ref="C335" r:id="rId297" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825799" xr:uid="{EB6F517C-D619-4B96-8A67-CB36308DA152}"/>
-    <hyperlink ref="C336" r:id="rId298" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825803" xr:uid="{778CDEA3-B011-44CC-90AA-965E8B626E11}"/>
-    <hyperlink ref="C337" r:id="rId299" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825806" xr:uid="{C10B668A-18C7-40F4-A38B-D0BFAD6A02ED}"/>
-    <hyperlink ref="C338" r:id="rId300" display="https://workbench.cisecurity.org/sections/1117297/recommendations/1825815" xr:uid="{CC2D1F59-DE40-4B0C-BB1C-3FB333367999}"/>
-    <hyperlink ref="C339" r:id="rId301" display="https://workbench.cisecurity.org/sections/1117302/recommendations/1825819" xr:uid="{14C05EE0-E022-4C38-ABC7-8F94C9B7C963}"/>
-    <hyperlink ref="C340" r:id="rId302" display="https://workbench.cisecurity.org/sections/1117303/recommendations/1825823" xr:uid="{BBD603C7-FC93-4270-B7FD-E718C10F3B2E}"/>
-    <hyperlink ref="C341" r:id="rId303" display="https://workbench.cisecurity.org/sections/1117308/recommendations/1825827" xr:uid="{3AB69975-3470-4F21-86CC-F553C714B776}"/>
-    <hyperlink ref="C342" r:id="rId304" display="https://workbench.cisecurity.org/sections/1117308/recommendations/1825832" xr:uid="{D78A326A-CCF8-481C-8A72-1049E5BB454B}"/>
-    <hyperlink ref="C343" r:id="rId305" display="https://workbench.cisecurity.org/sections/1117314/recommendations/1825837" xr:uid="{F13EE283-D645-4C7D-885E-2DA5A0DF0A43}"/>
-    <hyperlink ref="C344" r:id="rId306" display="https://workbench.cisecurity.org/sections/1117314/recommendations/1825843" xr:uid="{AEC1DCCC-93F7-4421-9775-E7114A3B1925}"/>
-    <hyperlink ref="C345" r:id="rId307" display="https://workbench.cisecurity.org/sections/1117319/recommendations/1825872" xr:uid="{7EDE6A89-51EA-470F-A85A-8217F7AB5429}"/>
-    <hyperlink ref="C346" r:id="rId308" display="https://workbench.cisecurity.org/sections/1117324/recommendations/1825877" xr:uid="{478655B9-7C8B-4888-84CB-C6C9A24D39DE}"/>
-    <hyperlink ref="C347" r:id="rId309" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825884" xr:uid="{BB3A884F-8E73-4F94-A68B-5F88698FDF59}"/>
-    <hyperlink ref="C348" r:id="rId310" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825889" xr:uid="{CDFD72A9-F3BC-43EE-91D0-D23046FEDB2F}"/>
-    <hyperlink ref="C349" r:id="rId311" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825892" xr:uid="{7DC8D0E6-E49A-4F85-A3DA-A0502ED9F253}"/>
-    <hyperlink ref="C350" r:id="rId312" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825897" xr:uid="{2D9350AA-1C4A-4B3A-8420-7C51A28A1CC1}"/>
-    <hyperlink ref="C351" r:id="rId313" display="https://workbench.cisecurity.org/sections/1117343/recommendations/1825903" xr:uid="{2FF9A3AF-DAC4-4DF6-B5EF-CFE5C44442CD}"/>
-    <hyperlink ref="C352" r:id="rId314" display="https://workbench.cisecurity.org/sections/1117344/recommendations/1825908" xr:uid="{EE8737F1-2019-4D05-BADF-DA374118457F}"/>
-    <hyperlink ref="C353" r:id="rId315" display="https://workbench.cisecurity.org/sections/1117344/recommendations/1825913" xr:uid="{59EBF186-D0E3-44EB-B3A9-830D939D89BB}"/>
-    <hyperlink ref="C354" r:id="rId316" display="https://workbench.cisecurity.org/sections/1117360/recommendations/1825932" xr:uid="{8851CF71-118A-4E4E-A5E5-B10D975D4BE5}"/>
-    <hyperlink ref="C355" r:id="rId317" display="https://workbench.cisecurity.org/sections/1117375/recommendations/1825944" xr:uid="{65B81676-7935-4F7B-921E-EF4CC7B740FB}"/>
-    <hyperlink ref="C356" r:id="rId318" display="https://workbench.cisecurity.org/sections/1117380/recommendations/1825951" xr:uid="{8CF63D1E-9CAE-4D8F-B485-D3AB9C07E769}"/>
-    <hyperlink ref="C357" r:id="rId319" display="https://workbench.cisecurity.org/sections/1117385/recommendations/1825958" xr:uid="{71AB820E-0BAD-44EA-9E45-544B84D1AC64}"/>
-    <hyperlink ref="C358" r:id="rId320" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1858438" xr:uid="{271A682A-47E6-4BDF-BB94-A1DA89BBFE69}"/>
-    <hyperlink ref="C359" r:id="rId321" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825964" xr:uid="{6080BBB5-F3E4-4BDC-8BDF-82ED260404A4}"/>
-    <hyperlink ref="C360" r:id="rId322" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825969" xr:uid="{799D7017-D660-4033-815A-7CE99E98AC0E}"/>
-    <hyperlink ref="C361" r:id="rId323" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1858440" xr:uid="{DD141FF8-C34F-415A-B3E4-A10F8055F916}"/>
-    <hyperlink ref="C362" r:id="rId324" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825975" xr:uid="{D5570E6E-18E6-43A2-AF3C-6E2B898B0EE1}"/>
-    <hyperlink ref="C363" r:id="rId325" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825980" xr:uid="{B06A2F37-C834-45C8-B6E1-6746238A11EF}"/>
-    <hyperlink ref="C364" r:id="rId326" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825988" xr:uid="{514499A7-28B7-4298-BBC5-8C8664E2374A}"/>
-    <hyperlink ref="C365" r:id="rId327" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825994" xr:uid="{BED701E5-6255-4B9E-B041-E3552C8DF53F}"/>
-    <hyperlink ref="C366" r:id="rId328" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825999" xr:uid="{C267A258-4445-4055-BF50-EDA4F9FD8303}"/>
-    <hyperlink ref="C367" r:id="rId329" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1826004" xr:uid="{C5D037C1-6ACA-4464-B032-38593FECD9ED}"/>
-    <hyperlink ref="C368" r:id="rId330" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1826008" xr:uid="{1F339DC9-D457-4135-8E05-CE1E39F30D76}"/>
-    <hyperlink ref="C369" r:id="rId331" display="https://workbench.cisecurity.org/sections/1117435/recommendations/1826011" xr:uid="{F56C3AF8-7D5A-4F1C-9963-C307252E914E}"/>
-    <hyperlink ref="C370" r:id="rId332" display="https://workbench.cisecurity.org/sections/1117435/recommendations/1826017" xr:uid="{A204E171-09EB-4104-AF76-2C872FFBB1E0}"/>
-    <hyperlink ref="C371" r:id="rId333" display="https://workbench.cisecurity.org/sections/1117458/recommendations/1826021" xr:uid="{5FBD034F-A5C9-4055-97DB-6FA890B706D2}"/>
-    <hyperlink ref="C372" r:id="rId334" display="https://workbench.cisecurity.org/sections/1117458/recommendations/1826024" xr:uid="{CA0EC348-521A-4E26-9FEE-03359271792E}"/>
-    <hyperlink ref="C373" r:id="rId335" display="https://workbench.cisecurity.org/sections/1117465/recommendations/1826029" xr:uid="{EE93B58B-111A-47CC-A7BC-A8FCEE541D4D}"/>
-    <hyperlink ref="C374" r:id="rId336" display="https://workbench.cisecurity.org/sections/1117466/recommendations/1826032" xr:uid="{ACA757AD-95B8-4E41-B814-F6F332F4BBB1}"/>
-    <hyperlink ref="C375" r:id="rId337" display="https://workbench.cisecurity.org/sections/1117466/recommendations/1826036" xr:uid="{A00FC28A-E096-4D31-B0D9-AA09BAD1839B}"/>
-    <hyperlink ref="C376" r:id="rId338" display="https://workbench.cisecurity.org/sections/1117472/recommendations/1826043" xr:uid="{8B24DAAA-D8BA-4696-9334-CA0690699E13}"/>
-    <hyperlink ref="C377" r:id="rId339" display="https://workbench.cisecurity.org/sections/1117486/recommendations/1826049" xr:uid="{8B673709-2D87-4BC4-8BB7-77A0ED422ED3}"/>
-    <hyperlink ref="C378" r:id="rId340" display="https://workbench.cisecurity.org/sections/1117498/recommendations/1826059" xr:uid="{A93F46AD-D580-4BB0-98E0-AC626158B73F}"/>
-    <hyperlink ref="C379" r:id="rId341" display="https://workbench.cisecurity.org/sections/1117498/recommendations/1826062" xr:uid="{2F58FB0E-DDD4-4C1C-949C-6A7BEE96B15E}"/>
-    <hyperlink ref="C380" r:id="rId342" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826068" xr:uid="{0AC2971B-B080-42E1-B746-7633AF7D8982}"/>
-    <hyperlink ref="C381" r:id="rId343" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826071" xr:uid="{C539BEA0-50FA-49BD-8B06-BD2ED6D08A75}"/>
-    <hyperlink ref="C382" r:id="rId344" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826074" xr:uid="{72BFCA5F-8FC0-4498-927D-7D02524C3CEF}"/>
-    <hyperlink ref="C383" r:id="rId345" display="https://workbench.cisecurity.org/sections/1117509/recommendations/1826076" xr:uid="{115B0D74-E6D6-4510-A8B1-C5F68D9A3EFB}"/>
-    <hyperlink ref="C384" r:id="rId346" display="https://workbench.cisecurity.org/sections/1117522/recommendations/1826080" xr:uid="{9C5AEA10-6EBD-4DAC-AD59-EB4CDBA7AD66}"/>
-    <hyperlink ref="C385" r:id="rId347" display="https://workbench.cisecurity.org/sections/1117522/recommendations/1826083" xr:uid="{4B1B075F-0D52-4F5B-A19E-A3A1ECF2DBC6}"/>
-    <hyperlink ref="C386" r:id="rId348" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826086" xr:uid="{08E678C6-B3BF-4FDD-B630-CFB3064454D3}"/>
-    <hyperlink ref="C387" r:id="rId349" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826089" xr:uid="{4C84D143-5800-415F-8865-C6BABBF761A1}"/>
-    <hyperlink ref="C388" r:id="rId350" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826092" xr:uid="{65CF5C96-2F89-4407-B5E4-63ACECF045A5}"/>
-    <hyperlink ref="C389" r:id="rId351" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826094" xr:uid="{3DF7DF43-CF2B-4EA8-8010-9ECF42C14CBA}"/>
-    <hyperlink ref="C390" r:id="rId352" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826097" xr:uid="{D96C36F9-14A8-4979-81B1-BCF1BBD72AA1}"/>
-    <hyperlink ref="C391" r:id="rId353" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826100" xr:uid="{8C64F721-D11B-4860-8ECF-01A624E53A6C}"/>
-    <hyperlink ref="C392" r:id="rId354" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826101" xr:uid="{5DEC0AC2-A30F-428B-8EBD-4BDB11476915}"/>
-    <hyperlink ref="C393" r:id="rId355" display="https://workbench.cisecurity.org/sections/1117540/recommendations/1826102" xr:uid="{DF4A0DFD-A9AE-4820-A674-F356416F6C05}"/>
-    <hyperlink ref="C394" r:id="rId356" display="https://workbench.cisecurity.org/sections/1117544/recommendations/1826104" xr:uid="{82948185-D458-4310-9411-3AD0DF2BC17F}"/>
-    <hyperlink ref="C395" r:id="rId357" display="https://workbench.cisecurity.org/sections/1117549/recommendations/1826110" xr:uid="{888D59C3-9B88-442A-A274-604E833DF9F2}"/>
-    <hyperlink ref="C396" r:id="rId358" display="https://workbench.cisecurity.org/sections/1117561/recommendations/1826114" xr:uid="{6860A944-F998-4296-9313-16ACC2943F86}"/>
-    <hyperlink ref="C397" r:id="rId359" display="https://workbench.cisecurity.org/sections/1117561/recommendations/1826116" xr:uid="{F22E413F-B069-4757-A961-2C93484DE2D2}"/>
-    <hyperlink ref="C398" r:id="rId360" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826118" xr:uid="{048BA544-4250-4A92-BB59-9FB6CB00C756}"/>
-    <hyperlink ref="C399" r:id="rId361" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826120" xr:uid="{4ED3DBF5-042A-444D-9D9F-8AD70A63E862}"/>
-    <hyperlink ref="C400" r:id="rId362" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826123" xr:uid="{F7382B81-9689-4208-8597-60D49AEDAC84}"/>
-    <hyperlink ref="C401" r:id="rId363" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825533" xr:uid="{F94BACFD-94D2-40DD-9690-EE9D9A656CC8}"/>
-    <hyperlink ref="C402" r:id="rId364" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825541" xr:uid="{BBDDF067-F6B2-40BC-8EEA-B0F21BF386E0}"/>
-    <hyperlink ref="C403" r:id="rId365" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825545" xr:uid="{4AED8D16-3EAF-4073-980C-0753980BD2B7}"/>
-    <hyperlink ref="C404" r:id="rId366" display="https://workbench.cisecurity.org/sections/1117062/recommendations/1825552" xr:uid="{243240B0-D3DC-42E7-9D20-6A13CB1B385F}"/>
-    <hyperlink ref="C405" r:id="rId367" display="https://workbench.cisecurity.org/sections/1117072/recommendations/1825559" xr:uid="{B4937AD8-F3F5-4A67-B95C-752FB120CFAB}"/>
-    <hyperlink ref="C406" r:id="rId368" display="https://workbench.cisecurity.org/sections/1117078/recommendations/1825564" xr:uid="{C9E8DC31-FC5F-4B38-8538-B303CF320244}"/>
-    <hyperlink ref="C407" r:id="rId369" display="https://workbench.cisecurity.org/sections/1117078/recommendations/1825569" xr:uid="{6E5882B1-69A9-4F9A-B7F2-9990EA8CB2CA}"/>
-    <hyperlink ref="C408" r:id="rId370" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825573" xr:uid="{65B69C0D-1EC2-4217-8FED-579B51337D6A}"/>
-    <hyperlink ref="C409" r:id="rId371" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825577" xr:uid="{12E78287-5965-464A-BB0A-EA14E59C7126}"/>
-    <hyperlink ref="C410" r:id="rId372" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825580" xr:uid="{96B42123-CFA0-43B4-AEA6-E4D9174F2E2C}"/>
-    <hyperlink ref="C411" r:id="rId373" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825583" xr:uid="{C186D6D2-AAFC-4E08-9CC2-780896AD91F7}"/>
-    <hyperlink ref="C412" r:id="rId374" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825586" xr:uid="{4E3B4700-0260-41F6-A6C7-E21FE50A2162}"/>
-    <hyperlink ref="C413" r:id="rId375" display="https://workbench.cisecurity.org/sections/1117105/recommendations/1825591" xr:uid="{80CCB478-F932-46FE-9F8E-2E397F2B795A}"/>
-    <hyperlink ref="C414" r:id="rId376" display="https://workbench.cisecurity.org/sections/1117120/recommendations/1825596" xr:uid="{89932BA5-1830-4B5A-A9ED-31D436F9F76C}"/>
-    <hyperlink ref="C415" r:id="rId377" display="https://workbench.cisecurity.org/sections/1117126/recommendations/1825600" xr:uid="{216363B1-B5EB-4218-A16C-052563EBDC65}"/>
-    <hyperlink ref="C119" r:id="rId378" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825644" xr:uid="{A6662E2A-3508-468C-A704-4810896FD441}"/>
-    <hyperlink ref="C129" r:id="rId379" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825662" xr:uid="{1243301D-5178-4904-8B3E-D78529CCACFE}"/>
-    <hyperlink ref="C159" r:id="rId380" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825490" xr:uid="{26E61361-375A-4D79-BE9C-940F65B51CD6}"/>
-    <hyperlink ref="C160" r:id="rId381" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825494" xr:uid="{FB36B092-0199-4A52-B459-6F1182C2D33F}"/>
-    <hyperlink ref="C161" r:id="rId382" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825497" xr:uid="{06928FDB-345F-458C-B8D4-9636A04BC190}"/>
-    <hyperlink ref="C162" r:id="rId383" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825501" xr:uid="{C0B4E5E1-50EE-4F81-9351-323E560E9AFD}"/>
-    <hyperlink ref="C163" r:id="rId384" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825505" xr:uid="{97156C51-B47B-45AE-97CE-07F422524BE6}"/>
-    <hyperlink ref="C164" r:id="rId385" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825509" xr:uid="{74C02E06-0CC7-4120-BC29-951279917244}"/>
-    <hyperlink ref="C165" r:id="rId386" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825514" xr:uid="{B59E0E88-56E6-4172-B551-CFAE3E989211}"/>
-    <hyperlink ref="C166" r:id="rId387" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825519" xr:uid="{E9778765-42AC-4E69-AFA8-5698C5522BD0}"/>
-    <hyperlink ref="C167" r:id="rId388" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825523" xr:uid="{E197E04D-5921-4D4A-873E-9188D44EA5BC}"/>
-    <hyperlink ref="C168" r:id="rId389" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825528" xr:uid="{AA1EEA33-460F-4E00-B59C-C8E5668370E7}"/>
-    <hyperlink ref="C207" r:id="rId390" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825520" xr:uid="{21A4B2A5-C772-405D-A19C-556FE949EB60}"/>
-    <hyperlink ref="C208" r:id="rId391" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825526" xr:uid="{BA5BC56D-50EE-4765-8206-43B18F75BA82}"/>
-    <hyperlink ref="C209" r:id="rId392" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825530" xr:uid="{F1F87E13-BE13-457E-BCD4-E92B9EB25555}"/>
-    <hyperlink ref="C210" r:id="rId393" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825534" xr:uid="{FF277FB5-3EE6-4792-94E8-4B93327E8A1E}"/>
-    <hyperlink ref="C211" r:id="rId394" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825538" xr:uid="{E323C188-6B57-4ECF-8B65-107440B5AE04}"/>
-    <hyperlink ref="C212" r:id="rId395" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825542" xr:uid="{ADF457E4-787C-4831-BB74-7678B609E62D}"/>
-    <hyperlink ref="C253" r:id="rId396" display="https://workbench.cisecurity.org/sections/1117166/recommendations/1825665" xr:uid="{F379327F-E108-42A8-94FC-E8CC8748DBD7}"/>
-    <hyperlink ref="C254" r:id="rId397" display="https://workbench.cisecurity.org/sections/1117166/recommendations/1825666" xr:uid="{619D9F84-B90A-4A73-BEC1-3220C376393B}"/>
+    <hyperlink ref="C12" r:id="rId1" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825411" xr:uid="{7D0C5552-EB9F-473E-B0DD-CBC3025A93B5}"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825412" xr:uid="{FA266BC7-FB54-4049-A2AC-8E24A2E945D1}"/>
+    <hyperlink ref="C14" r:id="rId3" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825413" xr:uid="{BBAF59D7-CB6D-4803-8425-EDCD53D9F5B8}"/>
+    <hyperlink ref="C15" r:id="rId4" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825414" xr:uid="{9641237E-55DD-4597-9E28-07BC1CAB9CA1}"/>
+    <hyperlink ref="C16" r:id="rId5" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825415" xr:uid="{2C3D48D3-564F-40E7-B4DD-909AB1004F16}"/>
+    <hyperlink ref="C17" r:id="rId6" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825416" xr:uid="{EDA20C45-E578-4F2A-8E53-2195231AA03C}"/>
+    <hyperlink ref="C18" r:id="rId7" display="https://workbench.cisecurity.org/sections/1117011/recommendations/1825419" xr:uid="{62A2039D-2DA7-47AF-A002-924284CEF467}"/>
+    <hyperlink ref="C19" r:id="rId8" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825421" xr:uid="{B8BDE911-A0FD-4A84-81AC-6D2575F42733}"/>
+    <hyperlink ref="C20" r:id="rId9" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825423" xr:uid="{C805C0C9-A1F7-414E-880B-CFC59D4CB354}"/>
+    <hyperlink ref="C21" r:id="rId10" display="https://workbench.cisecurity.org/sections/1117015/recommendations/1825426" xr:uid="{FE15F125-B64A-4302-A3C6-7B3958E96F76}"/>
+    <hyperlink ref="C22" r:id="rId11" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825417" xr:uid="{9D12553C-285D-4A48-A326-F67FBA3CA4E2}"/>
+    <hyperlink ref="C23" r:id="rId12" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825418" xr:uid="{38B935A6-F550-455B-86E8-F6C2AF6C9B41}"/>
+    <hyperlink ref="C24" r:id="rId13" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825420" xr:uid="{EE93B5F8-0149-4F35-A234-585B434586FF}"/>
+    <hyperlink ref="C25" r:id="rId14" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825422" xr:uid="{D3A02C9C-1D5A-4F85-95AB-5691BFB25AE4}"/>
+    <hyperlink ref="C26" r:id="rId15" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825424" xr:uid="{A73621EC-60AE-4DB9-B5BF-1B4CA33B4186}"/>
+    <hyperlink ref="C27" r:id="rId16" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825425" xr:uid="{242229C3-7EE8-4E33-9A47-459085B497B7}"/>
+    <hyperlink ref="C28" r:id="rId17" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825427" xr:uid="{4137E96F-77FD-4D56-B8ED-FEF29E29E53A}"/>
+    <hyperlink ref="C29" r:id="rId18" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825428" xr:uid="{9A2B8387-8D1C-410A-A0F9-7CB7D6E5719E}"/>
+    <hyperlink ref="C30" r:id="rId19" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825430" xr:uid="{CA5F5F63-E50E-4657-AD92-94CFC54EA4C0}"/>
+    <hyperlink ref="C31" r:id="rId20" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825431" xr:uid="{ACE04638-A683-429D-8FCE-A20DC3C9D247}"/>
+    <hyperlink ref="C32" r:id="rId21" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825433" xr:uid="{FBA902C4-E518-4122-83A6-59396C6C4606}"/>
+    <hyperlink ref="C33" r:id="rId22" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825434" xr:uid="{27203167-0E96-4B42-A562-CF0D07923A31}"/>
+    <hyperlink ref="C34" r:id="rId23" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825435" xr:uid="{E8B612A5-FFD4-4FCA-ACBA-B180D21DA9D4}"/>
+    <hyperlink ref="C35" r:id="rId24" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825437" xr:uid="{F19D4665-0E2A-42D2-9BEF-42BCA8FFE309}"/>
+    <hyperlink ref="C36" r:id="rId25" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825439" xr:uid="{E985A221-E816-4E46-876A-A6B76D842943}"/>
+    <hyperlink ref="C37" r:id="rId26" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825440" xr:uid="{F29D33E4-11E8-41BF-9F73-2061BF4E9E42}"/>
+    <hyperlink ref="C38" r:id="rId27" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825442" xr:uid="{D7448766-CC74-4010-A5FC-0529CC0CD68C}"/>
+    <hyperlink ref="C39" r:id="rId28" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825443" xr:uid="{06BAC564-7AC8-4BC9-AE76-097BC95013B0}"/>
+    <hyperlink ref="C40" r:id="rId29" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825445" xr:uid="{64626996-6027-4E00-B915-D8DE1D16EED7}"/>
+    <hyperlink ref="C41" r:id="rId30" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825446" xr:uid="{581E05EB-4E09-4690-92A8-FC56B7B46591}"/>
+    <hyperlink ref="C42" r:id="rId31" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825448" xr:uid="{90F276E9-386F-4009-8B8B-DB9E62D45CB1}"/>
+    <hyperlink ref="C43" r:id="rId32" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825450" xr:uid="{9ED9F47D-68D9-4A49-974D-C05447EEB8FD}"/>
+    <hyperlink ref="C44" r:id="rId33" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825451" xr:uid="{4C5F4CA9-5193-46FC-BE61-DEC7B58FD919}"/>
+    <hyperlink ref="C45" r:id="rId34" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825453" xr:uid="{A561AC0B-C35E-4B41-B9CC-7DCD47C646EA}"/>
+    <hyperlink ref="C46" r:id="rId35" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825454" xr:uid="{7D68C4BB-49EA-4C3F-9741-DC1B1281F127}"/>
+    <hyperlink ref="C47" r:id="rId36" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825456" xr:uid="{CAD2DE76-6FEB-48A1-9A35-92AEBE6D9BDB}"/>
+    <hyperlink ref="C48" r:id="rId37" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825458" xr:uid="{DBD9EA7E-EB62-4DE0-A845-79B2E685A52A}"/>
+    <hyperlink ref="C49" r:id="rId38" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825461" xr:uid="{8A4504B8-8C0D-49F0-B15E-B7AECE6065B1}"/>
+    <hyperlink ref="C50" r:id="rId39" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825463" xr:uid="{7C7E2736-013B-4FD3-9688-7F16D4805CD6}"/>
+    <hyperlink ref="C51" r:id="rId40" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825466" xr:uid="{50BF37B1-B3B2-4EE8-BF8A-302F208D6DB3}"/>
+    <hyperlink ref="C52" r:id="rId41" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825469" xr:uid="{4B1722BC-83C4-4A23-8C58-A1529D6113E2}"/>
+    <hyperlink ref="C53" r:id="rId42" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825470" xr:uid="{B949045F-4518-4E9F-8DF1-DC280252AF0D}"/>
+    <hyperlink ref="C54" r:id="rId43" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825475" xr:uid="{8289B1BB-DC40-44D5-A587-4C932DA8E80D}"/>
+    <hyperlink ref="C55" r:id="rId44" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825477" xr:uid="{CA386A17-1B9D-4DF9-8E9B-AC77D22B0F6E}"/>
+    <hyperlink ref="C56" r:id="rId45" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825480" xr:uid="{6D6C8669-9DEC-48B6-ADA6-33FEB457868F}"/>
+    <hyperlink ref="C57" r:id="rId46" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825481" xr:uid="{8061BA15-88D4-4DAB-8238-B46DB50A23CE}"/>
+    <hyperlink ref="C58" r:id="rId47" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825484" xr:uid="{21663EFE-07CD-4103-8FA0-86795220F449}"/>
+    <hyperlink ref="C59" r:id="rId48" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825487" xr:uid="{9120D718-2283-43DA-B126-066B62CCDF61}"/>
+    <hyperlink ref="C60" r:id="rId49" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825488" xr:uid="{36FFF6A8-4B82-4F86-90E3-FE149CFCB379}"/>
+    <hyperlink ref="C61" r:id="rId50" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825491" xr:uid="{3C51198E-B690-47D1-B8B3-2E4566DF12EB}"/>
+    <hyperlink ref="C62" r:id="rId51" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825492" xr:uid="{E71D91DD-3110-4B4F-B443-991BE1BCB632}"/>
+    <hyperlink ref="C63" r:id="rId52" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825495" xr:uid="{43E39BB9-96C8-4991-9705-B8B975ED2629}"/>
+    <hyperlink ref="C64" r:id="rId53" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825499" xr:uid="{54B78B49-9461-4F26-9CC4-F4D93F4CEA8C}"/>
+    <hyperlink ref="C65" r:id="rId54" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825503" xr:uid="{65F89F7B-FF61-493D-B2AA-20CBEF205C5F}"/>
+    <hyperlink ref="C66" r:id="rId55" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825504" xr:uid="{F056C048-3491-4DD2-9D1D-C707ACF9C979}"/>
+    <hyperlink ref="C67" r:id="rId56" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825508" xr:uid="{86EE9AE5-24CC-4C5C-85C9-FD076D95760E}"/>
+    <hyperlink ref="C68" r:id="rId57" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825511" xr:uid="{223D44C6-3384-4054-818E-B5943E50C8F2}"/>
+    <hyperlink ref="C69" r:id="rId58" display="https://workbench.cisecurity.org/sections/1117014/recommendations/1825513" xr:uid="{6CED8683-068C-4786-9B43-FCF074D5855B}"/>
+    <hyperlink ref="C70" r:id="rId59" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825517" xr:uid="{96D9E63D-300A-4F88-A485-9DCE1813791F}"/>
+    <hyperlink ref="C71" r:id="rId60" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825521" xr:uid="{7F229C66-1655-4740-80B7-1E789E392E23}"/>
+    <hyperlink ref="C72" r:id="rId61" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825524" xr:uid="{FE46B8FB-D15D-4D8A-8D4D-B9621F14B3B8}"/>
+    <hyperlink ref="C73" r:id="rId62" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825527" xr:uid="{A30F6CB9-73A3-47E0-9160-299A6939C3AB}"/>
+    <hyperlink ref="C74" r:id="rId63" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825531" xr:uid="{14747DFF-F6C9-4455-8DAB-0708797F9477}"/>
+    <hyperlink ref="C75" r:id="rId64" display="https://workbench.cisecurity.org/sections/1117045/recommendations/1825535" xr:uid="{C7300438-0C2B-496D-B0F1-4C66979C2CDA}"/>
+    <hyperlink ref="C76" r:id="rId65" display="https://workbench.cisecurity.org/sections/1117053/recommendations/1825537" xr:uid="{37A1E8C3-C8FF-43F5-B745-7BE9D0BE77BB}"/>
+    <hyperlink ref="C77" r:id="rId66" display="https://workbench.cisecurity.org/sections/1117053/recommendations/1825543" xr:uid="{E6A1582E-01C3-427E-82A0-2A4BAADB1992}"/>
+    <hyperlink ref="C78" r:id="rId67" display="https://workbench.cisecurity.org/sections/1117057/recommendations/1825547" xr:uid="{30EC9C22-3BA3-453A-A289-8ACD29673753}"/>
+    <hyperlink ref="C79" r:id="rId68" display="https://workbench.cisecurity.org/sections/1117057/recommendations/1825550" xr:uid="{032FAC77-86E6-4929-B8E8-185E116B22CC}"/>
+    <hyperlink ref="C80" r:id="rId69" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825554" xr:uid="{04FAC81E-1429-43B9-B7FE-F19605133960}"/>
+    <hyperlink ref="C81" r:id="rId70" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825556" xr:uid="{5C388E1C-B994-450E-8F8A-9CC493B76C30}"/>
+    <hyperlink ref="C82" r:id="rId71" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825560" xr:uid="{4A35612D-64E4-4E6E-B938-87C88BC69508}"/>
+    <hyperlink ref="C83" r:id="rId72" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825563" xr:uid="{3A76EE9D-89D3-447B-BB4B-875863C57531}"/>
+    <hyperlink ref="C84" r:id="rId73" display="https://workbench.cisecurity.org/sections/1117063/recommendations/1825567" xr:uid="{C27958F7-440D-4A95-82E0-60D00BF8CA28}"/>
+    <hyperlink ref="C85" r:id="rId74" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825571" xr:uid="{C43825A9-DCBF-41D3-92CD-A7B4A42DBA5B}"/>
+    <hyperlink ref="C86" r:id="rId75" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825575" xr:uid="{D93FDEB1-209B-406D-BE9C-9A4EF93722C7}"/>
+    <hyperlink ref="C87" r:id="rId76" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825579" xr:uid="{124C1D01-AC3E-4068-93ED-5FAE169020CA}"/>
+    <hyperlink ref="C88" r:id="rId77" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825582" xr:uid="{62731C14-5D73-4957-A930-7D69F38F6B60}"/>
+    <hyperlink ref="C89" r:id="rId78" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825584" xr:uid="{FD2D4E4E-FE24-45DD-80F7-52C7CC19DCEA}"/>
+    <hyperlink ref="C90" r:id="rId79" display="https://workbench.cisecurity.org/sections/1117079/recommendations/1825588" xr:uid="{83CC5962-BB40-4ABB-992D-91181F8E4FFC}"/>
+    <hyperlink ref="C91" r:id="rId80" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825593" xr:uid="{0D902A06-C38C-4128-AC17-9B9F7E641DD0}"/>
+    <hyperlink ref="C92" r:id="rId81" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825595" xr:uid="{B7B70DCD-1EFB-4A6A-AF9C-00AA0FA75D30}"/>
+    <hyperlink ref="C93" r:id="rId82" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825598" xr:uid="{5033C8FB-3AEE-4A27-9BF8-A3F2B910849A}"/>
+    <hyperlink ref="C94" r:id="rId83" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825601" xr:uid="{C4B7FE47-34DD-4486-96A3-1653B3F9D482}"/>
+    <hyperlink ref="C95" r:id="rId84" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825603" xr:uid="{E9328855-477E-4ED8-9C0E-9FD7537CDB04}"/>
+    <hyperlink ref="C96" r:id="rId85" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825605" xr:uid="{40909A9E-2F4F-44CC-9E4D-D666DC52A772}"/>
+    <hyperlink ref="C97" r:id="rId86" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825607" xr:uid="{D53FF91E-D77D-4384-822C-67F8962C16B6}"/>
+    <hyperlink ref="C98" r:id="rId87" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825609" xr:uid="{2198778C-267E-49F5-997A-D069C1FF8292}"/>
+    <hyperlink ref="C99" r:id="rId88" display="https://workbench.cisecurity.org/sections/1117101/recommendations/1825611" xr:uid="{91F160EE-1B44-4400-BE2D-B3D5A1758748}"/>
+    <hyperlink ref="C100" r:id="rId89" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825613" xr:uid="{08578B38-E6C3-488D-86ED-E7F7BBC9A4FB}"/>
+    <hyperlink ref="C101" r:id="rId90" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825615" xr:uid="{36BD6799-48AD-4DA8-A20A-95109D3BD696}"/>
+    <hyperlink ref="C102" r:id="rId91" display="https://workbench.cisecurity.org/sections/1117132/recommendations/1825617" xr:uid="{5DDFE08B-DD51-47B3-9A87-BC93A21673E2}"/>
+    <hyperlink ref="C103" r:id="rId92" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825619" xr:uid="{7AC8C382-744F-4027-BD69-EFF949B1DAB0}"/>
+    <hyperlink ref="C104" r:id="rId93" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825620" xr:uid="{0C7CF5BD-F2B4-4429-B755-B24D15B29242}"/>
+    <hyperlink ref="C105" r:id="rId94" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825621" xr:uid="{D559E65C-7E71-4A60-BD96-7762B4D89075}"/>
+    <hyperlink ref="C106" r:id="rId95" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825623" xr:uid="{6BB7349E-B2A1-42A9-92D9-0E0B148449A9}"/>
+    <hyperlink ref="C107" r:id="rId96" display="https://workbench.cisecurity.org/sections/1117138/recommendations/1825624" xr:uid="{A3C71FDC-40DA-4E81-8527-7DE91B07B22F}"/>
+    <hyperlink ref="C108" r:id="rId97" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825625" xr:uid="{BDDBA8D4-BFCB-4FA7-AC15-455E1EC4289D}"/>
+    <hyperlink ref="C109" r:id="rId98" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825627" xr:uid="{F445DF54-05C3-4167-B1A5-4D502AF183CD}"/>
+    <hyperlink ref="C110" r:id="rId99" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825628" xr:uid="{9D8CB9DA-01DD-49F4-A215-86B6A3735283}"/>
+    <hyperlink ref="C111" r:id="rId100" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825630" xr:uid="{6B9A3F83-9011-488C-874B-4D13CB7D2D62}"/>
+    <hyperlink ref="C112" r:id="rId101" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825632" xr:uid="{723C5D18-2AFA-47DC-9A99-E215D4C5DE63}"/>
+    <hyperlink ref="C113" r:id="rId102" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825634" xr:uid="{B2E7A51C-40CA-4B5B-B28C-36DB4207ED77}"/>
+    <hyperlink ref="C114" r:id="rId103" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825636" xr:uid="{BE52B05E-0A00-4E53-A26B-4BA294FBD5CB}"/>
+    <hyperlink ref="C115" r:id="rId104" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825637" xr:uid="{8F6A221D-DE1E-4F10-8600-2BBA2F61A6B0}"/>
+    <hyperlink ref="C116" r:id="rId105" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825638" xr:uid="{F60AD0E3-BDD9-4679-8E3C-C73B2276FD4C}"/>
+    <hyperlink ref="C117" r:id="rId106" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825640" xr:uid="{A16960CC-C3FB-4A92-8876-1D221D741697}"/>
+    <hyperlink ref="C118" r:id="rId107" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825642" xr:uid="{59789FED-1A43-402E-ABC7-9E586F531873}"/>
+    <hyperlink ref="C119" r:id="rId108" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825643" xr:uid="{439737BE-3FDB-409F-9450-1168E4DEBEB3}"/>
+    <hyperlink ref="C121" r:id="rId109" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825646" xr:uid="{0FF8D7AA-2C54-4C94-9321-5F1041B4133A}"/>
+    <hyperlink ref="C122" r:id="rId110" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825648" xr:uid="{45FEE086-17DE-4CE7-AC24-341D8A785635}"/>
+    <hyperlink ref="C123" r:id="rId111" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825650" xr:uid="{B6BC0BC9-C3B6-4F1C-9525-37E06D716479}"/>
+    <hyperlink ref="C124" r:id="rId112" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825651" xr:uid="{D69A5762-488E-4461-80D4-4C95C900EC20}"/>
+    <hyperlink ref="C125" r:id="rId113" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825653" xr:uid="{B5B8E009-9EDD-4FA1-9109-A2842908022A}"/>
+    <hyperlink ref="C126" r:id="rId114" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825656" xr:uid="{48FD525E-0EBF-4E88-AAAB-2AC2BB919264}"/>
+    <hyperlink ref="C127" r:id="rId115" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825657" xr:uid="{FA7FCF51-7DEB-4E1F-A1DD-779ABE61AA62}"/>
+    <hyperlink ref="C128" r:id="rId116" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825659" xr:uid="{CEBBA353-5721-4E76-8136-6885606F83F9}"/>
+    <hyperlink ref="C129" r:id="rId117" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825661" xr:uid="{67B3CF0C-E01F-4F2D-892F-8907F0C40020}"/>
+    <hyperlink ref="C131" r:id="rId118" display="https://workbench.cisecurity.org/sections/1117165/recommendations/1825664" xr:uid="{1F0598B6-45D5-4ED5-8975-D07B93AA1576}"/>
+    <hyperlink ref="C132" r:id="rId119" display="https://workbench.cisecurity.org/sections/1117168/recommendations/1825667" xr:uid="{C81614DD-65EB-495A-B499-3DB41ED55DB8}"/>
+    <hyperlink ref="C133" r:id="rId120" display="https://workbench.cisecurity.org/sections/1117168/recommendations/1825668" xr:uid="{4889D8C6-5895-4580-AC24-5373328085E3}"/>
+    <hyperlink ref="C134" r:id="rId121" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825672" xr:uid="{D7DFE626-F490-429E-BFA6-8327F969C1F7}"/>
+    <hyperlink ref="C135" r:id="rId122" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825674" xr:uid="{EA2264A7-C566-471B-9803-4CE287B9D42D}"/>
+    <hyperlink ref="C136" r:id="rId123" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825676" xr:uid="{624F6FAF-CF2B-4898-9D8A-4280BE4D6C1B}"/>
+    <hyperlink ref="C137" r:id="rId124" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825678" xr:uid="{F359BCB7-C22B-4F93-A18A-15E9ABE1F7EE}"/>
+    <hyperlink ref="C138" r:id="rId125" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825680" xr:uid="{0D1BF434-FD57-4926-8AB3-2B456BB5D418}"/>
+    <hyperlink ref="C139" r:id="rId126" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825682" xr:uid="{35798869-BD20-4F56-AD65-C2D548CC820D}"/>
+    <hyperlink ref="C140" r:id="rId127" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825684" xr:uid="{5CBA3037-708B-4B75-9C73-9A3B9737DDC6}"/>
+    <hyperlink ref="C141" r:id="rId128" display="https://workbench.cisecurity.org/sections/1117171/recommendations/1825686" xr:uid="{B2D5D2C8-0925-4D97-8162-B378545DC6E1}"/>
+    <hyperlink ref="C142" r:id="rId129" display="https://workbench.cisecurity.org/sections/1117018/recommendations/1825429" xr:uid="{E3BBF73F-EB33-4D82-91E3-DB6F6A124371}"/>
+    <hyperlink ref="C143" r:id="rId130" display="https://workbench.cisecurity.org/sections/1117018/recommendations/1825432" xr:uid="{97FE6FA5-36E6-4512-AE5F-90AF7BB63D07}"/>
+    <hyperlink ref="C144" r:id="rId131" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825436" xr:uid="{260D04C8-E038-4149-9C5D-602AFDD8B3AC}"/>
+    <hyperlink ref="C145" r:id="rId132" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825438" xr:uid="{938B9880-021E-41AF-8299-D005A078918F}"/>
+    <hyperlink ref="C146" r:id="rId133" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825441" xr:uid="{8DCF57BA-80B0-4E39-B783-72F0FA0F0C92}"/>
+    <hyperlink ref="C147" r:id="rId134" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825444" xr:uid="{7EDF1D4A-CC21-4510-A088-CEA9C811D176}"/>
+    <hyperlink ref="C148" r:id="rId135" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825447" xr:uid="{EEBF86A6-380D-4CB0-A5DB-6936C602B951}"/>
+    <hyperlink ref="C149" r:id="rId136" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825449" xr:uid="{F8E4832E-CDC8-4C62-8559-069FF380DD76}"/>
+    <hyperlink ref="C150" r:id="rId137" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825452" xr:uid="{93B31445-242E-49D2-9D41-FC258D825220}"/>
+    <hyperlink ref="C151" r:id="rId138" display="https://workbench.cisecurity.org/sections/1117023/recommendations/1825455" xr:uid="{D3D7D0AC-F200-4793-8487-A6E9EA4B570F}"/>
+    <hyperlink ref="C170" r:id="rId139" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825457" xr:uid="{C40B79A6-18A7-47EB-9199-298C264B4307}"/>
+    <hyperlink ref="C171" r:id="rId140" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825460" xr:uid="{522E23E4-9216-41A5-8987-37B49C56A0CD}"/>
+    <hyperlink ref="C172" r:id="rId141" display="https://workbench.cisecurity.org/sections/1117032/recommendations/1825462" xr:uid="{965D2E7D-29C3-4ECB-A625-6F73A631158C}"/>
+    <hyperlink ref="C173" r:id="rId142" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825465" xr:uid="{012A7BF2-6AFB-42EB-BFC0-17607890B057}"/>
+    <hyperlink ref="C174" r:id="rId143" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825468" xr:uid="{50717CA2-B851-4208-BF48-57E2691805F0}"/>
+    <hyperlink ref="C175" r:id="rId144" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825472" xr:uid="{1696E1C3-26E2-4CBC-AF4B-8EBAAAD7AADD}"/>
+    <hyperlink ref="C176" r:id="rId145" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825476" xr:uid="{7F185A1C-79A9-405A-BA22-0C84CA2937FA}"/>
+    <hyperlink ref="C177" r:id="rId146" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825479" xr:uid="{9291B7F9-95F5-49FD-B2BA-2730340AB124}"/>
+    <hyperlink ref="C178" r:id="rId147" display="https://workbench.cisecurity.org/sections/1117034/recommendations/1825483" xr:uid="{1B113A1D-B675-4B90-8DBD-803685BEEFE6}"/>
+    <hyperlink ref="C179" r:id="rId148" display="https://workbench.cisecurity.org/sections/1117035/recommendations/1825485" xr:uid="{A113A592-8D0B-42A3-AE35-654E24D86903}"/>
+    <hyperlink ref="C180" r:id="rId149" display="https://workbench.cisecurity.org/sections/1117035/recommendations/1825489" xr:uid="{B0F7DA60-AD77-4A86-BB3A-37B6F8666164}"/>
+    <hyperlink ref="C181" r:id="rId150" display="https://workbench.cisecurity.org/sections/1117037/recommendations/1825493" xr:uid="{F85CF96C-73C3-4C1C-B736-D937F72F8FA8}"/>
+    <hyperlink ref="C182" r:id="rId151" display="https://workbench.cisecurity.org/sections/1117037/recommendations/1825496" xr:uid="{2FBFC23B-4831-456C-BDCC-C05014FDF3D1}"/>
+    <hyperlink ref="C183" r:id="rId152" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825500" xr:uid="{3811CE7D-A841-40BD-AA5A-A46D23406178}"/>
+    <hyperlink ref="C184" r:id="rId153" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825506" xr:uid="{B6807F75-BAB7-48A6-A50D-8DCB39D97872}"/>
+    <hyperlink ref="C185" r:id="rId154" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825510" xr:uid="{A88D3CFB-304E-4D9F-9216-2B6C262AF0ED}"/>
+    <hyperlink ref="C186" r:id="rId155" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825516" xr:uid="{86C26B3C-2052-4626-874E-2A2D07120DAD}"/>
+    <hyperlink ref="C187" r:id="rId156" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825518" xr:uid="{A4313095-F1F6-4E31-9B1F-D9AE6BA61C20}"/>
+    <hyperlink ref="C188" r:id="rId157" display="https://workbench.cisecurity.org/sections/1117038/recommendations/1825522" xr:uid="{C9CBE815-4386-4DF4-8C84-84E287E42C9D}"/>
+    <hyperlink ref="C189" r:id="rId158" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825525" xr:uid="{35880342-F342-4B02-9807-FC9DB6768BF6}"/>
+    <hyperlink ref="C190" r:id="rId159" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825529" xr:uid="{AB0FE423-7809-4EF2-AC64-E6ADB5D418C1}"/>
+    <hyperlink ref="C191" r:id="rId160" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825532" xr:uid="{1BD58792-16D3-49B1-B9A3-2508C5D59B75}"/>
+    <hyperlink ref="C192" r:id="rId161" display="https://workbench.cisecurity.org/sections/1117047/recommendations/1825536" xr:uid="{3D3D7AC5-4D50-4A5E-B2F7-781FA54C080E}"/>
+    <hyperlink ref="C193" r:id="rId162" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825540" xr:uid="{8BDBE780-2AC1-4979-A2E8-BD1A12A69D42}"/>
+    <hyperlink ref="C194" r:id="rId163" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825544" xr:uid="{30230B7D-FB84-4B9C-ABE8-86A71A3237C2}"/>
+    <hyperlink ref="C195" r:id="rId164" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825548" xr:uid="{6B4F427D-85CB-4CC8-BA1A-F4FAC19DABEF}"/>
+    <hyperlink ref="C196" r:id="rId165" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825551" xr:uid="{8DC30B6C-A5B8-4533-932C-131AF6A9B454}"/>
+    <hyperlink ref="C197" r:id="rId166" display="https://workbench.cisecurity.org/sections/1117054/recommendations/1825555" xr:uid="{E74C7F8A-0172-43DD-B70D-0FFB4EE54697}"/>
+    <hyperlink ref="C198" r:id="rId167" display="https://workbench.cisecurity.org/sections/1117070/recommendations/1825558" xr:uid="{05D8C471-D44B-4D52-B27D-587D6CBD93C1}"/>
+    <hyperlink ref="C199" r:id="rId168" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825562" xr:uid="{7AD15CF6-05E5-4D00-B974-57905406D4A9}"/>
+    <hyperlink ref="C200" r:id="rId169" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825565" xr:uid="{00421274-F63D-4AD2-8259-E08443CFAA17}"/>
+    <hyperlink ref="C201" r:id="rId170" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825568" xr:uid="{96B58D57-B9A8-46EF-9A02-B85E5F4E507A}"/>
+    <hyperlink ref="C202" r:id="rId171" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825572" xr:uid="{DED8A4CD-E9D6-495F-9D34-9B7B374C234E}"/>
+    <hyperlink ref="C203" r:id="rId172" display="https://workbench.cisecurity.org/sections/1117073/recommendations/1825576" xr:uid="{BCFBDE1A-2005-40EF-B251-F42F755C471B}"/>
+    <hyperlink ref="C207" r:id="rId173" display="https://workbench.cisecurity.org/sections/1117040/recommendations/1825515" xr:uid="{F7A3D654-3750-46FB-A49E-E2E3B1324EC7}"/>
+    <hyperlink ref="C204" r:id="rId174" display="https://workbench.cisecurity.org/sections/1117041/recommendations/1825502" xr:uid="{4861C41E-B322-4E88-A39E-B4ACCF2DB4CC}"/>
+    <hyperlink ref="C205" r:id="rId175" display="https://workbench.cisecurity.org/sections/1117041/recommendations/1825507" xr:uid="{F6C5F3B3-0AD5-4E74-AF34-B318F8BBCBB8}"/>
+    <hyperlink ref="C206" r:id="rId176" display="https://workbench.cisecurity.org/sections/1117042/recommendations/1825512" xr:uid="{F5F00FAE-DD91-4295-ADD9-083080850296}"/>
+    <hyperlink ref="C214" r:id="rId177" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825546" xr:uid="{0259BDC1-9C52-43D7-A5C9-856883F499E8}"/>
+    <hyperlink ref="C215" r:id="rId178" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825553" xr:uid="{EBD37EF1-933A-4DE2-BFB8-6AA1C71C2E43}"/>
+    <hyperlink ref="C216" r:id="rId179" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825557" xr:uid="{0C4C80F2-FB4C-46BD-B863-EF4B13870032}"/>
+    <hyperlink ref="C217" r:id="rId180" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825561" xr:uid="{1DF1C9A8-5DED-4EEB-ACAC-7C2770B1519E}"/>
+    <hyperlink ref="C218" r:id="rId181" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825570" xr:uid="{276659A9-805A-4FD6-8F0A-7F68F2538F6E}"/>
+    <hyperlink ref="C219" r:id="rId182" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825574" xr:uid="{FA78B15E-F0CF-4645-B828-BF951311661B}"/>
+    <hyperlink ref="C220" r:id="rId183" display="https://workbench.cisecurity.org/sections/1117055/recommendations/1825578" xr:uid="{1701733A-D084-4A28-9D5D-0E79D06E58B9}"/>
+    <hyperlink ref="C221" r:id="rId184" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825581" xr:uid="{0956E9BA-3923-4C2B-A330-4F05291027BC}"/>
+    <hyperlink ref="C222" r:id="rId185" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825585" xr:uid="{66390F64-5B13-4285-8064-7636B611FBE9}"/>
+    <hyperlink ref="C223" r:id="rId186" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825587" xr:uid="{CB01C30E-76BD-4696-8689-463E779652DD}"/>
+    <hyperlink ref="C224" r:id="rId187" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825589" xr:uid="{C59C3983-2261-4F3A-87EF-7C975FE15260}"/>
+    <hyperlink ref="C225" r:id="rId188" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825592" xr:uid="{3A79E946-7269-44AE-BBF4-86DBC42F749A}"/>
+    <hyperlink ref="C226" r:id="rId189" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825594" xr:uid="{A245E557-8586-44B5-9C3A-0D57AB922103}"/>
+    <hyperlink ref="C227" r:id="rId190" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825597" xr:uid="{0EDA4EE7-429D-4588-B943-979D9ACE7125}"/>
+    <hyperlink ref="C228" r:id="rId191" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825599" xr:uid="{01BB594F-0BD0-49D3-96E1-CF55AB414E44}"/>
+    <hyperlink ref="C229" r:id="rId192" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825602" xr:uid="{D94513EA-A6B4-4CB9-B3FB-285449FF212E}"/>
+    <hyperlink ref="C230" r:id="rId193" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825604" xr:uid="{C0941664-003F-4DFE-A158-78A94E3B438F}"/>
+    <hyperlink ref="C231" r:id="rId194" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825606" xr:uid="{9D936FF5-1E60-489D-8E5F-54AFFA77BCF2}"/>
+    <hyperlink ref="C232" r:id="rId195" display="https://workbench.cisecurity.org/sections/1117084/recommendations/1825608" xr:uid="{E84CDD0C-2DBE-4404-969B-6B32A4E9D55B}"/>
+    <hyperlink ref="C233" r:id="rId196" display="https://workbench.cisecurity.org/sections/1117131/recommendations/1825610" xr:uid="{14B5530C-C902-462B-B725-D882F40155D3}"/>
+    <hyperlink ref="C234" r:id="rId197" display="https://workbench.cisecurity.org/sections/1117131/recommendations/1825612" xr:uid="{6F72B70A-C4C4-4133-8177-6BC024168F28}"/>
+    <hyperlink ref="C235" r:id="rId198" display="https://workbench.cisecurity.org/sections/1117133/recommendations/1825614" xr:uid="{900DA61C-9B65-409C-AFAE-9E09A9AE295D}"/>
+    <hyperlink ref="C236" r:id="rId199" display="https://workbench.cisecurity.org/sections/1117136/recommendations/1825616" xr:uid="{0E0CB621-2A09-4600-A2AA-B6A04B11CF8D}"/>
+    <hyperlink ref="C237" r:id="rId200" display="https://workbench.cisecurity.org/sections/1117137/recommendations/1825618" xr:uid="{200AE59B-61C3-469A-BAD9-AFF4D38D5F1E}"/>
+    <hyperlink ref="C238" r:id="rId201" display="https://workbench.cisecurity.org/sections/1117137/recommendations/1825622" xr:uid="{A1BC8217-8549-4145-9EA4-E21A5016B0E2}"/>
+    <hyperlink ref="C239" r:id="rId202" display="https://workbench.cisecurity.org/sections/1117140/recommendations/1825626" xr:uid="{89BFA654-CCB1-46B1-AB2B-BA98B5313EC3}"/>
+    <hyperlink ref="C240" r:id="rId203" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825629" xr:uid="{6BAD3049-535B-4819-AC08-D09739880F87}"/>
+    <hyperlink ref="C241" r:id="rId204" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825631" xr:uid="{6EE983CD-19D0-4D92-9A80-0F4035247102}"/>
+    <hyperlink ref="C242" r:id="rId205" display="https://workbench.cisecurity.org/sections/1117142/recommendations/1825633" xr:uid="{C9BBB676-1ABA-40D2-936B-F6D5DD2E0084}"/>
+    <hyperlink ref="C243" r:id="rId206" display="https://workbench.cisecurity.org/sections/1117146/recommendations/1825635" xr:uid="{471C413E-399D-449F-89E9-36F48F3BDE8F}"/>
+    <hyperlink ref="C244" r:id="rId207" display="https://workbench.cisecurity.org/sections/1117153/recommendations/1825639" xr:uid="{A07AFF57-860D-404D-84B9-CC532F7D85D8}"/>
+    <hyperlink ref="C245" r:id="rId208" display="https://workbench.cisecurity.org/sections/1117154/recommendations/1825641" xr:uid="{6CAE56CF-D945-48D3-AEE2-AF23C0EF3B52}"/>
+    <hyperlink ref="C246" r:id="rId209" display="https://workbench.cisecurity.org/sections/1117154/recommendations/1825645" xr:uid="{942ABD51-9FC2-4CD8-AB4C-C7781BD2AD9B}"/>
+    <hyperlink ref="C247" r:id="rId210" display="https://workbench.cisecurity.org/sections/1117156/recommendations/1825647" xr:uid="{2DC1B17C-E898-47D8-B26C-C584CBBDB45C}"/>
+    <hyperlink ref="C248" r:id="rId211" display="https://workbench.cisecurity.org/sections/1117156/recommendations/1825652" xr:uid="{7F755417-1B62-41F6-BC53-A260B56D58D1}"/>
+    <hyperlink ref="C249" r:id="rId212" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825654" xr:uid="{DC9DBC88-ECEA-4FE2-B409-F59A7D096E27}"/>
+    <hyperlink ref="C250" r:id="rId213" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825655" xr:uid="{65880178-3DEC-4D84-830E-7F85312E947B}"/>
+    <hyperlink ref="C251" r:id="rId214" display="https://workbench.cisecurity.org/sections/1117157/recommendations/1825658" xr:uid="{31797B12-2228-4D93-846A-3E47203CF108}"/>
+    <hyperlink ref="C252" r:id="rId215" display="https://workbench.cisecurity.org/sections/1117159/recommendations/1825660" xr:uid="{DBC21B7A-091F-4C5D-B881-B6B8274D99E1}"/>
+    <hyperlink ref="C253" r:id="rId216" display="https://workbench.cisecurity.org/sections/1117163/recommendations/1825663" xr:uid="{1A3C8FA0-15F5-4761-83EB-FBE2A7BDF648}"/>
+    <hyperlink ref="C256" r:id="rId217" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825669" xr:uid="{56AF01C3-532F-4AD9-961D-A8FB21114F89}"/>
+    <hyperlink ref="C257" r:id="rId218" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825671" xr:uid="{606BCD85-1414-49F1-97BF-06B7D4A27116}"/>
+    <hyperlink ref="C258" r:id="rId219" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825673" xr:uid="{5E0A02F2-4814-4E01-BCF7-37E9FCB21981}"/>
+    <hyperlink ref="C259" r:id="rId220" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825675" xr:uid="{ACD95963-9BFB-468D-A077-A1668A4DBFB6}"/>
+    <hyperlink ref="C260" r:id="rId221" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825677" xr:uid="{742EBF31-F28E-498F-9B54-712884C56EDE}"/>
+    <hyperlink ref="C261" r:id="rId222" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825679" xr:uid="{8C730493-1EE7-414A-A470-89F45956FAFC}"/>
+    <hyperlink ref="C262" r:id="rId223" display="https://workbench.cisecurity.org/sections/1117169/recommendations/1825681" xr:uid="{4A7D4413-92D7-42A8-9C15-79EA243A7398}"/>
+    <hyperlink ref="C263" r:id="rId224" display="https://workbench.cisecurity.org/sections/1117173/recommendations/1825685" xr:uid="{6565135C-0D01-45D1-9D3D-B55B9F948EE8}"/>
+    <hyperlink ref="C264" r:id="rId225" display="https://workbench.cisecurity.org/sections/1117181/recommendations/1825687" xr:uid="{A6340EAB-8693-4C9F-BBF9-CD129108D6E2}"/>
+    <hyperlink ref="C265" r:id="rId226" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825688" xr:uid="{9F685D80-0422-4AD0-A1B1-D01E1B3CE70A}"/>
+    <hyperlink ref="C266" r:id="rId227" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825689" xr:uid="{1C94043E-D883-4914-B6C1-FFEC956F6DCE}"/>
+    <hyperlink ref="C267" r:id="rId228" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825690" xr:uid="{CB94670C-B58C-4A19-8461-680D0ADE0496}"/>
+    <hyperlink ref="C268" r:id="rId229" display="https://workbench.cisecurity.org/sections/1117188/recommendations/1825691" xr:uid="{89EF1492-503D-42C9-9CAA-C68959BE9171}"/>
+    <hyperlink ref="C269" r:id="rId230" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825692" xr:uid="{9A0983DB-6738-422C-8CBF-01EBA974CA75}"/>
+    <hyperlink ref="C270" r:id="rId231" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825693" xr:uid="{C5F4F4BC-CEA3-4F14-8B52-C26B5390C105}"/>
+    <hyperlink ref="C271" r:id="rId232" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825694" xr:uid="{7E832D11-1F44-4B3D-97E4-7F70801019B0}"/>
+    <hyperlink ref="C272" r:id="rId233" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825695" xr:uid="{AB159C5E-7ACB-4EFB-BA12-8C0FE7FDA968}"/>
+    <hyperlink ref="C273" r:id="rId234" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825696" xr:uid="{2E580628-8FDD-410F-BC47-949860CC9629}"/>
+    <hyperlink ref="C274" r:id="rId235" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825698" xr:uid="{D0FF6951-8F37-4D4F-AC9D-6077D2C2F4F9}"/>
+    <hyperlink ref="C275" r:id="rId236" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825699" xr:uid="{3C1FD09F-77BA-4E6A-8564-6BCF9B76B570}"/>
+    <hyperlink ref="C276" r:id="rId237" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825700" xr:uid="{2B7A15F4-3F14-406A-8735-F4EE46A3BC20}"/>
+    <hyperlink ref="C277" r:id="rId238" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825701" xr:uid="{9B5B9C32-D022-4408-BB1F-4D64AF1C6DBB}"/>
+    <hyperlink ref="C278" r:id="rId239" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825702" xr:uid="{8C9CCBC7-D17B-40D5-9F00-4437C8B60624}"/>
+    <hyperlink ref="C279" r:id="rId240" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825703" xr:uid="{7A4F761E-8815-44C7-AD28-7E5D9D265E26}"/>
+    <hyperlink ref="C280" r:id="rId241" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825704" xr:uid="{FECA4422-6E72-4E95-8DC3-94621A6AF51D}"/>
+    <hyperlink ref="C281" r:id="rId242" display="https://workbench.cisecurity.org/sections/1117191/recommendations/1825705" xr:uid="{F10AEB7B-4997-41D5-8ECD-859558380ED5}"/>
+    <hyperlink ref="C282" r:id="rId243" display="https://workbench.cisecurity.org/sections/1117194/recommendations/1825706" xr:uid="{E499F1F9-1D4C-44CE-A8B7-92DF8C8C4C9F}"/>
+    <hyperlink ref="C283" r:id="rId244" display="https://workbench.cisecurity.org/sections/1117195/recommendations/1825707" xr:uid="{2280A042-E75F-496F-BEB0-B7E3103F5C9E}"/>
+    <hyperlink ref="C284" r:id="rId245" display="https://workbench.cisecurity.org/sections/1117196/recommendations/1825708" xr:uid="{21A3161D-FB9F-491F-9B23-52932F50BFC2}"/>
+    <hyperlink ref="C285" r:id="rId246" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825710" xr:uid="{DE5F4B21-3321-4220-9CA1-0188E708756E}"/>
+    <hyperlink ref="C286" r:id="rId247" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825711" xr:uid="{77467936-CAC5-4DD2-8F2B-B52879F8EAD2}"/>
+    <hyperlink ref="C287" r:id="rId248" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825712" xr:uid="{395B816A-F97E-4681-BCB5-C4663F51B251}"/>
+    <hyperlink ref="C288" r:id="rId249" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825713" xr:uid="{7B48F277-C848-4E9E-B210-0464EADB2F8C}"/>
+    <hyperlink ref="C289" r:id="rId250" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825714" xr:uid="{E73EAAB1-C94C-48B1-83C3-5CB06D7E217D}"/>
+    <hyperlink ref="C290" r:id="rId251" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825715" xr:uid="{4F03FD29-AECC-4E09-9395-B700A19C559A}"/>
+    <hyperlink ref="C291" r:id="rId252" display="https://workbench.cisecurity.org/sections/1117197/recommendations/1825716" xr:uid="{0BB095E0-DA0D-4F46-A71A-E05D0939CD91}"/>
+    <hyperlink ref="C292" r:id="rId253" display="https://workbench.cisecurity.org/sections/1117200/recommendations/1825717" xr:uid="{F346EF11-888B-4ECF-B31E-F7E96F30DA78}"/>
+    <hyperlink ref="C293" r:id="rId254" display="https://workbench.cisecurity.org/sections/1117200/recommendations/1825718" xr:uid="{2E19C594-DC27-4590-AC6C-E9BE62099BFE}"/>
+    <hyperlink ref="C294" r:id="rId255" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825719" xr:uid="{CB4A13C2-6817-43C1-A1E6-36C6BC0806F6}"/>
+    <hyperlink ref="C295" r:id="rId256" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825720" xr:uid="{84872009-C57D-413A-8C20-16E764F0188C}"/>
+    <hyperlink ref="C296" r:id="rId257" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825721" xr:uid="{461F9795-74F2-4695-B31E-44B63A1E01E0}"/>
+    <hyperlink ref="C297" r:id="rId258" display="https://workbench.cisecurity.org/sections/1117209/recommendations/1825722" xr:uid="{0083E7FE-C8BA-4865-BA9B-71590D9B5BDB}"/>
+    <hyperlink ref="C298" r:id="rId259" display="https://workbench.cisecurity.org/sections/1117211/recommendations/1825723" xr:uid="{299E36EB-BED2-4417-B0A7-2E5F41537434}"/>
+    <hyperlink ref="C299" r:id="rId260" display="https://workbench.cisecurity.org/sections/1117211/recommendations/1825724" xr:uid="{473F1C85-FB0D-455F-97AB-7F0AA5C5015F}"/>
+    <hyperlink ref="C300" r:id="rId261" display="https://workbench.cisecurity.org/sections/1117212/recommendations/1825725" xr:uid="{5388E80C-533B-4737-BC09-3A929490EC54}"/>
+    <hyperlink ref="C301" r:id="rId262" display="https://workbench.cisecurity.org/sections/1117212/recommendations/1825726" xr:uid="{F7A6354C-459B-4AAC-8DBC-E361200CEA42}"/>
+    <hyperlink ref="C302" r:id="rId263" display="https://workbench.cisecurity.org/sections/1117215/recommendations/1825727" xr:uid="{F1B2F1A9-06ED-4EC6-A278-CBFEAC6C6751}"/>
+    <hyperlink ref="C303" r:id="rId264" display="https://workbench.cisecurity.org/sections/1117228/recommendations/1825728" xr:uid="{2770382D-1897-4FCF-93D4-5E4E15B1B2DD}"/>
+    <hyperlink ref="C304" r:id="rId265" display="https://workbench.cisecurity.org/sections/1117234/recommendations/1825729" xr:uid="{E5E25D47-B5CB-49AF-88B0-2A8CB32B8EC0}"/>
+    <hyperlink ref="C305" r:id="rId266" display="https://workbench.cisecurity.org/sections/1117236/recommendations/1825730" xr:uid="{B7F99A28-87FC-4558-957D-2718B53EBE6C}"/>
+    <hyperlink ref="C306" r:id="rId267" display="https://workbench.cisecurity.org/sections/1117240/recommendations/1825731" xr:uid="{B6A66A66-F785-46F6-9F3B-2E1A51EC95DC}"/>
+    <hyperlink ref="C307" r:id="rId268" display="https://workbench.cisecurity.org/sections/1117240/recommendations/1825732" xr:uid="{9C4FF5E3-2098-4DFD-B826-8C0632AAAAFE}"/>
+    <hyperlink ref="C308" r:id="rId269" display="https://workbench.cisecurity.org/sections/1117245/recommendations/1825733" xr:uid="{209919DF-E574-4EFE-B005-0E9F5EC2FF21}"/>
+    <hyperlink ref="C309" r:id="rId270" display="https://workbench.cisecurity.org/sections/1117247/recommendations/1825734" xr:uid="{571F3CE5-C93E-4F9E-9B38-AFD7D1D46A49}"/>
+    <hyperlink ref="C310" r:id="rId271" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825735" xr:uid="{08AF651E-25E0-47E7-8DEB-C21B461F6BC1}"/>
+    <hyperlink ref="C311" r:id="rId272" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825736" xr:uid="{42C506A9-21F3-4527-B882-E2803D5288A9}"/>
+    <hyperlink ref="C312" r:id="rId273" display="https://workbench.cisecurity.org/sections/1117249/recommendations/1825737" xr:uid="{4A57AEE5-5D03-4E2A-9269-2B7E46685DBF}"/>
+    <hyperlink ref="C313" r:id="rId274" display="https://workbench.cisecurity.org/sections/1117252/recommendations/1825738" xr:uid="{8406A8E4-936C-41D7-B5A6-4743777B2FE5}"/>
+    <hyperlink ref="C314" r:id="rId275" display="https://workbench.cisecurity.org/sections/1117254/recommendations/1825739" xr:uid="{0BEB68F5-F26C-4DD6-89A6-9573C4098107}"/>
+    <hyperlink ref="C315" r:id="rId276" display="https://workbench.cisecurity.org/sections/1117256/recommendations/1825740" xr:uid="{413F16BC-8042-4B4F-AE70-A1327FA260B5}"/>
+    <hyperlink ref="C316" r:id="rId277" display="https://workbench.cisecurity.org/sections/1117256/recommendations/1825742" xr:uid="{1847B836-A6DB-4371-8640-B3DB39EF6C6B}"/>
+    <hyperlink ref="C317" r:id="rId278" display="https://workbench.cisecurity.org/sections/1117257/recommendations/1825743" xr:uid="{4CAA3B6B-336B-4A79-923A-93D0AC95E973}"/>
+    <hyperlink ref="C318" r:id="rId279" display="https://workbench.cisecurity.org/sections/1117258/recommendations/1825744" xr:uid="{EA524355-39AD-4E85-AE74-BD70786846F7}"/>
+    <hyperlink ref="C319" r:id="rId280" display="https://workbench.cisecurity.org/sections/1117258/recommendations/1825745" xr:uid="{B3449D3B-5214-40B2-BBBA-1556FA6CDECD}"/>
+    <hyperlink ref="C320" r:id="rId281" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825746" xr:uid="{095A7829-EFA3-4711-B1B0-AA87BE3EEE04}"/>
+    <hyperlink ref="C321" r:id="rId282" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825747" xr:uid="{B8A5D0E7-05C0-4E90-B9F0-27CC0CD40481}"/>
+    <hyperlink ref="C322" r:id="rId283" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825748" xr:uid="{FFF5C0CC-57A2-48F9-BD52-E51C61F2FCA4}"/>
+    <hyperlink ref="C323" r:id="rId284" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825749" xr:uid="{58A54676-06B5-42A9-8A4A-164526EEF4B7}"/>
+    <hyperlink ref="C324" r:id="rId285" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825750" xr:uid="{BA7B2A2D-C731-4655-B4BB-1872AC19DE69}"/>
+    <hyperlink ref="C325" r:id="rId286" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825751" xr:uid="{D258E32D-51ED-4D5F-A6FB-BEEBAB540C56}"/>
+    <hyperlink ref="C326" r:id="rId287" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825752" xr:uid="{C8AE5D72-732A-4CF7-B408-0948B9697844}"/>
+    <hyperlink ref="C327" r:id="rId288" display="https://workbench.cisecurity.org/sections/1117259/recommendations/1825753" xr:uid="{0365866F-8D33-4ED6-AC68-1617D2C14550}"/>
+    <hyperlink ref="C328" r:id="rId289" display="https://workbench.cisecurity.org/sections/1117273/recommendations/1825774" xr:uid="{91D6FC4B-BD71-4CA1-B2BE-12B28CF17D35}"/>
+    <hyperlink ref="C329" r:id="rId290" display="https://workbench.cisecurity.org/sections/1117273/recommendations/1825776" xr:uid="{D83E092B-5971-4F31-82AE-7C08DB72AE5D}"/>
+    <hyperlink ref="C330" r:id="rId291" display="https://workbench.cisecurity.org/sections/1117277/recommendations/1825779" xr:uid="{BE6C624E-A873-47CD-ADCE-2F92DA64E134}"/>
+    <hyperlink ref="C331" r:id="rId292" display="https://workbench.cisecurity.org/sections/1117277/recommendations/1825782" xr:uid="{1DCAC2CC-5206-407B-85FD-3E9672EDEAEA}"/>
+    <hyperlink ref="C332" r:id="rId293" display="https://workbench.cisecurity.org/sections/1117278/recommendations/1825784" xr:uid="{99E118AC-94A8-4330-895E-F29BA1535593}"/>
+    <hyperlink ref="C333" r:id="rId294" display="https://workbench.cisecurity.org/sections/1117278/recommendations/1825788" xr:uid="{4B986CA1-9C88-4B44-A59E-399C40DB61CB}"/>
+    <hyperlink ref="C334" r:id="rId295" display="https://workbench.cisecurity.org/sections/1117282/recommendations/1825792" xr:uid="{09530E63-80E7-4B2E-9946-3BDE47C30DFB}"/>
+    <hyperlink ref="C335" r:id="rId296" display="https://workbench.cisecurity.org/sections/1117282/recommendations/1825795" xr:uid="{EB33877E-428D-41AD-A493-F9F32E05902C}"/>
+    <hyperlink ref="C336" r:id="rId297" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825799" xr:uid="{EB6F517C-D619-4B96-8A67-CB36308DA152}"/>
+    <hyperlink ref="C337" r:id="rId298" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825803" xr:uid="{778CDEA3-B011-44CC-90AA-965E8B626E11}"/>
+    <hyperlink ref="C338" r:id="rId299" display="https://workbench.cisecurity.org/sections/1117286/recommendations/1825806" xr:uid="{C10B668A-18C7-40F4-A38B-D0BFAD6A02ED}"/>
+    <hyperlink ref="C339" r:id="rId300" display="https://workbench.cisecurity.org/sections/1117297/recommendations/1825815" xr:uid="{CC2D1F59-DE40-4B0C-BB1C-3FB333367999}"/>
+    <hyperlink ref="C340" r:id="rId301" display="https://workbench.cisecurity.org/sections/1117302/recommendations/1825819" xr:uid="{14C05EE0-E022-4C38-ABC7-8F94C9B7C963}"/>
+    <hyperlink ref="C341" r:id="rId302" display="https://workbench.cisecurity.org/sections/1117303/recommendations/1825823" xr:uid="{BBD603C7-FC93-4270-B7FD-E718C10F3B2E}"/>
+    <hyperlink ref="C342" r:id="rId303" display="https://workbench.cisecurity.org/sections/1117308/recommendations/1825827" xr:uid="{3AB69975-3470-4F21-86CC-F553C714B776}"/>
+    <hyperlink ref="C343" r:id="rId304" display="https://workbench.cisecurity.org/sections/1117308/recommendations/1825832" xr:uid="{D78A326A-CCF8-481C-8A72-1049E5BB454B}"/>
+    <hyperlink ref="C344" r:id="rId305" display="https://workbench.cisecurity.org/sections/1117314/recommendations/1825837" xr:uid="{F13EE283-D645-4C7D-885E-2DA5A0DF0A43}"/>
+    <hyperlink ref="C345" r:id="rId306" display="https://workbench.cisecurity.org/sections/1117314/recommendations/1825843" xr:uid="{AEC1DCCC-93F7-4421-9775-E7114A3B1925}"/>
+    <hyperlink ref="C346" r:id="rId307" display="https://workbench.cisecurity.org/sections/1117319/recommendations/1825872" xr:uid="{7EDE6A89-51EA-470F-A85A-8217F7AB5429}"/>
+    <hyperlink ref="C347" r:id="rId308" display="https://workbench.cisecurity.org/sections/1117324/recommendations/1825877" xr:uid="{478655B9-7C8B-4888-84CB-C6C9A24D39DE}"/>
+    <hyperlink ref="C348" r:id="rId309" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825884" xr:uid="{BB3A884F-8E73-4F94-A68B-5F88698FDF59}"/>
+    <hyperlink ref="C349" r:id="rId310" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825889" xr:uid="{CDFD72A9-F3BC-43EE-91D0-D23046FEDB2F}"/>
+    <hyperlink ref="C350" r:id="rId311" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825892" xr:uid="{7DC8D0E6-E49A-4F85-A3DA-A0502ED9F253}"/>
+    <hyperlink ref="C351" r:id="rId312" display="https://workbench.cisecurity.org/sections/1117334/recommendations/1825897" xr:uid="{2D9350AA-1C4A-4B3A-8420-7C51A28A1CC1}"/>
+    <hyperlink ref="C352" r:id="rId313" display="https://workbench.cisecurity.org/sections/1117343/recommendations/1825903" xr:uid="{2FF9A3AF-DAC4-4DF6-B5EF-CFE5C44442CD}"/>
+    <hyperlink ref="C353" r:id="rId314" display="https://workbench.cisecurity.org/sections/1117344/recommendations/1825908" xr:uid="{EE8737F1-2019-4D05-BADF-DA374118457F}"/>
+    <hyperlink ref="C354" r:id="rId315" display="https://workbench.cisecurity.org/sections/1117344/recommendations/1825913" xr:uid="{59EBF186-D0E3-44EB-B3A9-830D939D89BB}"/>
+    <hyperlink ref="C355" r:id="rId316" display="https://workbench.cisecurity.org/sections/1117360/recommendations/1825932" xr:uid="{8851CF71-118A-4E4E-A5E5-B10D975D4BE5}"/>
+    <hyperlink ref="C356" r:id="rId317" display="https://workbench.cisecurity.org/sections/1117375/recommendations/1825944" xr:uid="{65B81676-7935-4F7B-921E-EF4CC7B740FB}"/>
+    <hyperlink ref="C357" r:id="rId318" display="https://workbench.cisecurity.org/sections/1117380/recommendations/1825951" xr:uid="{8CF63D1E-9CAE-4D8F-B485-D3AB9C07E769}"/>
+    <hyperlink ref="C358" r:id="rId319" display="https://workbench.cisecurity.org/sections/1117385/recommendations/1825958" xr:uid="{71AB820E-0BAD-44EA-9E45-544B84D1AC64}"/>
+    <hyperlink ref="C359" r:id="rId320" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1858438" xr:uid="{271A682A-47E6-4BDF-BB94-A1DA89BBFE69}"/>
+    <hyperlink ref="C360" r:id="rId321" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825964" xr:uid="{6080BBB5-F3E4-4BDC-8BDF-82ED260404A4}"/>
+    <hyperlink ref="C361" r:id="rId322" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825969" xr:uid="{799D7017-D660-4033-815A-7CE99E98AC0E}"/>
+    <hyperlink ref="C362" r:id="rId323" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1858440" xr:uid="{DD141FF8-C34F-415A-B3E4-A10F8055F916}"/>
+    <hyperlink ref="C363" r:id="rId324" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825975" xr:uid="{D5570E6E-18E6-43A2-AF3C-6E2B898B0EE1}"/>
+    <hyperlink ref="C364" r:id="rId325" display="https://workbench.cisecurity.org/sections/1117392/recommendations/1825980" xr:uid="{B06A2F37-C834-45C8-B6E1-6746238A11EF}"/>
+    <hyperlink ref="C365" r:id="rId326" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825988" xr:uid="{514499A7-28B7-4298-BBC5-8C8664E2374A}"/>
+    <hyperlink ref="C366" r:id="rId327" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825994" xr:uid="{BED701E5-6255-4B9E-B041-E3552C8DF53F}"/>
+    <hyperlink ref="C367" r:id="rId328" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1825999" xr:uid="{C267A258-4445-4055-BF50-EDA4F9FD8303}"/>
+    <hyperlink ref="C368" r:id="rId329" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1826004" xr:uid="{C5D037C1-6ACA-4464-B032-38593FECD9ED}"/>
+    <hyperlink ref="C369" r:id="rId330" display="https://workbench.cisecurity.org/sections/1117414/recommendations/1826008" xr:uid="{1F339DC9-D457-4135-8E05-CE1E39F30D76}"/>
+    <hyperlink ref="C370" r:id="rId331" display="https://workbench.cisecurity.org/sections/1117435/recommendations/1826011" xr:uid="{F56C3AF8-7D5A-4F1C-9963-C307252E914E}"/>
+    <hyperlink ref="C371" r:id="rId332" display="https://workbench.cisecurity.org/sections/1117435/recommendations/1826017" xr:uid="{A204E171-09EB-4104-AF76-2C872FFBB1E0}"/>
+    <hyperlink ref="C372" r:id="rId333" display="https://workbench.cisecurity.org/sections/1117458/recommendations/1826021" xr:uid="{5FBD034F-A5C9-4055-97DB-6FA890B706D2}"/>
+    <hyperlink ref="C373" r:id="rId334" display="https://workbench.cisecurity.org/sections/1117458/recommendations/1826024" xr:uid="{CA0EC348-521A-4E26-9FEE-03359271792E}"/>
+    <hyperlink ref="C374" r:id="rId335" display="https://workbench.cisecurity.org/sections/1117465/recommendations/1826029" xr:uid="{EE93B58B-111A-47CC-A7BC-A8FCEE541D4D}"/>
+    <hyperlink ref="C375" r:id="rId336" display="https://workbench.cisecurity.org/sections/1117466/recommendations/1826032" xr:uid="{ACA757AD-95B8-4E41-B814-F6F332F4BBB1}"/>
+    <hyperlink ref="C376" r:id="rId337" display="https://workbench.cisecurity.org/sections/1117466/recommendations/1826036" xr:uid="{A00FC28A-E096-4D31-B0D9-AA09BAD1839B}"/>
+    <hyperlink ref="C377" r:id="rId338" display="https://workbench.cisecurity.org/sections/1117472/recommendations/1826043" xr:uid="{8B24DAAA-D8BA-4696-9334-CA0690699E13}"/>
+    <hyperlink ref="C378" r:id="rId339" display="https://workbench.cisecurity.org/sections/1117486/recommendations/1826049" xr:uid="{8B673709-2D87-4BC4-8BB7-77A0ED422ED3}"/>
+    <hyperlink ref="C379" r:id="rId340" display="https://workbench.cisecurity.org/sections/1117498/recommendations/1826059" xr:uid="{A93F46AD-D580-4BB0-98E0-AC626158B73F}"/>
+    <hyperlink ref="C380" r:id="rId341" display="https://workbench.cisecurity.org/sections/1117498/recommendations/1826062" xr:uid="{2F58FB0E-DDD4-4C1C-949C-6A7BEE96B15E}"/>
+    <hyperlink ref="C381" r:id="rId342" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826068" xr:uid="{0AC2971B-B080-42E1-B746-7633AF7D8982}"/>
+    <hyperlink ref="C382" r:id="rId343" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826071" xr:uid="{C539BEA0-50FA-49BD-8B06-BD2ED6D08A75}"/>
+    <hyperlink ref="C383" r:id="rId344" display="https://workbench.cisecurity.org/sections/1117504/recommendations/1826074" xr:uid="{72BFCA5F-8FC0-4498-927D-7D02524C3CEF}"/>
+    <hyperlink ref="C384" r:id="rId345" display="https://workbench.cisecurity.org/sections/1117509/recommendations/1826076" xr:uid="{115B0D74-E6D6-4510-A8B1-C5F68D9A3EFB}"/>
+    <hyperlink ref="C385" r:id="rId346" display="https://workbench.cisecurity.org/sections/1117522/recommendations/1826080" xr:uid="{9C5AEA10-6EBD-4DAC-AD59-EB4CDBA7AD66}"/>
+    <hyperlink ref="C386" r:id="rId347" display="https://workbench.cisecurity.org/sections/1117522/recommendations/1826083" xr:uid="{4B1B075F-0D52-4F5B-A19E-A3A1ECF2DBC6}"/>
+    <hyperlink ref="C387" r:id="rId348" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826086" xr:uid="{08E678C6-B3BF-4FDD-B630-CFB3064454D3}"/>
+    <hyperlink ref="C388" r:id="rId349" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826089" xr:uid="{4C84D143-5800-415F-8865-C6BABBF761A1}"/>
+    <hyperlink ref="C389" r:id="rId350" display="https://workbench.cisecurity.org/sections/1117527/recommendations/1826092" xr:uid="{65CF5C96-2F89-4407-B5E4-63ACECF045A5}"/>
+    <hyperlink ref="C390" r:id="rId351" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826094" xr:uid="{3DF7DF43-CF2B-4EA8-8010-9ECF42C14CBA}"/>
+    <hyperlink ref="C391" r:id="rId352" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826097" xr:uid="{D96C36F9-14A8-4979-81B1-BCF1BBD72AA1}"/>
+    <hyperlink ref="C392" r:id="rId353" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826100" xr:uid="{8C64F721-D11B-4860-8ECF-01A624E53A6C}"/>
+    <hyperlink ref="C393" r:id="rId354" display="https://workbench.cisecurity.org/sections/1117531/recommendations/1826101" xr:uid="{5DEC0AC2-A30F-428B-8EBD-4BDB11476915}"/>
+    <hyperlink ref="C394" r:id="rId355" display="https://workbench.cisecurity.org/sections/1117540/recommendations/1826102" xr:uid="{DF4A0DFD-A9AE-4820-A674-F356416F6C05}"/>
+    <hyperlink ref="C395" r:id="rId356" display="https://workbench.cisecurity.org/sections/1117544/recommendations/1826104" xr:uid="{82948185-D458-4310-9411-3AD0DF2BC17F}"/>
+    <hyperlink ref="C396" r:id="rId357" display="https://workbench.cisecurity.org/sections/1117549/recommendations/1826110" xr:uid="{888D59C3-9B88-442A-A274-604E833DF9F2}"/>
+    <hyperlink ref="C397" r:id="rId358" display="https://workbench.cisecurity.org/sections/1117561/recommendations/1826114" xr:uid="{6860A944-F998-4296-9313-16ACC2943F86}"/>
+    <hyperlink ref="C398" r:id="rId359" display="https://workbench.cisecurity.org/sections/1117561/recommendations/1826116" xr:uid="{F22E413F-B069-4757-A961-2C93484DE2D2}"/>
+    <hyperlink ref="C399" r:id="rId360" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826118" xr:uid="{048BA544-4250-4A92-BB59-9FB6CB00C756}"/>
+    <hyperlink ref="C400" r:id="rId361" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826120" xr:uid="{4ED3DBF5-042A-444D-9D9F-8AD70A63E862}"/>
+    <hyperlink ref="C401" r:id="rId362" display="https://workbench.cisecurity.org/sections/1117564/recommendations/1826123" xr:uid="{F7382B81-9689-4208-8597-60D49AEDAC84}"/>
+    <hyperlink ref="C402" r:id="rId363" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825533" xr:uid="{F94BACFD-94D2-40DD-9690-EE9D9A656CC8}"/>
+    <hyperlink ref="C403" r:id="rId364" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825541" xr:uid="{BBDDF067-F6B2-40BC-8EEA-B0F21BF386E0}"/>
+    <hyperlink ref="C404" r:id="rId365" display="https://workbench.cisecurity.org/sections/1117052/recommendations/1825545" xr:uid="{4AED8D16-3EAF-4073-980C-0753980BD2B7}"/>
+    <hyperlink ref="C405" r:id="rId366" display="https://workbench.cisecurity.org/sections/1117062/recommendations/1825552" xr:uid="{243240B0-D3DC-42E7-9D20-6A13CB1B385F}"/>
+    <hyperlink ref="C406" r:id="rId367" display="https://workbench.cisecurity.org/sections/1117072/recommendations/1825559" xr:uid="{B4937AD8-F3F5-4A67-B95C-752FB120CFAB}"/>
+    <hyperlink ref="C407" r:id="rId368" display="https://workbench.cisecurity.org/sections/1117078/recommendations/1825564" xr:uid="{C9E8DC31-FC5F-4B38-8538-B303CF320244}"/>
+    <hyperlink ref="C408" r:id="rId369" display="https://workbench.cisecurity.org/sections/1117078/recommendations/1825569" xr:uid="{6E5882B1-69A9-4F9A-B7F2-9990EA8CB2CA}"/>
+    <hyperlink ref="C409" r:id="rId370" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825573" xr:uid="{65B69C0D-1EC2-4217-8FED-579B51337D6A}"/>
+    <hyperlink ref="C410" r:id="rId371" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825577" xr:uid="{12E78287-5965-464A-BB0A-EA14E59C7126}"/>
+    <hyperlink ref="C411" r:id="rId372" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825580" xr:uid="{96B42123-CFA0-43B4-AEA6-E4D9174F2E2C}"/>
+    <hyperlink ref="C412" r:id="rId373" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825583" xr:uid="{C186D6D2-AAFC-4E08-9CC2-780896AD91F7}"/>
+    <hyperlink ref="C413" r:id="rId374" display="https://workbench.cisecurity.org/sections/1117083/recommendations/1825586" xr:uid="{4E3B4700-0260-41F6-A6C7-E21FE50A2162}"/>
+    <hyperlink ref="C414" r:id="rId375" display="https://workbench.cisecurity.org/sections/1117105/recommendations/1825591" xr:uid="{80CCB478-F932-46FE-9F8E-2E397F2B795A}"/>
+    <hyperlink ref="C415" r:id="rId376" display="https://workbench.cisecurity.org/sections/1117120/recommendations/1825596" xr:uid="{89932BA5-1830-4B5A-A9ED-31D436F9F76C}"/>
+    <hyperlink ref="C416" r:id="rId377" display="https://workbench.cisecurity.org/sections/1117126/recommendations/1825600" xr:uid="{216363B1-B5EB-4218-A16C-052563EBDC65}"/>
+    <hyperlink ref="C120" r:id="rId378" display="https://workbench.cisecurity.org/sections/1117139/recommendations/1825644" xr:uid="{A6662E2A-3508-468C-A704-4810896FD441}"/>
+    <hyperlink ref="C130" r:id="rId379" display="https://workbench.cisecurity.org/sections/1117155/recommendations/1825662" xr:uid="{1243301D-5178-4904-8B3E-D78529CCACFE}"/>
+    <hyperlink ref="C160" r:id="rId380" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825490" xr:uid="{26E61361-375A-4D79-BE9C-940F65B51CD6}"/>
+    <hyperlink ref="C161" r:id="rId381" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825494" xr:uid="{FB36B092-0199-4A52-B459-6F1182C2D33F}"/>
+    <hyperlink ref="C162" r:id="rId382" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825497" xr:uid="{06928FDB-345F-458C-B8D4-9636A04BC190}"/>
+    <hyperlink ref="C163" r:id="rId383" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825501" xr:uid="{C0B4E5E1-50EE-4F81-9351-323E560E9AFD}"/>
+    <hyperlink ref="C164" r:id="rId384" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825505" xr:uid="{97156C51-B47B-45AE-97CE-07F422524BE6}"/>
+    <hyperlink ref="C165" r:id="rId385" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825509" xr:uid="{74C02E06-0CC7-4120-BC29-951279917244}"/>
+    <hyperlink ref="C166" r:id="rId386" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825514" xr:uid="{B59E0E88-56E6-4172-B551-CFAE3E989211}"/>
+    <hyperlink ref="C167" r:id="rId387" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825519" xr:uid="{E9778765-42AC-4E69-AFA8-5698C5522BD0}"/>
+    <hyperlink ref="C168" r:id="rId388" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825523" xr:uid="{E197E04D-5921-4D4A-873E-9188D44EA5BC}"/>
+    <hyperlink ref="C169" r:id="rId389" display="https://workbench.cisecurity.org/sections/1117036/recommendations/1825528" xr:uid="{AA1EEA33-460F-4E00-B59C-C8E5668370E7}"/>
+    <hyperlink ref="C208" r:id="rId390" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825520" xr:uid="{21A4B2A5-C772-405D-A19C-556FE949EB60}"/>
+    <hyperlink ref="C209" r:id="rId391" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825526" xr:uid="{BA5BC56D-50EE-4765-8206-43B18F75BA82}"/>
+    <hyperlink ref="C210" r:id="rId392" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825530" xr:uid="{F1F87E13-BE13-457E-BCD4-E92B9EB25555}"/>
+    <hyperlink ref="C211" r:id="rId393" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825534" xr:uid="{FF277FB5-3EE6-4792-94E8-4B93327E8A1E}"/>
+    <hyperlink ref="C212" r:id="rId394" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825538" xr:uid="{E323C188-6B57-4ECF-8B65-107440B5AE04}"/>
+    <hyperlink ref="C213" r:id="rId395" display="https://workbench.cisecurity.org/sections/1117046/recommendations/1825542" xr:uid="{ADF457E4-787C-4831-BB74-7678B609E62D}"/>
+    <hyperlink ref="C254" r:id="rId396" display="https://workbench.cisecurity.org/sections/1117166/recommendations/1825665" xr:uid="{F379327F-E108-42A8-94FC-E8CC8748DBD7}"/>
+    <hyperlink ref="C255" r:id="rId397" display="https://workbench.cisecurity.org/sections/1117166/recommendations/1825666" xr:uid="{619D9F84-B90A-4A73-BEC1-3220C376393B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId398"/>
@@ -7910,6 +7928,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c23bcc05-bb70-448c-b869-ca05feb44454">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="636f7450-4f64-45f7-aa6c-f98af71a66c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D1E9D9E8C516145ACFBCB6BAA5EA879" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d4fa9c8c5c5a66aa181cf143a0895ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c23bcc05-bb70-448c-b869-ca05feb44454" xmlns:ns3="636f7450-4f64-45f7-aa6c-f98af71a66c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3480ff6356aeaa2bb89f18c4a6ac38" ns2:_="" ns3:_="">
     <xsd:import namespace="c23bcc05-bb70-448c-b869-ca05feb44454"/>
@@ -8152,27 +8190,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c23bcc05-bb70-448c-b869-ca05feb44454"/>
+    <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c23bcc05-bb70-448c-b869-ca05feb44454">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="636f7450-4f64-45f7-aa6c-f98af71a66c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{563C9C07-A392-4FB2-ABD0-36AFFD924442}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8189,23 +8226,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c23bcc05-bb70-448c-b869-ca05feb44454"/>
-    <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CIS-Windows-Server-2022.xlsx
+++ b/CIS-Windows-Server-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82932C3-78FF-4354-A77E-8F787B68856C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CA30EB-5497-4A4C-9BDD-F8201475082D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="20025" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
   </bookViews>
@@ -2469,9 +2469,6 @@
     <t>Domain Controller Only (not applied)</t>
   </si>
   <si>
-    <t>User Configuration that isn't automated using registry (not applied)</t>
-  </si>
-  <si>
     <t>Black Text</t>
   </si>
   <si>
@@ -2488,6 +2485,9 @@
   </si>
   <si>
     <t>Configured by compatibility assurance options in the script</t>
+  </si>
+  <si>
+    <t>User Configuration that isn't automated (not applied) - The machine level configuration already implements these settings.</t>
   </si>
 </sst>
 </file>
@@ -3021,18 +3021,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B5" t="s">
         <v>815</v>
-      </c>
-      <c r="B5" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="B6" t="s">
         <v>819</v>
-      </c>
-      <c r="B6" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,10 +3045,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="B8" t="s">
         <v>817</v>
-      </c>
-      <c r="B8" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>811</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7928,26 +7928,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c23bcc05-bb70-448c-b869-ca05feb44454">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="636f7450-4f64-45f7-aa6c-f98af71a66c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D1E9D9E8C516145ACFBCB6BAA5EA879" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d4fa9c8c5c5a66aa181cf143a0895ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c23bcc05-bb70-448c-b869-ca05feb44454" xmlns:ns3="636f7450-4f64-45f7-aa6c-f98af71a66c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3480ff6356aeaa2bb89f18c4a6ac38" ns2:_="" ns3:_="">
     <xsd:import namespace="c23bcc05-bb70-448c-b869-ca05feb44454"/>
@@ -8190,26 +8170,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c23bcc05-bb70-448c-b869-ca05feb44454"/>
-    <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c23bcc05-bb70-448c-b869-ca05feb44454">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="636f7450-4f64-45f7-aa6c-f98af71a66c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{563C9C07-A392-4FB2-ABD0-36AFFD924442}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8226,4 +8207,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c23bcc05-bb70-448c-b869-ca05feb44454"/>
+    <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CIS-Windows-Server-2022.xlsx
+++ b/CIS-Windows-Server-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjmartin\Documents\GitHub\CIS-Windows-Server-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657D81C-BC61-495D-9FB7-07EADAF6EB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F469BF6-ADE2-4BD5-92C6-B658A911051D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2708,88 +2708,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6070,7 +5989,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D912533B-4071-432C-8A9D-8C253FCFD15E}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D912533B-4071-432C-8A9D-8C253FCFD15E}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -7748,8 +7667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DB50BF-856E-4B09-82A9-B1D3B9A7E638}">
   <dimension ref="A1:E416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290"/>
+    <sheetView tabSelected="1" topLeftCell="A387" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:XFD406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="145.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13918,6 +13837,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c23bcc05-bb70-448c-b869-ca05feb44454">
@@ -13926,15 +13854,6 @@
     <TaxCatchAll xmlns="636f7450-4f64-45f7-aa6c-f98af71a66c2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14181,20 +14100,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c23bcc05-bb70-448c-b869-ca05feb44454"/>
     <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
